--- a/BackTest/2020-01-24 BackTest TRV.xlsx
+++ b/BackTest/2020-01-24 BackTest TRV.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N103"/>
+  <dimension ref="A1:M132"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,40 +394,35 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>MA60</t>
+          <t>low_check</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>high_check</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Condition</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -438,36 +433,33 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>11.86</v>
+        <v>11.88</v>
       </c>
       <c r="C2" t="n">
-        <v>11.86</v>
+        <v>11.88</v>
       </c>
       <c r="D2" t="n">
-        <v>11.86</v>
+        <v>11.88</v>
       </c>
       <c r="E2" t="n">
-        <v>11.86</v>
+        <v>11.88</v>
       </c>
       <c r="F2" t="n">
-        <v>43</v>
+        <v>57714.8541</v>
       </c>
       <c r="G2" t="n">
-        <v>11.79133333333334</v>
+        <v>-889016.1658999999</v>
       </c>
       <c r="H2" t="n">
-        <v>11.892</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>1</v>
       </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -476,40 +468,33 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>11.86</v>
+        <v>11.87</v>
       </c>
       <c r="C3" t="n">
-        <v>11.86</v>
+        <v>11.87</v>
       </c>
       <c r="D3" t="n">
-        <v>11.86</v>
+        <v>11.87</v>
       </c>
       <c r="E3" t="n">
-        <v>11.86</v>
+        <v>11.87</v>
       </c>
       <c r="F3" t="n">
-        <v>37715.0378</v>
+        <v>27491.6418</v>
       </c>
       <c r="G3" t="n">
-        <v>11.80066666666668</v>
+        <v>-916507.8076999999</v>
       </c>
       <c r="H3" t="n">
-        <v>11.88783333333334</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>11.86</v>
-      </c>
-      <c r="L3" t="n">
-        <v>11.86</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,44 +503,33 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>11.86</v>
+        <v>11.87</v>
       </c>
       <c r="C4" t="n">
-        <v>11.86</v>
+        <v>11.87</v>
       </c>
       <c r="D4" t="n">
-        <v>11.86</v>
+        <v>11.87</v>
       </c>
       <c r="E4" t="n">
-        <v>11.86</v>
+        <v>11.87</v>
       </c>
       <c r="F4" t="n">
-        <v>11166.2744</v>
+        <v>9219.693499999999</v>
       </c>
       <c r="G4" t="n">
-        <v>11.81000000000001</v>
+        <v>-916507.8076999999</v>
       </c>
       <c r="H4" t="n">
-        <v>11.88366666666667</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>11.86</v>
-      </c>
-      <c r="L4" t="n">
-        <v>11.86</v>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -564,44 +538,33 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>11.94</v>
+        <v>11.86</v>
       </c>
       <c r="C5" t="n">
-        <v>11.94</v>
+        <v>11.86</v>
       </c>
       <c r="D5" t="n">
-        <v>11.94</v>
+        <v>11.86</v>
       </c>
       <c r="E5" t="n">
-        <v>11.94</v>
+        <v>11.86</v>
       </c>
       <c r="F5" t="n">
-        <v>50</v>
+        <v>1322.2796</v>
       </c>
       <c r="G5" t="n">
-        <v>11.82133333333334</v>
+        <v>-917830.0872999999</v>
       </c>
       <c r="H5" t="n">
-        <v>11.88083333333334</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>1</v>
       </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>11.86</v>
-      </c>
-      <c r="L5" t="n">
-        <v>11.86</v>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N5" t="n">
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -610,36 +573,33 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>11.87</v>
+        <v>11.85</v>
       </c>
       <c r="C6" t="n">
-        <v>11.87</v>
+        <v>11.85</v>
       </c>
       <c r="D6" t="n">
-        <v>11.87</v>
+        <v>11.85</v>
       </c>
       <c r="E6" t="n">
-        <v>11.87</v>
+        <v>11.85</v>
       </c>
       <c r="F6" t="n">
-        <v>5056.1334</v>
+        <v>39035.2493</v>
       </c>
       <c r="G6" t="n">
-        <v>11.82733333333334</v>
+        <v>-956865.3365999999</v>
       </c>
       <c r="H6" t="n">
-        <v>11.877</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="n">
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -648,36 +608,33 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>11.87</v>
+        <v>11.85</v>
       </c>
       <c r="C7" t="n">
-        <v>11.87</v>
+        <v>11.85</v>
       </c>
       <c r="D7" t="n">
-        <v>11.87</v>
+        <v>11.85</v>
       </c>
       <c r="E7" t="n">
-        <v>11.87</v>
+        <v>11.85</v>
       </c>
       <c r="F7" t="n">
-        <v>12464.6216</v>
+        <v>2027.6793</v>
       </c>
       <c r="G7" t="n">
-        <v>11.83400000000001</v>
+        <v>-956865.3365999999</v>
       </c>
       <c r="H7" t="n">
-        <v>11.8735</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="n">
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -686,36 +643,37 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>11.94</v>
+        <v>11.84</v>
       </c>
       <c r="C8" t="n">
-        <v>11.94</v>
+        <v>11.84</v>
       </c>
       <c r="D8" t="n">
-        <v>11.94</v>
+        <v>11.84</v>
       </c>
       <c r="E8" t="n">
-        <v>11.94</v>
+        <v>11.84</v>
       </c>
       <c r="F8" t="n">
-        <v>50</v>
+        <v>29822.8086</v>
       </c>
       <c r="G8" t="n">
-        <v>11.84533333333334</v>
+        <v>-986688.1451999999</v>
       </c>
       <c r="H8" t="n">
-        <v>11.87133333333334</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="inlineStr"/>
+        <v>11.85</v>
+      </c>
+      <c r="K8" t="n">
+        <v>11.85</v>
+      </c>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="n">
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -724,36 +682,39 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>11.88</v>
+        <v>11.85</v>
       </c>
       <c r="C9" t="n">
-        <v>11.88</v>
+        <v>11.85</v>
       </c>
       <c r="D9" t="n">
-        <v>11.88</v>
+        <v>11.85</v>
       </c>
       <c r="E9" t="n">
-        <v>11.88</v>
+        <v>11.85</v>
       </c>
       <c r="F9" t="n">
-        <v>16793.1182</v>
+        <v>176</v>
       </c>
       <c r="G9" t="n">
-        <v>11.85266666666667</v>
+        <v>-986512.1451999999</v>
       </c>
       <c r="H9" t="n">
-        <v>11.8685</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="n">
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>11.85</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -762,40 +723,39 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>11.86</v>
+        <v>11.85</v>
       </c>
       <c r="C10" t="n">
-        <v>11.86</v>
+        <v>11.85</v>
       </c>
       <c r="D10" t="n">
-        <v>11.86</v>
+        <v>11.85</v>
       </c>
       <c r="E10" t="n">
-        <v>11.86</v>
+        <v>11.85</v>
       </c>
       <c r="F10" t="n">
-        <v>90000</v>
+        <v>574</v>
       </c>
       <c r="G10" t="n">
-        <v>11.86066666666667</v>
+        <v>-986512.1451999999</v>
       </c>
       <c r="H10" t="n">
-        <v>11.8655</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="n">
-        <v>11.88</v>
-      </c>
-      <c r="L10" t="n">
-        <v>11.88</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="n">
+        <v>11.85</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -804,44 +764,33 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>11.93</v>
+        <v>11.85</v>
       </c>
       <c r="C11" t="n">
-        <v>11.93</v>
+        <v>11.85</v>
       </c>
       <c r="D11" t="n">
-        <v>11.93</v>
+        <v>11.85</v>
       </c>
       <c r="E11" t="n">
-        <v>11.93</v>
+        <v>11.85</v>
       </c>
       <c r="F11" t="n">
-        <v>50</v>
+        <v>512</v>
       </c>
       <c r="G11" t="n">
-        <v>11.86800000000001</v>
+        <v>-986512.1451999999</v>
       </c>
       <c r="H11" t="n">
-        <v>11.86433333333334</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>11.86</v>
-      </c>
-      <c r="L11" t="n">
-        <v>11.88</v>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -850,44 +799,33 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>11.86</v>
+        <v>11.83</v>
       </c>
       <c r="C12" t="n">
-        <v>11.86</v>
+        <v>11.83</v>
       </c>
       <c r="D12" t="n">
-        <v>11.86</v>
+        <v>11.83</v>
       </c>
       <c r="E12" t="n">
-        <v>11.86</v>
+        <v>11.83</v>
       </c>
       <c r="F12" t="n">
-        <v>5000</v>
+        <v>91450.74099999999</v>
       </c>
       <c r="G12" t="n">
-        <v>11.86800000000001</v>
+        <v>-1077962.8862</v>
       </c>
       <c r="H12" t="n">
-        <v>11.8625</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>11.93</v>
-      </c>
-      <c r="L12" t="n">
-        <v>11.88</v>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -899,41 +837,30 @@
         <v>11.85</v>
       </c>
       <c r="C13" t="n">
-        <v>11.71</v>
+        <v>11.85</v>
       </c>
       <c r="D13" t="n">
         <v>11.85</v>
       </c>
       <c r="E13" t="n">
-        <v>11.71</v>
+        <v>11.85</v>
       </c>
       <c r="F13" t="n">
-        <v>69969.99998565401</v>
+        <v>66</v>
       </c>
       <c r="G13" t="n">
-        <v>11.86600000000001</v>
+        <v>-1077896.8862</v>
       </c>
       <c r="H13" t="n">
-        <v>11.85816666666667</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
-        <v>11.86</v>
-      </c>
-      <c r="L13" t="n">
-        <v>11.88</v>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -942,44 +869,33 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>11.92</v>
+        <v>11.83</v>
       </c>
       <c r="C14" t="n">
-        <v>11.92</v>
+        <v>11.83</v>
       </c>
       <c r="D14" t="n">
-        <v>11.92</v>
+        <v>11.83</v>
       </c>
       <c r="E14" t="n">
-        <v>11.92</v>
+        <v>11.83</v>
       </c>
       <c r="F14" t="n">
-        <v>42</v>
+        <v>275.3653</v>
       </c>
       <c r="G14" t="n">
-        <v>11.87066666666667</v>
+        <v>-1078172.2515</v>
       </c>
       <c r="H14" t="n">
-        <v>11.85766666666667</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>1</v>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>11.71</v>
-      </c>
-      <c r="L14" t="n">
-        <v>11.88</v>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N14" t="n">
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -988,44 +904,33 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>11.82</v>
+        <v>11.81</v>
       </c>
       <c r="C15" t="n">
-        <v>11.82</v>
+        <v>11.71</v>
       </c>
       <c r="D15" t="n">
-        <v>11.82</v>
+        <v>11.81</v>
       </c>
       <c r="E15" t="n">
-        <v>11.82</v>
+        <v>11.71</v>
       </c>
       <c r="F15" t="n">
-        <v>522.9987</v>
+        <v>219597.8189</v>
       </c>
       <c r="G15" t="n">
-        <v>11.86866666666667</v>
+        <v>-1297770.0704</v>
       </c>
       <c r="H15" t="n">
-        <v>11.8565</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
-        <v>11.92</v>
-      </c>
-      <c r="L15" t="n">
-        <v>11.88</v>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1037,41 +942,30 @@
         <v>11.82</v>
       </c>
       <c r="C16" t="n">
-        <v>12.39</v>
+        <v>11.82</v>
       </c>
       <c r="D16" t="n">
-        <v>12.39</v>
+        <v>11.82</v>
       </c>
       <c r="E16" t="n">
         <v>11.82</v>
       </c>
       <c r="F16" t="n">
-        <v>800409.6838591606</v>
+        <v>66</v>
       </c>
       <c r="G16" t="n">
-        <v>11.90466666666667</v>
+        <v>-1297704.0704</v>
       </c>
       <c r="H16" t="n">
-        <v>11.866</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
-        <v>11.82</v>
-      </c>
-      <c r="L16" t="n">
-        <v>11.88</v>
-      </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1080,42 +974,33 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>12.38</v>
+        <v>11.72</v>
       </c>
       <c r="C17" t="n">
-        <v>12.38</v>
+        <v>11.72</v>
       </c>
       <c r="D17" t="n">
-        <v>12.38</v>
+        <v>11.72</v>
       </c>
       <c r="E17" t="n">
-        <v>12.38</v>
+        <v>11.72</v>
       </c>
       <c r="F17" t="n">
-        <v>50</v>
+        <v>45093.816</v>
       </c>
       <c r="G17" t="n">
-        <v>11.93933333333334</v>
+        <v>-1342797.8864</v>
       </c>
       <c r="H17" t="n">
-        <v>11.87183333333334</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>11.88</v>
-      </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N17" t="n">
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1124,42 +1009,33 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>12.37</v>
+        <v>11.73</v>
       </c>
       <c r="C18" t="n">
-        <v>12.37</v>
+        <v>11.72</v>
       </c>
       <c r="D18" t="n">
-        <v>12.37</v>
+        <v>11.73</v>
       </c>
       <c r="E18" t="n">
-        <v>12.37</v>
+        <v>11.72</v>
       </c>
       <c r="F18" t="n">
-        <v>50</v>
+        <v>170000</v>
       </c>
       <c r="G18" t="n">
-        <v>11.97333333333334</v>
+        <v>-1342797.8864</v>
       </c>
       <c r="H18" t="n">
-        <v>11.87966666666667</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>11.88</v>
-      </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N18" t="n">
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1168,42 +1044,33 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>12.1</v>
+        <v>11.77</v>
       </c>
       <c r="C19" t="n">
-        <v>11.98</v>
+        <v>11.77</v>
       </c>
       <c r="D19" t="n">
-        <v>12.1</v>
+        <v>11.77</v>
       </c>
       <c r="E19" t="n">
-        <v>11.98</v>
+        <v>11.77</v>
       </c>
       <c r="F19" t="n">
-        <v>36983.4905</v>
+        <v>18827.4251</v>
       </c>
       <c r="G19" t="n">
-        <v>11.98133333333334</v>
+        <v>-1323970.4613</v>
       </c>
       <c r="H19" t="n">
-        <v>11.881</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>11.88</v>
-      </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N19" t="n">
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1212,42 +1079,33 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>11.98</v>
+        <v>11.78</v>
       </c>
       <c r="C20" t="n">
-        <v>12.19</v>
+        <v>11.78</v>
       </c>
       <c r="D20" t="n">
-        <v>12.19</v>
+        <v>11.78</v>
       </c>
       <c r="E20" t="n">
-        <v>11.98</v>
+        <v>11.78</v>
       </c>
       <c r="F20" t="n">
-        <v>250</v>
+        <v>6280.374</v>
       </c>
       <c r="G20" t="n">
-        <v>11.99800000000001</v>
+        <v>-1317690.0873</v>
       </c>
       <c r="H20" t="n">
-        <v>11.88416666666667</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>11.88</v>
-      </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N20" t="n">
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1256,42 +1114,33 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>12.1</v>
+        <v>11.77</v>
       </c>
       <c r="C21" t="n">
-        <v>12.1</v>
+        <v>11.77</v>
       </c>
       <c r="D21" t="n">
-        <v>12.1</v>
+        <v>11.77</v>
       </c>
       <c r="E21" t="n">
-        <v>12.1</v>
+        <v>11.77</v>
       </c>
       <c r="F21" t="n">
-        <v>329.0558</v>
+        <v>6280.374</v>
       </c>
       <c r="G21" t="n">
-        <v>12.01333333333334</v>
+        <v>-1323970.4613</v>
       </c>
       <c r="H21" t="n">
-        <v>11.88616666666667</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>11.88</v>
-      </c>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N21" t="n">
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1300,42 +1149,33 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>11.94</v>
+        <v>11.77</v>
       </c>
       <c r="C22" t="n">
-        <v>11.93</v>
+        <v>11.77</v>
       </c>
       <c r="D22" t="n">
-        <v>11.94</v>
+        <v>11.77</v>
       </c>
       <c r="E22" t="n">
-        <v>11.93</v>
+        <v>11.77</v>
       </c>
       <c r="F22" t="n">
-        <v>45462.3531</v>
+        <v>19986.7523</v>
       </c>
       <c r="G22" t="n">
-        <v>12.01733333333334</v>
+        <v>-1323970.4613</v>
       </c>
       <c r="H22" t="n">
-        <v>11.88666666666667</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>11.88</v>
-      </c>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N22" t="n">
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1344,42 +1184,33 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>11.93</v>
+        <v>11.77</v>
       </c>
       <c r="C23" t="n">
-        <v>11.93</v>
+        <v>11.77</v>
       </c>
       <c r="D23" t="n">
-        <v>11.93</v>
+        <v>11.77</v>
       </c>
       <c r="E23" t="n">
-        <v>11.93</v>
+        <v>11.77</v>
       </c>
       <c r="F23" t="n">
-        <v>934.0089</v>
+        <v>367.8017</v>
       </c>
       <c r="G23" t="n">
-        <v>12.01666666666667</v>
+        <v>-1323970.4613</v>
       </c>
       <c r="H23" t="n">
-        <v>11.88716666666667</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>11.88</v>
-      </c>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N23" t="n">
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1388,42 +1219,33 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>11.95</v>
+        <v>11.74</v>
       </c>
       <c r="C24" t="n">
-        <v>12.09</v>
+        <v>11.74</v>
       </c>
       <c r="D24" t="n">
-        <v>12.09</v>
+        <v>11.74</v>
       </c>
       <c r="E24" t="n">
-        <v>11.95</v>
+        <v>11.74</v>
       </c>
       <c r="F24" t="n">
-        <v>650</v>
+        <v>5853.5171</v>
       </c>
       <c r="G24" t="n">
-        <v>12.03066666666667</v>
+        <v>-1329823.9784</v>
       </c>
       <c r="H24" t="n">
-        <v>11.89033333333334</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>11.88</v>
-      </c>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N24" t="n">
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1432,42 +1254,33 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>12.19</v>
+        <v>11.82</v>
       </c>
       <c r="C25" t="n">
-        <v>12.19</v>
+        <v>11.82</v>
       </c>
       <c r="D25" t="n">
-        <v>12.19</v>
+        <v>11.82</v>
       </c>
       <c r="E25" t="n">
-        <v>12.19</v>
+        <v>11.82</v>
       </c>
       <c r="F25" t="n">
-        <v>50</v>
+        <v>26201.1263</v>
       </c>
       <c r="G25" t="n">
-        <v>12.05266666666667</v>
+        <v>-1303622.8521</v>
       </c>
       <c r="H25" t="n">
-        <v>11.89516666666667</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>11.88</v>
-      </c>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N25" t="n">
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1476,42 +1289,33 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>12</v>
+        <v>11.86</v>
       </c>
       <c r="C26" t="n">
-        <v>12</v>
+        <v>11.86</v>
       </c>
       <c r="D26" t="n">
-        <v>12</v>
+        <v>11.86</v>
       </c>
       <c r="E26" t="n">
-        <v>12</v>
+        <v>11.86</v>
       </c>
       <c r="F26" t="n">
-        <v>3000</v>
+        <v>71100.9516</v>
       </c>
       <c r="G26" t="n">
-        <v>12.05733333333334</v>
+        <v>-1232521.9005</v>
       </c>
       <c r="H26" t="n">
-        <v>11.89750000000001</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>11.88</v>
-      </c>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N26" t="n">
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1520,42 +1324,33 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>12.1</v>
+        <v>11.74</v>
       </c>
       <c r="C27" t="n">
-        <v>12.1</v>
+        <v>11.74</v>
       </c>
       <c r="D27" t="n">
-        <v>12.1</v>
+        <v>11.74</v>
       </c>
       <c r="E27" t="n">
-        <v>12.1</v>
+        <v>11.74</v>
       </c>
       <c r="F27" t="n">
-        <v>1421.947</v>
+        <v>343.725</v>
       </c>
       <c r="G27" t="n">
-        <v>12.07333333333334</v>
+        <v>-1232865.6255</v>
       </c>
       <c r="H27" t="n">
-        <v>11.90150000000001</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>11.88</v>
-      </c>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N27" t="n">
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1564,42 +1359,33 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>12.1</v>
+        <v>11.85</v>
       </c>
       <c r="C28" t="n">
-        <v>12.19</v>
+        <v>11.85</v>
       </c>
       <c r="D28" t="n">
-        <v>12.19</v>
+        <v>11.85</v>
       </c>
       <c r="E28" t="n">
-        <v>12.1</v>
+        <v>11.85</v>
       </c>
       <c r="F28" t="n">
-        <v>7050</v>
+        <v>84.38818565400844</v>
       </c>
       <c r="G28" t="n">
-        <v>12.10533333333334</v>
+        <v>-1232781.237314346</v>
       </c>
       <c r="H28" t="n">
-        <v>11.90700000000001</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>11.88</v>
-      </c>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N28" t="n">
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1608,42 +1394,33 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>12.1</v>
+        <v>11.85</v>
       </c>
       <c r="C29" t="n">
-        <v>12</v>
+        <v>11.85</v>
       </c>
       <c r="D29" t="n">
-        <v>12.1</v>
+        <v>11.85</v>
       </c>
       <c r="E29" t="n">
-        <v>12</v>
+        <v>11.85</v>
       </c>
       <c r="F29" t="n">
-        <v>1164.2988</v>
+        <v>10176.8363</v>
       </c>
       <c r="G29" t="n">
-        <v>12.11066666666667</v>
+        <v>-1232781.237314346</v>
       </c>
       <c r="H29" t="n">
-        <v>11.90783333333334</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>11.88</v>
-      </c>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N29" t="n">
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1652,42 +1429,33 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>11.95</v>
+        <v>11.85</v>
       </c>
       <c r="C30" t="n">
-        <v>11.95</v>
+        <v>11.85</v>
       </c>
       <c r="D30" t="n">
-        <v>11.95</v>
+        <v>11.85</v>
       </c>
       <c r="E30" t="n">
-        <v>11.95</v>
+        <v>11.85</v>
       </c>
       <c r="F30" t="n">
-        <v>3240.2121</v>
+        <v>37011.39711434599</v>
       </c>
       <c r="G30" t="n">
-        <v>12.11933333333334</v>
+        <v>-1232781.237314346</v>
       </c>
       <c r="H30" t="n">
-        <v>11.90783333333334</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>11.88</v>
-      </c>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N30" t="n">
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1696,42 +1464,33 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>12</v>
+        <v>11.86</v>
       </c>
       <c r="C31" t="n">
-        <v>12</v>
+        <v>11.86</v>
       </c>
       <c r="D31" t="n">
-        <v>12</v>
+        <v>11.86</v>
       </c>
       <c r="E31" t="n">
-        <v>12</v>
+        <v>11.86</v>
       </c>
       <c r="F31" t="n">
-        <v>961.2521</v>
+        <v>43</v>
       </c>
       <c r="G31" t="n">
-        <v>12.09333333333334</v>
+        <v>-1232738.237314346</v>
       </c>
       <c r="H31" t="n">
-        <v>11.90783333333334</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>11.88</v>
-      </c>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N31" t="n">
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1740,42 +1499,33 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>12.09</v>
+        <v>11.86</v>
       </c>
       <c r="C32" t="n">
-        <v>12.2</v>
+        <v>11.86</v>
       </c>
       <c r="D32" t="n">
-        <v>12.2</v>
+        <v>11.86</v>
       </c>
       <c r="E32" t="n">
-        <v>12.09</v>
+        <v>11.86</v>
       </c>
       <c r="F32" t="n">
-        <v>29183.6937</v>
+        <v>37715.0378</v>
       </c>
       <c r="G32" t="n">
-        <v>12.08133333333334</v>
+        <v>-1232738.237314346</v>
       </c>
       <c r="H32" t="n">
-        <v>11.91316666666667</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>11.88</v>
-      </c>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N32" t="n">
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1784,42 +1534,33 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>12.2</v>
+        <v>11.86</v>
       </c>
       <c r="C33" t="n">
-        <v>12.2</v>
+        <v>11.86</v>
       </c>
       <c r="D33" t="n">
-        <v>12.2</v>
+        <v>11.86</v>
       </c>
       <c r="E33" t="n">
-        <v>12.2</v>
+        <v>11.86</v>
       </c>
       <c r="F33" t="n">
-        <v>17065.2918</v>
+        <v>11166.2744</v>
       </c>
       <c r="G33" t="n">
-        <v>12.07</v>
+        <v>-1232738.237314346</v>
       </c>
       <c r="H33" t="n">
-        <v>11.91850000000001</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>11.88</v>
-      </c>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N33" t="n">
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1828,43 +1569,34 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>12.2</v>
+        <v>11.94</v>
       </c>
       <c r="C34" t="n">
-        <v>12.2</v>
+        <v>11.94</v>
       </c>
       <c r="D34" t="n">
-        <v>12.2</v>
+        <v>11.94</v>
       </c>
       <c r="E34" t="n">
-        <v>12.2</v>
+        <v>11.94</v>
       </c>
       <c r="F34" t="n">
-        <v>2809.4162</v>
+        <v>50</v>
       </c>
       <c r="G34" t="n">
-        <v>12.08466666666667</v>
+        <v>-1232688.237314346</v>
       </c>
       <c r="H34" t="n">
-        <v>11.92400000000001</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>1</v>
-      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>11.88</v>
-      </c>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="N34" t="n">
-        <v>1.021936026936027</v>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -1872,36 +1604,33 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>12.03</v>
+        <v>11.87</v>
       </c>
       <c r="C35" t="n">
-        <v>12.03</v>
+        <v>11.87</v>
       </c>
       <c r="D35" t="n">
-        <v>12.03</v>
+        <v>11.87</v>
       </c>
       <c r="E35" t="n">
-        <v>12.03</v>
+        <v>11.87</v>
       </c>
       <c r="F35" t="n">
-        <v>20365.752</v>
+        <v>5056.1334</v>
       </c>
       <c r="G35" t="n">
-        <v>12.07400000000001</v>
+        <v>-1237744.370714346</v>
       </c>
       <c r="H35" t="n">
-        <v>11.92666666666667</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>1</v>
-      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
-      <c r="N35" t="n">
+      <c r="M35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1910,36 +1639,33 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>12.02</v>
+        <v>11.87</v>
       </c>
       <c r="C36" t="n">
-        <v>12.02</v>
+        <v>11.87</v>
       </c>
       <c r="D36" t="n">
-        <v>12.02</v>
+        <v>11.87</v>
       </c>
       <c r="E36" t="n">
-        <v>12.02</v>
+        <v>11.87</v>
       </c>
       <c r="F36" t="n">
-        <v>10000</v>
+        <v>12464.6216</v>
       </c>
       <c r="G36" t="n">
-        <v>12.06866666666667</v>
+        <v>-1237744.370714346</v>
       </c>
       <c r="H36" t="n">
-        <v>11.92933333333334</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
-      <c r="N36" t="n">
+      <c r="M36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1948,36 +1674,33 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>11.97</v>
+        <v>11.94</v>
       </c>
       <c r="C37" t="n">
-        <v>11.97</v>
+        <v>11.94</v>
       </c>
       <c r="D37" t="n">
-        <v>11.97</v>
+        <v>11.94</v>
       </c>
       <c r="E37" t="n">
-        <v>11.97</v>
+        <v>11.94</v>
       </c>
       <c r="F37" t="n">
-        <v>822.5151</v>
+        <v>50</v>
       </c>
       <c r="G37" t="n">
-        <v>12.07133333333334</v>
+        <v>-1237694.370714346</v>
       </c>
       <c r="H37" t="n">
-        <v>11.93133333333334</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
-      <c r="N37" t="n">
+      <c r="M37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1986,36 +1709,33 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>12</v>
+        <v>11.88</v>
       </c>
       <c r="C38" t="n">
-        <v>11.92</v>
+        <v>11.88</v>
       </c>
       <c r="D38" t="n">
-        <v>12</v>
+        <v>11.88</v>
       </c>
       <c r="E38" t="n">
-        <v>11.92</v>
+        <v>11.88</v>
       </c>
       <c r="F38" t="n">
-        <v>15112.4652</v>
+        <v>16793.1182</v>
       </c>
       <c r="G38" t="n">
-        <v>12.07066666666667</v>
+        <v>-1254487.488914346</v>
       </c>
       <c r="H38" t="n">
-        <v>11.93250000000001</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
-      <c r="N38" t="n">
+      <c r="M38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2024,36 +1744,33 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>11.92</v>
+        <v>11.86</v>
       </c>
       <c r="C39" t="n">
-        <v>11.92</v>
+        <v>11.86</v>
       </c>
       <c r="D39" t="n">
-        <v>11.92</v>
+        <v>11.86</v>
       </c>
       <c r="E39" t="n">
-        <v>11.92</v>
+        <v>11.86</v>
       </c>
       <c r="F39" t="n">
-        <v>1000</v>
+        <v>90000</v>
       </c>
       <c r="G39" t="n">
-        <v>12.05933333333334</v>
+        <v>-1344487.488914346</v>
       </c>
       <c r="H39" t="n">
-        <v>11.93383333333334</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
-      <c r="N39" t="n">
+      <c r="M39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2062,36 +1779,33 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>12.08</v>
+        <v>11.93</v>
       </c>
       <c r="C40" t="n">
-        <v>12.08</v>
+        <v>11.93</v>
       </c>
       <c r="D40" t="n">
-        <v>12.08</v>
+        <v>11.93</v>
       </c>
       <c r="E40" t="n">
-        <v>12.08</v>
+        <v>11.93</v>
       </c>
       <c r="F40" t="n">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G40" t="n">
-        <v>12.052</v>
+        <v>-1344437.488914346</v>
       </c>
       <c r="H40" t="n">
-        <v>11.93766666666667</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
-      <c r="N40" t="n">
+      <c r="M40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2100,36 +1814,33 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>12.08</v>
+        <v>11.86</v>
       </c>
       <c r="C41" t="n">
-        <v>12.09</v>
+        <v>11.86</v>
       </c>
       <c r="D41" t="n">
-        <v>12.09</v>
+        <v>11.86</v>
       </c>
       <c r="E41" t="n">
-        <v>12.08</v>
+        <v>11.86</v>
       </c>
       <c r="F41" t="n">
-        <v>800</v>
+        <v>5000</v>
       </c>
       <c r="G41" t="n">
-        <v>12.058</v>
+        <v>-1349437.488914346</v>
       </c>
       <c r="H41" t="n">
-        <v>11.94166666666667</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
-      <c r="N41" t="n">
+      <c r="M41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2138,36 +1849,33 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>11.93</v>
+        <v>11.85</v>
       </c>
       <c r="C42" t="n">
-        <v>11.91</v>
+        <v>11.71</v>
       </c>
       <c r="D42" t="n">
-        <v>11.93</v>
+        <v>11.85</v>
       </c>
       <c r="E42" t="n">
-        <v>11.91</v>
+        <v>11.71</v>
       </c>
       <c r="F42" t="n">
-        <v>41252.8503</v>
+        <v>69969.99998565401</v>
       </c>
       <c r="G42" t="n">
-        <v>12.04533333333334</v>
+        <v>-1419407.4889</v>
       </c>
       <c r="H42" t="n">
-        <v>11.94266666666667</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr"/>
-      <c r="N42" t="n">
+      <c r="M42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2176,36 +1884,33 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>11.91</v>
+        <v>11.92</v>
       </c>
       <c r="C43" t="n">
-        <v>11.91</v>
+        <v>11.92</v>
       </c>
       <c r="D43" t="n">
-        <v>11.91</v>
+        <v>11.92</v>
       </c>
       <c r="E43" t="n">
-        <v>11.91</v>
+        <v>11.92</v>
       </c>
       <c r="F43" t="n">
-        <v>9710.1152</v>
+        <v>42</v>
       </c>
       <c r="G43" t="n">
-        <v>12.02666666666667</v>
+        <v>-1419365.4889</v>
       </c>
       <c r="H43" t="n">
-        <v>11.944</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr"/>
-      <c r="N43" t="n">
+      <c r="M43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2214,36 +1919,33 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>11.99</v>
+        <v>11.82</v>
       </c>
       <c r="C44" t="n">
-        <v>11.99</v>
+        <v>11.82</v>
       </c>
       <c r="D44" t="n">
-        <v>11.99</v>
+        <v>11.82</v>
       </c>
       <c r="E44" t="n">
-        <v>11.99</v>
+        <v>11.82</v>
       </c>
       <c r="F44" t="n">
-        <v>20346.267</v>
+        <v>522.9987</v>
       </c>
       <c r="G44" t="n">
-        <v>12.02600000000001</v>
+        <v>-1419888.4876</v>
       </c>
       <c r="H44" t="n">
-        <v>11.94633333333334</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr"/>
-      <c r="N44" t="n">
+      <c r="M44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2252,36 +1954,33 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>12</v>
+        <v>11.82</v>
       </c>
       <c r="C45" t="n">
-        <v>12</v>
+        <v>12.39</v>
       </c>
       <c r="D45" t="n">
-        <v>12</v>
+        <v>12.39</v>
       </c>
       <c r="E45" t="n">
-        <v>12</v>
+        <v>11.82</v>
       </c>
       <c r="F45" t="n">
-        <v>8312.5519</v>
+        <v>800409.6838591606</v>
       </c>
       <c r="G45" t="n">
-        <v>12.02933333333334</v>
+        <v>-619478.8037408392</v>
       </c>
       <c r="H45" t="n">
-        <v>11.94916666666667</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr"/>
-      <c r="N45" t="n">
+      <c r="M45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2290,36 +1989,33 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>12.03</v>
+        <v>12.38</v>
       </c>
       <c r="C46" t="n">
-        <v>12.03</v>
+        <v>12.38</v>
       </c>
       <c r="D46" t="n">
-        <v>12.03</v>
+        <v>12.38</v>
       </c>
       <c r="E46" t="n">
-        <v>12.03</v>
+        <v>12.38</v>
       </c>
       <c r="F46" t="n">
-        <v>38595.7642</v>
+        <v>50</v>
       </c>
       <c r="G46" t="n">
-        <v>12.03133333333334</v>
+        <v>-619528.8037408392</v>
       </c>
       <c r="H46" t="n">
-        <v>11.9545</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr"/>
-      <c r="N46" t="n">
+      <c r="M46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2328,36 +2024,33 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>12.17</v>
+        <v>12.37</v>
       </c>
       <c r="C47" t="n">
-        <v>12.17</v>
+        <v>12.37</v>
       </c>
       <c r="D47" t="n">
-        <v>12.17</v>
+        <v>12.37</v>
       </c>
       <c r="E47" t="n">
-        <v>12.17</v>
+        <v>12.37</v>
       </c>
       <c r="F47" t="n">
         <v>50</v>
       </c>
       <c r="G47" t="n">
-        <v>12.02933333333334</v>
+        <v>-619578.8037408392</v>
       </c>
       <c r="H47" t="n">
-        <v>11.96033333333333</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr"/>
-      <c r="N47" t="n">
+      <c r="M47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2366,36 +2059,33 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="C48" t="n">
-        <v>12</v>
+        <v>11.98</v>
       </c>
       <c r="D48" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="E48" t="n">
-        <v>12</v>
+        <v>11.98</v>
       </c>
       <c r="F48" t="n">
-        <v>18022.6671</v>
+        <v>36983.4905</v>
       </c>
       <c r="G48" t="n">
-        <v>12.01600000000001</v>
+        <v>-656562.2942408392</v>
       </c>
       <c r="H48" t="n">
-        <v>11.965</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr"/>
-      <c r="N48" t="n">
+      <c r="M48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2404,36 +2094,33 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>12</v>
+        <v>11.98</v>
       </c>
       <c r="C49" t="n">
-        <v>12</v>
+        <v>12.19</v>
       </c>
       <c r="D49" t="n">
-        <v>12</v>
+        <v>12.19</v>
       </c>
       <c r="E49" t="n">
-        <v>12</v>
+        <v>11.98</v>
       </c>
       <c r="F49" t="n">
-        <v>30666.2838</v>
+        <v>250</v>
       </c>
       <c r="G49" t="n">
-        <v>12.00266666666667</v>
+        <v>-656312.2942408392</v>
       </c>
       <c r="H49" t="n">
-        <v>11.96966666666667</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>0</v>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr"/>
-      <c r="N49" t="n">
+      <c r="M49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2442,36 +2129,33 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="C50" t="n">
-        <v>11.91</v>
+        <v>12.1</v>
       </c>
       <c r="D50" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="E50" t="n">
-        <v>11.91</v>
+        <v>12.1</v>
       </c>
       <c r="F50" t="n">
-        <v>66899.4262</v>
+        <v>329.0558</v>
       </c>
       <c r="G50" t="n">
-        <v>11.99466666666667</v>
+        <v>-656641.3500408392</v>
       </c>
       <c r="H50" t="n">
-        <v>11.972</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>0</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr"/>
-      <c r="N50" t="n">
+      <c r="M50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2480,36 +2164,33 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>11.9</v>
+        <v>11.94</v>
       </c>
       <c r="C51" t="n">
-        <v>11.84</v>
+        <v>11.93</v>
       </c>
       <c r="D51" t="n">
-        <v>11.9</v>
+        <v>11.94</v>
       </c>
       <c r="E51" t="n">
-        <v>11.84</v>
+        <v>11.93</v>
       </c>
       <c r="F51" t="n">
-        <v>14605.8889</v>
+        <v>45462.3531</v>
       </c>
       <c r="G51" t="n">
-        <v>11.98266666666667</v>
+        <v>-702103.7031408391</v>
       </c>
       <c r="H51" t="n">
-        <v>11.973</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>0</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr"/>
-      <c r="N51" t="n">
+      <c r="M51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2518,36 +2199,33 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>11.84</v>
+        <v>11.93</v>
       </c>
       <c r="C52" t="n">
-        <v>11.84</v>
+        <v>11.93</v>
       </c>
       <c r="D52" t="n">
-        <v>11.84</v>
+        <v>11.93</v>
       </c>
       <c r="E52" t="n">
-        <v>11.84</v>
+        <v>11.93</v>
       </c>
       <c r="F52" t="n">
-        <v>9052.6759</v>
+        <v>934.0089</v>
       </c>
       <c r="G52" t="n">
-        <v>11.97400000000001</v>
+        <v>-702103.7031408391</v>
       </c>
       <c r="H52" t="n">
-        <v>11.97416666666667</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>0</v>
-      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr"/>
-      <c r="N52" t="n">
+      <c r="M52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2556,36 +2234,33 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>11.84</v>
+        <v>11.95</v>
       </c>
       <c r="C53" t="n">
-        <v>11.84</v>
+        <v>12.09</v>
       </c>
       <c r="D53" t="n">
-        <v>11.84</v>
+        <v>12.09</v>
       </c>
       <c r="E53" t="n">
-        <v>11.84</v>
+        <v>11.95</v>
       </c>
       <c r="F53" t="n">
-        <v>23504.6221</v>
+        <v>650</v>
       </c>
       <c r="G53" t="n">
-        <v>11.96866666666667</v>
+        <v>-701453.7031408391</v>
       </c>
       <c r="H53" t="n">
-        <v>11.97533333333334</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>0</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr"/>
-      <c r="N53" t="n">
+      <c r="M53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2594,36 +2269,33 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>11.85</v>
+        <v>12.19</v>
       </c>
       <c r="C54" t="n">
-        <v>11.85</v>
+        <v>12.19</v>
       </c>
       <c r="D54" t="n">
-        <v>11.85</v>
+        <v>12.19</v>
       </c>
       <c r="E54" t="n">
-        <v>11.85</v>
+        <v>12.19</v>
       </c>
       <c r="F54" t="n">
-        <v>497.2642</v>
+        <v>50</v>
       </c>
       <c r="G54" t="n">
-        <v>11.96400000000001</v>
+        <v>-701403.7031408391</v>
       </c>
       <c r="H54" t="n">
-        <v>11.97666666666667</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>0</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr"/>
-      <c r="N54" t="n">
+      <c r="M54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2632,36 +2304,33 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>11.92</v>
+        <v>12</v>
       </c>
       <c r="C55" t="n">
-        <v>11.92</v>
+        <v>12</v>
       </c>
       <c r="D55" t="n">
-        <v>11.92</v>
+        <v>12</v>
       </c>
       <c r="E55" t="n">
-        <v>11.92</v>
+        <v>12</v>
       </c>
       <c r="F55" t="n">
-        <v>55</v>
+        <v>3000</v>
       </c>
       <c r="G55" t="n">
-        <v>11.95333333333334</v>
+        <v>-704403.7031408391</v>
       </c>
       <c r="H55" t="n">
-        <v>11.97966666666667</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>0</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr"/>
-      <c r="N55" t="n">
+      <c r="M55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2670,36 +2339,33 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>11.85</v>
+        <v>12.1</v>
       </c>
       <c r="C56" t="n">
-        <v>11.84</v>
+        <v>12.1</v>
       </c>
       <c r="D56" t="n">
-        <v>11.85</v>
+        <v>12.1</v>
       </c>
       <c r="E56" t="n">
-        <v>11.84</v>
+        <v>12.1</v>
       </c>
       <c r="F56" t="n">
-        <v>179641.5209</v>
+        <v>1421.947</v>
       </c>
       <c r="G56" t="n">
-        <v>11.93666666666667</v>
+        <v>-702981.7561408391</v>
       </c>
       <c r="H56" t="n">
-        <v>11.98</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>0</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr"/>
-      <c r="N56" t="n">
+      <c r="M56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2708,36 +2374,33 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>11.92</v>
+        <v>12.1</v>
       </c>
       <c r="C57" t="n">
-        <v>11.92</v>
+        <v>12.19</v>
       </c>
       <c r="D57" t="n">
-        <v>11.92</v>
+        <v>12.19</v>
       </c>
       <c r="E57" t="n">
-        <v>11.92</v>
+        <v>12.1</v>
       </c>
       <c r="F57" t="n">
-        <v>55</v>
+        <v>7050</v>
       </c>
       <c r="G57" t="n">
-        <v>11.93733333333334</v>
+        <v>-695931.7561408391</v>
       </c>
       <c r="H57" t="n">
-        <v>11.981</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>0</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr"/>
-      <c r="N57" t="n">
+      <c r="M57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2746,36 +2409,33 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>11.84</v>
+        <v>12.1</v>
       </c>
       <c r="C58" t="n">
-        <v>11.84</v>
+        <v>12</v>
       </c>
       <c r="D58" t="n">
-        <v>11.84</v>
+        <v>12.1</v>
       </c>
       <c r="E58" t="n">
-        <v>11.84</v>
+        <v>12</v>
       </c>
       <c r="F58" t="n">
-        <v>55.4065</v>
+        <v>1164.2988</v>
       </c>
       <c r="G58" t="n">
-        <v>11.93266666666667</v>
+        <v>-697096.0549408391</v>
       </c>
       <c r="H58" t="n">
-        <v>11.98266666666667</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>0</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr"/>
-      <c r="N58" t="n">
+      <c r="M58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2784,36 +2444,33 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>11.84</v>
+        <v>11.95</v>
       </c>
       <c r="C59" t="n">
-        <v>11.81</v>
+        <v>11.95</v>
       </c>
       <c r="D59" t="n">
-        <v>11.84</v>
+        <v>11.95</v>
       </c>
       <c r="E59" t="n">
-        <v>11.81</v>
+        <v>11.95</v>
       </c>
       <c r="F59" t="n">
-        <v>12464.6216</v>
+        <v>3240.2121</v>
       </c>
       <c r="G59" t="n">
-        <v>11.92066666666667</v>
+        <v>-700336.2670408391</v>
       </c>
       <c r="H59" t="n">
-        <v>11.982</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>0</v>
-      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr"/>
-      <c r="N59" t="n">
+      <c r="M59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2822,36 +2479,33 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>11.82</v>
+        <v>12</v>
       </c>
       <c r="C60" t="n">
-        <v>11.81</v>
+        <v>12</v>
       </c>
       <c r="D60" t="n">
-        <v>11.82</v>
+        <v>12</v>
       </c>
       <c r="E60" t="n">
-        <v>11.81</v>
+        <v>12</v>
       </c>
       <c r="F60" t="n">
-        <v>61938.5491</v>
+        <v>961.2521</v>
       </c>
       <c r="G60" t="n">
-        <v>11.90800000000001</v>
+        <v>-699375.014940839</v>
       </c>
       <c r="H60" t="n">
-        <v>11.98133333333333</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>0</v>
-      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr"/>
-      <c r="N60" t="n">
+      <c r="M60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2860,36 +2514,33 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>11.81</v>
+        <v>12.09</v>
       </c>
       <c r="C61" t="n">
-        <v>11.81</v>
+        <v>12.2</v>
       </c>
       <c r="D61" t="n">
-        <v>11.81</v>
+        <v>12.2</v>
       </c>
       <c r="E61" t="n">
-        <v>11.81</v>
+        <v>12.09</v>
       </c>
       <c r="F61" t="n">
-        <v>80998.1724</v>
+        <v>29183.6937</v>
       </c>
       <c r="G61" t="n">
-        <v>11.89333333333334</v>
+        <v>-670191.3212408391</v>
       </c>
       <c r="H61" t="n">
-        <v>11.98066666666666</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>0</v>
-      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr"/>
-      <c r="N61" t="n">
+      <c r="M61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2898,36 +2549,33 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>11.81</v>
+        <v>12.2</v>
       </c>
       <c r="C62" t="n">
-        <v>11.8</v>
+        <v>12.2</v>
       </c>
       <c r="D62" t="n">
-        <v>11.81</v>
+        <v>12.2</v>
       </c>
       <c r="E62" t="n">
-        <v>11.8</v>
+        <v>12.2</v>
       </c>
       <c r="F62" t="n">
-        <v>55091.3805</v>
+        <v>17065.2918</v>
       </c>
       <c r="G62" t="n">
-        <v>11.86866666666667</v>
+        <v>-670191.3212408391</v>
       </c>
       <c r="H62" t="n">
-        <v>11.97966666666666</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>0</v>
-      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr"/>
-      <c r="N62" t="n">
+      <c r="M62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2936,36 +2584,33 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>11.8</v>
+        <v>12.2</v>
       </c>
       <c r="C63" t="n">
-        <v>11.8</v>
+        <v>12.2</v>
       </c>
       <c r="D63" t="n">
-        <v>11.8</v>
+        <v>12.2</v>
       </c>
       <c r="E63" t="n">
-        <v>11.8</v>
+        <v>12.2</v>
       </c>
       <c r="F63" t="n">
-        <v>85971.4491</v>
+        <v>2809.4162</v>
       </c>
       <c r="G63" t="n">
-        <v>11.85533333333334</v>
+        <v>-670191.3212408391</v>
       </c>
       <c r="H63" t="n">
-        <v>11.97866666666666</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>0</v>
-      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr"/>
-      <c r="N63" t="n">
+      <c r="M63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2974,36 +2619,33 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>11.78</v>
+        <v>12.03</v>
       </c>
       <c r="C64" t="n">
-        <v>11.78</v>
+        <v>12.03</v>
       </c>
       <c r="D64" t="n">
-        <v>11.78</v>
+        <v>12.03</v>
       </c>
       <c r="E64" t="n">
-        <v>11.78</v>
+        <v>12.03</v>
       </c>
       <c r="F64" t="n">
-        <v>2383.9126</v>
+        <v>20365.752</v>
       </c>
       <c r="G64" t="n">
-        <v>11.84066666666667</v>
+        <v>-690557.0732408391</v>
       </c>
       <c r="H64" t="n">
-        <v>11.97733333333333</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>0</v>
-      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr"/>
-      <c r="N64" t="n">
+      <c r="M64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3012,36 +2654,33 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>11.8</v>
+        <v>12.02</v>
       </c>
       <c r="C65" t="n">
-        <v>11.8</v>
+        <v>12.02</v>
       </c>
       <c r="D65" t="n">
-        <v>11.8</v>
+        <v>12.02</v>
       </c>
       <c r="E65" t="n">
-        <v>11.8</v>
+        <v>12.02</v>
       </c>
       <c r="F65" t="n">
-        <v>1599</v>
+        <v>10000</v>
       </c>
       <c r="G65" t="n">
-        <v>11.83333333333334</v>
+        <v>-700557.0732408391</v>
       </c>
       <c r="H65" t="n">
-        <v>11.97499999999999</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
-        <v>0</v>
-      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr"/>
-      <c r="N65" t="n">
+      <c r="M65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3050,36 +2689,33 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>11.8</v>
+        <v>11.97</v>
       </c>
       <c r="C66" t="n">
-        <v>11.81</v>
+        <v>11.97</v>
       </c>
       <c r="D66" t="n">
-        <v>11.81</v>
+        <v>11.97</v>
       </c>
       <c r="E66" t="n">
-        <v>11.8</v>
+        <v>11.97</v>
       </c>
       <c r="F66" t="n">
-        <v>27588.7632</v>
+        <v>822.5151</v>
       </c>
       <c r="G66" t="n">
-        <v>11.83133333333334</v>
+        <v>-701379.588340839</v>
       </c>
       <c r="H66" t="n">
-        <v>11.97399999999999</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>0</v>
-      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr"/>
-      <c r="N66" t="n">
+      <c r="M66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3091,33 +2727,30 @@
         <v>12</v>
       </c>
       <c r="C67" t="n">
-        <v>12</v>
+        <v>11.92</v>
       </c>
       <c r="D67" t="n">
         <v>12</v>
       </c>
       <c r="E67" t="n">
-        <v>12</v>
+        <v>11.92</v>
       </c>
       <c r="F67" t="n">
-        <v>55</v>
+        <v>15112.4652</v>
       </c>
       <c r="G67" t="n">
-        <v>11.84200000000001</v>
+        <v>-716492.053540839</v>
       </c>
       <c r="H67" t="n">
-        <v>11.97616666666666</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="n">
-        <v>0</v>
-      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="inlineStr"/>
-      <c r="N67" t="n">
+      <c r="M67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3126,36 +2759,33 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>11.81</v>
+        <v>11.92</v>
       </c>
       <c r="C68" t="n">
-        <v>11.75</v>
+        <v>11.92</v>
       </c>
       <c r="D68" t="n">
-        <v>11.81</v>
+        <v>11.92</v>
       </c>
       <c r="E68" t="n">
-        <v>11.75</v>
+        <v>11.92</v>
       </c>
       <c r="F68" t="n">
-        <v>241233.9382</v>
+        <v>1000</v>
       </c>
       <c r="G68" t="n">
-        <v>11.83600000000001</v>
+        <v>-716492.053540839</v>
       </c>
       <c r="H68" t="n">
-        <v>11.97299999999999</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>0</v>
-      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="inlineStr"/>
-      <c r="N68" t="n">
+      <c r="M68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3164,36 +2794,33 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>11.89</v>
+        <v>12.08</v>
       </c>
       <c r="C69" t="n">
-        <v>11.89</v>
+        <v>12.08</v>
       </c>
       <c r="D69" t="n">
-        <v>11.89</v>
+        <v>12.08</v>
       </c>
       <c r="E69" t="n">
-        <v>11.89</v>
+        <v>12.08</v>
       </c>
       <c r="F69" t="n">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G69" t="n">
-        <v>11.83866666666668</v>
+        <v>-716450.053540839</v>
       </c>
       <c r="H69" t="n">
-        <v>11.97316666666666</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>0</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="inlineStr"/>
-      <c r="N69" t="n">
+      <c r="M69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3202,36 +2829,33 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>11.81</v>
+        <v>12.08</v>
       </c>
       <c r="C70" t="n">
-        <v>11.8</v>
+        <v>12.09</v>
       </c>
       <c r="D70" t="n">
-        <v>11.81</v>
+        <v>12.09</v>
       </c>
       <c r="E70" t="n">
-        <v>11.8</v>
+        <v>12.08</v>
       </c>
       <c r="F70" t="n">
-        <v>836.6534</v>
+        <v>800</v>
       </c>
       <c r="G70" t="n">
-        <v>11.83066666666668</v>
+        <v>-715650.053540839</v>
       </c>
       <c r="H70" t="n">
-        <v>11.97216666666666</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>0</v>
-      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr"/>
-      <c r="N70" t="n">
+      <c r="M70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3240,36 +2864,33 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>11.89</v>
+        <v>11.93</v>
       </c>
       <c r="C71" t="n">
-        <v>11.89</v>
+        <v>11.91</v>
       </c>
       <c r="D71" t="n">
-        <v>11.89</v>
+        <v>11.93</v>
       </c>
       <c r="E71" t="n">
-        <v>11.89</v>
+        <v>11.91</v>
       </c>
       <c r="F71" t="n">
-        <v>43</v>
+        <v>41252.8503</v>
       </c>
       <c r="G71" t="n">
-        <v>11.83400000000001</v>
+        <v>-756902.903840839</v>
       </c>
       <c r="H71" t="n">
-        <v>11.97149999999999</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>0</v>
-      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr"/>
-      <c r="N71" t="n">
+      <c r="M71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3278,36 +2899,33 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>11.81</v>
+        <v>11.91</v>
       </c>
       <c r="C72" t="n">
-        <v>11.8</v>
+        <v>11.91</v>
       </c>
       <c r="D72" t="n">
-        <v>11.81</v>
+        <v>11.91</v>
       </c>
       <c r="E72" t="n">
-        <v>11.8</v>
+        <v>11.91</v>
       </c>
       <c r="F72" t="n">
-        <v>788.6534</v>
+        <v>9710.1152</v>
       </c>
       <c r="G72" t="n">
-        <v>11.82600000000001</v>
+        <v>-756902.903840839</v>
       </c>
       <c r="H72" t="n">
-        <v>11.97049999999999</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>0</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="inlineStr"/>
-      <c r="N72" t="n">
+      <c r="M72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3316,36 +2934,33 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>11.89</v>
+        <v>11.99</v>
       </c>
       <c r="C73" t="n">
-        <v>11.89</v>
+        <v>11.99</v>
       </c>
       <c r="D73" t="n">
-        <v>11.89</v>
+        <v>11.99</v>
       </c>
       <c r="E73" t="n">
-        <v>11.89</v>
+        <v>11.99</v>
       </c>
       <c r="F73" t="n">
-        <v>20235</v>
+        <v>20346.267</v>
       </c>
       <c r="G73" t="n">
-        <v>11.82933333333334</v>
+        <v>-736556.6368408391</v>
       </c>
       <c r="H73" t="n">
-        <v>11.97349999999999</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>0</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="inlineStr"/>
-      <c r="N73" t="n">
+      <c r="M73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3354,36 +2969,33 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>11.88</v>
+        <v>12</v>
       </c>
       <c r="C74" t="n">
-        <v>11.88</v>
+        <v>12</v>
       </c>
       <c r="D74" t="n">
-        <v>11.88</v>
+        <v>12</v>
       </c>
       <c r="E74" t="n">
-        <v>11.88</v>
+        <v>12</v>
       </c>
       <c r="F74" t="n">
-        <v>25325.3961</v>
+        <v>8312.5519</v>
       </c>
       <c r="G74" t="n">
-        <v>11.83400000000001</v>
+        <v>-728244.0849408391</v>
       </c>
       <c r="H74" t="n">
-        <v>11.97283333333332</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>0</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="inlineStr"/>
-      <c r="N74" t="n">
+      <c r="M74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3392,36 +3004,33 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>11.88</v>
+        <v>12.03</v>
       </c>
       <c r="C75" t="n">
-        <v>11.88</v>
+        <v>12.03</v>
       </c>
       <c r="D75" t="n">
-        <v>11.88</v>
+        <v>12.03</v>
       </c>
       <c r="E75" t="n">
-        <v>11.88</v>
+        <v>12.03</v>
       </c>
       <c r="F75" t="n">
-        <v>9000</v>
+        <v>38595.7642</v>
       </c>
       <c r="G75" t="n">
-        <v>11.83866666666668</v>
+        <v>-689648.3207408391</v>
       </c>
       <c r="H75" t="n">
-        <v>11.97383333333332</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>0</v>
-      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="inlineStr"/>
-      <c r="N75" t="n">
+      <c r="M75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3430,40 +3039,37 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>11.81</v>
+        <v>12.17</v>
       </c>
       <c r="C76" t="n">
-        <v>11.81</v>
+        <v>12.17</v>
       </c>
       <c r="D76" t="n">
-        <v>11.81</v>
+        <v>12.17</v>
       </c>
       <c r="E76" t="n">
-        <v>11.81</v>
+        <v>12.17</v>
       </c>
       <c r="F76" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G76" t="n">
-        <v>11.83866666666668</v>
+        <v>-689598.3207408391</v>
       </c>
       <c r="H76" t="n">
-        <v>11.96416666666665</v>
+        <v>1</v>
       </c>
       <c r="I76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J76" t="n">
-        <v>0</v>
+        <v>12.03</v>
       </c>
       <c r="K76" t="n">
-        <v>11.88</v>
-      </c>
-      <c r="L76" t="n">
-        <v>11.88</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
-      <c r="N76" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
+      <c r="M76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3472,44 +3078,41 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>11.81</v>
+        <v>12</v>
       </c>
       <c r="C77" t="n">
-        <v>11.81</v>
+        <v>12</v>
       </c>
       <c r="D77" t="n">
-        <v>11.81</v>
+        <v>12</v>
       </c>
       <c r="E77" t="n">
-        <v>11.81</v>
+        <v>12</v>
       </c>
       <c r="F77" t="n">
-        <v>8576.993700000001</v>
+        <v>18022.6671</v>
       </c>
       <c r="G77" t="n">
-        <v>11.83933333333334</v>
+        <v>-707620.9878408391</v>
       </c>
       <c r="H77" t="n">
-        <v>11.95466666666665</v>
+        <v>1</v>
       </c>
       <c r="I77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J77" t="n">
-        <v>0</v>
+        <v>12.17</v>
       </c>
       <c r="K77" t="n">
-        <v>11.81</v>
-      </c>
-      <c r="L77" t="n">
-        <v>11.88</v>
-      </c>
-      <c r="M77" t="inlineStr">
+        <v>12.03</v>
+      </c>
+      <c r="L77" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="N77" t="n">
+      <c r="M77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3518,42 +3121,41 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>11.81</v>
+        <v>12</v>
       </c>
       <c r="C78" t="n">
-        <v>11.81</v>
+        <v>12</v>
       </c>
       <c r="D78" t="n">
-        <v>11.81</v>
+        <v>12</v>
       </c>
       <c r="E78" t="n">
-        <v>11.81</v>
+        <v>12</v>
       </c>
       <c r="F78" t="n">
-        <v>179641.521</v>
+        <v>30666.2838</v>
       </c>
       <c r="G78" t="n">
-        <v>11.84000000000001</v>
+        <v>-707620.9878408391</v>
       </c>
       <c r="H78" t="n">
-        <v>11.94533333333332</v>
+        <v>1</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
       <c r="J78" t="n">
-        <v>0</v>
-      </c>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>11.88</v>
-      </c>
-      <c r="M78" t="inlineStr">
+        <v>12</v>
+      </c>
+      <c r="K78" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="L78" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="N78" t="n">
+      <c r="M78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3562,40 +3164,33 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>11.88</v>
+        <v>12</v>
       </c>
       <c r="C79" t="n">
-        <v>11.88</v>
+        <v>11.91</v>
       </c>
       <c r="D79" t="n">
-        <v>11.88</v>
+        <v>12</v>
       </c>
       <c r="E79" t="n">
-        <v>11.88</v>
+        <v>11.91</v>
       </c>
       <c r="F79" t="n">
-        <v>19795.1213</v>
+        <v>66899.4262</v>
       </c>
       <c r="G79" t="n">
-        <v>11.84666666666667</v>
+        <v>-774520.4140408391</v>
       </c>
       <c r="H79" t="n">
-        <v>11.94366666666665</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>1</v>
-      </c>
-      <c r="J79" t="n">
-        <v>0</v>
-      </c>
-      <c r="K79" t="n">
-        <v>11.81</v>
-      </c>
-      <c r="L79" t="n">
-        <v>11.81</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
-      <c r="N79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
+      <c r="M79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3604,42 +3199,33 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>11.88</v>
+        <v>11.9</v>
       </c>
       <c r="C80" t="n">
-        <v>11.88</v>
+        <v>11.84</v>
       </c>
       <c r="D80" t="n">
-        <v>11.88</v>
+        <v>11.9</v>
       </c>
       <c r="E80" t="n">
-        <v>11.88</v>
+        <v>11.84</v>
       </c>
       <c r="F80" t="n">
-        <v>2885</v>
+        <v>14605.8889</v>
       </c>
       <c r="G80" t="n">
-        <v>11.85200000000001</v>
+        <v>-789126.3029408391</v>
       </c>
       <c r="H80" t="n">
-        <v>11.93849999999998</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="n">
-        <v>0</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>11.81</v>
-      </c>
-      <c r="M80" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N80" t="n">
+      <c r="L80" t="inlineStr"/>
+      <c r="M80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3648,42 +3234,33 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>11.89</v>
+        <v>11.84</v>
       </c>
       <c r="C81" t="n">
-        <v>11.95</v>
+        <v>11.84</v>
       </c>
       <c r="D81" t="n">
-        <v>11.95</v>
+        <v>11.84</v>
       </c>
       <c r="E81" t="n">
-        <v>11.89</v>
+        <v>11.84</v>
       </c>
       <c r="F81" t="n">
-        <v>9009.349200000001</v>
+        <v>9052.6759</v>
       </c>
       <c r="G81" t="n">
-        <v>11.86133333333334</v>
+        <v>-789126.3029408391</v>
       </c>
       <c r="H81" t="n">
-        <v>11.93599999999998</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="n">
-        <v>0</v>
-      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>11.81</v>
-      </c>
-      <c r="M81" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N81" t="n">
+      <c r="L81" t="inlineStr"/>
+      <c r="M81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3692,36 +3269,33 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>11.95</v>
+        <v>11.84</v>
       </c>
       <c r="C82" t="n">
-        <v>11.81</v>
+        <v>11.84</v>
       </c>
       <c r="D82" t="n">
-        <v>11.95</v>
+        <v>11.84</v>
       </c>
       <c r="E82" t="n">
-        <v>11.81</v>
+        <v>11.84</v>
       </c>
       <c r="F82" t="n">
-        <v>110</v>
+        <v>23504.6221</v>
       </c>
       <c r="G82" t="n">
-        <v>11.84866666666667</v>
+        <v>-789126.3029408391</v>
       </c>
       <c r="H82" t="n">
-        <v>11.93399999999999</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>0</v>
-      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="inlineStr"/>
-      <c r="N82" t="n">
+      <c r="M82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3730,36 +3304,37 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>11.95</v>
+        <v>11.85</v>
       </c>
       <c r="C83" t="n">
-        <v>11.95</v>
+        <v>11.85</v>
       </c>
       <c r="D83" t="n">
-        <v>11.95</v>
+        <v>11.85</v>
       </c>
       <c r="E83" t="n">
-        <v>11.95</v>
+        <v>11.85</v>
       </c>
       <c r="F83" t="n">
-        <v>42</v>
+        <v>497.2642</v>
       </c>
       <c r="G83" t="n">
-        <v>11.862</v>
+        <v>-788629.0387408391</v>
       </c>
       <c r="H83" t="n">
-        <v>11.93433333333332</v>
+        <v>1</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
       <c r="J83" t="n">
-        <v>0</v>
-      </c>
-      <c r="K83" t="inlineStr"/>
+        <v>11.84</v>
+      </c>
+      <c r="K83" t="n">
+        <v>11.84</v>
+      </c>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="inlineStr"/>
-      <c r="N83" t="n">
+      <c r="M83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3768,36 +3343,39 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>11.86</v>
+        <v>11.92</v>
       </c>
       <c r="C84" t="n">
-        <v>11.86</v>
+        <v>11.92</v>
       </c>
       <c r="D84" t="n">
-        <v>11.86</v>
+        <v>11.92</v>
       </c>
       <c r="E84" t="n">
-        <v>11.86</v>
+        <v>11.92</v>
       </c>
       <c r="F84" t="n">
-        <v>42271.0676</v>
+        <v>55</v>
       </c>
       <c r="G84" t="n">
-        <v>11.86000000000001</v>
+        <v>-788574.0387408391</v>
       </c>
       <c r="H84" t="n">
-        <v>11.93049999999999</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="n">
-        <v>0</v>
-      </c>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="inlineStr"/>
-      <c r="N84" t="n">
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>11.84</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3806,36 +3384,41 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>11.86</v>
+        <v>11.85</v>
       </c>
       <c r="C85" t="n">
-        <v>11.86</v>
+        <v>11.84</v>
       </c>
       <c r="D85" t="n">
-        <v>11.86</v>
+        <v>11.85</v>
       </c>
       <c r="E85" t="n">
-        <v>11.86</v>
+        <v>11.84</v>
       </c>
       <c r="F85" t="n">
-        <v>60798.5577</v>
+        <v>179641.5209</v>
       </c>
       <c r="G85" t="n">
-        <v>11.86400000000001</v>
+        <v>-968215.5596408391</v>
       </c>
       <c r="H85" t="n">
-        <v>11.92499999999998</v>
+        <v>1</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
       <c r="J85" t="n">
-        <v>0</v>
-      </c>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="inlineStr"/>
-      <c r="N85" t="n">
+        <v>11.92</v>
+      </c>
+      <c r="K85" t="n">
+        <v>11.84</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3844,36 +3427,41 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>11.75</v>
+        <v>11.92</v>
       </c>
       <c r="C86" t="n">
-        <v>11.75</v>
+        <v>11.92</v>
       </c>
       <c r="D86" t="n">
-        <v>11.75</v>
+        <v>11.92</v>
       </c>
       <c r="E86" t="n">
-        <v>11.75</v>
+        <v>11.92</v>
       </c>
       <c r="F86" t="n">
         <v>55</v>
       </c>
       <c r="G86" t="n">
-        <v>11.85466666666667</v>
+        <v>-968160.5596408391</v>
       </c>
       <c r="H86" t="n">
-        <v>11.92083333333332</v>
+        <v>1</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
       <c r="J86" t="n">
-        <v>0</v>
-      </c>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="inlineStr"/>
-      <c r="N86" t="n">
+        <v>11.84</v>
+      </c>
+      <c r="K86" t="n">
+        <v>11.84</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3882,36 +3470,39 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>11.8</v>
+        <v>11.84</v>
       </c>
       <c r="C87" t="n">
-        <v>11.8</v>
+        <v>11.84</v>
       </c>
       <c r="D87" t="n">
-        <v>11.8</v>
+        <v>11.84</v>
       </c>
       <c r="E87" t="n">
-        <v>11.8</v>
+        <v>11.84</v>
       </c>
       <c r="F87" t="n">
-        <v>160703.0982</v>
+        <v>55.4065</v>
       </c>
       <c r="G87" t="n">
-        <v>11.85466666666667</v>
+        <v>-968215.9661408392</v>
       </c>
       <c r="H87" t="n">
-        <v>11.91583333333332</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="n">
-        <v>0</v>
-      </c>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="inlineStr"/>
-      <c r="N87" t="n">
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>11.84</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3920,36 +3511,39 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>11.9</v>
+        <v>11.84</v>
       </c>
       <c r="C88" t="n">
-        <v>11.75</v>
+        <v>11.81</v>
       </c>
       <c r="D88" t="n">
-        <v>11.9</v>
+        <v>11.84</v>
       </c>
       <c r="E88" t="n">
-        <v>11.75</v>
+        <v>11.81</v>
       </c>
       <c r="F88" t="n">
-        <v>98</v>
+        <v>12464.6216</v>
       </c>
       <c r="G88" t="n">
-        <v>11.84533333333334</v>
+        <v>-980680.5877408391</v>
       </c>
       <c r="H88" t="n">
-        <v>11.90849999999998</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
-        <v>0</v>
-      </c>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="inlineStr"/>
-      <c r="N88" t="n">
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>11.84</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3958,40 +3552,39 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>11.94</v>
+        <v>11.82</v>
       </c>
       <c r="C89" t="n">
-        <v>12.04</v>
+        <v>11.81</v>
       </c>
       <c r="D89" t="n">
-        <v>12.04</v>
+        <v>11.82</v>
       </c>
       <c r="E89" t="n">
-        <v>11.94</v>
+        <v>11.81</v>
       </c>
       <c r="F89" t="n">
-        <v>1566.3034</v>
+        <v>61938.5491</v>
       </c>
       <c r="G89" t="n">
-        <v>11.85600000000001</v>
+        <v>-980680.5877408391</v>
       </c>
       <c r="H89" t="n">
-        <v>11.90916666666665</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>1</v>
-      </c>
-      <c r="J89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="L89" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
-      <c r="N89" t="n">
+        <v>11.84</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4000,42 +3593,39 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>12.04</v>
+        <v>11.81</v>
       </c>
       <c r="C90" t="n">
         <v>11.81</v>
       </c>
       <c r="D90" t="n">
-        <v>12.04</v>
+        <v>11.81</v>
       </c>
       <c r="E90" t="n">
         <v>11.81</v>
       </c>
       <c r="F90" t="n">
-        <v>987</v>
+        <v>80998.1724</v>
       </c>
       <c r="G90" t="n">
-        <v>11.85133333333334</v>
+        <v>-980680.5877408391</v>
       </c>
       <c r="H90" t="n">
-        <v>11.90683333333331</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="n">
-        <v>0</v>
-      </c>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="M90" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N90" t="n">
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>11.84</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4047,39 +3637,36 @@
         <v>11.81</v>
       </c>
       <c r="C91" t="n">
-        <v>11.81</v>
+        <v>11.8</v>
       </c>
       <c r="D91" t="n">
         <v>11.81</v>
       </c>
       <c r="E91" t="n">
-        <v>11.81</v>
+        <v>11.8</v>
       </c>
       <c r="F91" t="n">
-        <v>25898.0407</v>
+        <v>55091.3805</v>
       </c>
       <c r="G91" t="n">
-        <v>11.85133333333334</v>
+        <v>-1035771.968240839</v>
       </c>
       <c r="H91" t="n">
-        <v>11.90366666666665</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>0</v>
-      </c>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="M91" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N91" t="n">
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>11.84</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4088,36 +3675,39 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>11.81</v>
+        <v>11.8</v>
       </c>
       <c r="C92" t="n">
         <v>11.8</v>
       </c>
       <c r="D92" t="n">
-        <v>11.81</v>
+        <v>11.8</v>
       </c>
       <c r="E92" t="n">
         <v>11.8</v>
       </c>
       <c r="F92" t="n">
-        <v>414725.1476</v>
+        <v>85971.4491</v>
       </c>
       <c r="G92" t="n">
-        <v>11.85066666666668</v>
+        <v>-1035771.968240839</v>
       </c>
       <c r="H92" t="n">
-        <v>11.89699999999998</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>0</v>
-      </c>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="inlineStr"/>
-      <c r="N92" t="n">
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>11.84</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4126,36 +3716,39 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>11.81</v>
+        <v>11.78</v>
       </c>
       <c r="C93" t="n">
-        <v>11.99</v>
+        <v>11.78</v>
       </c>
       <c r="D93" t="n">
-        <v>11.99</v>
+        <v>11.78</v>
       </c>
       <c r="E93" t="n">
-        <v>11.81</v>
+        <v>11.78</v>
       </c>
       <c r="F93" t="n">
-        <v>1100</v>
+        <v>2383.9126</v>
       </c>
       <c r="G93" t="n">
-        <v>11.86266666666668</v>
+        <v>-1038155.880840839</v>
       </c>
       <c r="H93" t="n">
-        <v>11.89349999999998</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="n">
-        <v>0</v>
-      </c>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="inlineStr"/>
-      <c r="N93" t="n">
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>11.84</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4164,36 +3757,39 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>11.95</v>
+        <v>11.8</v>
       </c>
       <c r="C94" t="n">
-        <v>11.99</v>
+        <v>11.8</v>
       </c>
       <c r="D94" t="n">
-        <v>11.99</v>
+        <v>11.8</v>
       </c>
       <c r="E94" t="n">
-        <v>11.81</v>
+        <v>11.8</v>
       </c>
       <c r="F94" t="n">
-        <v>383</v>
+        <v>1599</v>
       </c>
       <c r="G94" t="n">
-        <v>11.87000000000001</v>
+        <v>-1036556.880840839</v>
       </c>
       <c r="H94" t="n">
-        <v>11.88999999999998</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="n">
-        <v>0</v>
-      </c>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="inlineStr"/>
-      <c r="N94" t="n">
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>11.84</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4202,36 +3798,39 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="C95" t="n">
-        <v>11.99</v>
+        <v>11.81</v>
       </c>
       <c r="D95" t="n">
-        <v>11.99</v>
+        <v>11.81</v>
       </c>
       <c r="E95" t="n">
-        <v>11.81</v>
+        <v>11.8</v>
       </c>
       <c r="F95" t="n">
-        <v>605</v>
+        <v>27588.7632</v>
       </c>
       <c r="G95" t="n">
-        <v>11.87733333333335</v>
+        <v>-1008968.117640839</v>
       </c>
       <c r="H95" t="n">
-        <v>11.88933333333331</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="n">
-        <v>0</v>
-      </c>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="inlineStr"/>
-      <c r="N95" t="n">
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>11.84</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4240,36 +3839,39 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>11.99</v>
+        <v>12</v>
       </c>
       <c r="C96" t="n">
-        <v>11.99</v>
+        <v>12</v>
       </c>
       <c r="D96" t="n">
-        <v>11.99</v>
+        <v>12</v>
       </c>
       <c r="E96" t="n">
-        <v>11.99</v>
+        <v>12</v>
       </c>
       <c r="F96" t="n">
-        <v>18768.7831</v>
+        <v>55</v>
       </c>
       <c r="G96" t="n">
-        <v>11.88000000000001</v>
+        <v>-1008913.117640839</v>
       </c>
       <c r="H96" t="n">
-        <v>11.88883333333331</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="n">
-        <v>0</v>
-      </c>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="inlineStr"/>
-      <c r="N96" t="n">
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>11.84</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4278,36 +3880,39 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>11.99</v>
+        <v>11.81</v>
       </c>
       <c r="C97" t="n">
-        <v>11.99</v>
+        <v>11.75</v>
       </c>
       <c r="D97" t="n">
-        <v>11.99</v>
+        <v>11.81</v>
       </c>
       <c r="E97" t="n">
-        <v>11.8</v>
+        <v>11.75</v>
       </c>
       <c r="F97" t="n">
-        <v>445009.5791</v>
+        <v>241233.9382</v>
       </c>
       <c r="G97" t="n">
-        <v>11.89200000000001</v>
+        <v>-1250147.055840839</v>
       </c>
       <c r="H97" t="n">
-        <v>11.88916666666664</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="n">
-        <v>0</v>
-      </c>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="inlineStr"/>
-      <c r="N97" t="n">
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>11.84</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4316,36 +3921,39 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>11.95</v>
+        <v>11.89</v>
       </c>
       <c r="C98" t="n">
-        <v>11.95</v>
+        <v>11.89</v>
       </c>
       <c r="D98" t="n">
-        <v>11.95</v>
+        <v>11.89</v>
       </c>
       <c r="E98" t="n">
-        <v>11.95</v>
+        <v>11.89</v>
       </c>
       <c r="F98" t="n">
-        <v>94782.4538</v>
+        <v>48</v>
       </c>
       <c r="G98" t="n">
-        <v>11.89200000000001</v>
+        <v>-1250099.055840839</v>
       </c>
       <c r="H98" t="n">
-        <v>11.88966666666665</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="n">
-        <v>0</v>
-      </c>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="inlineStr"/>
-      <c r="N98" t="n">
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>11.84</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4354,36 +3962,39 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>11.83</v>
+        <v>11.81</v>
       </c>
       <c r="C99" t="n">
-        <v>11.83</v>
+        <v>11.8</v>
       </c>
       <c r="D99" t="n">
-        <v>11.83</v>
+        <v>11.81</v>
       </c>
       <c r="E99" t="n">
-        <v>11.83</v>
+        <v>11.8</v>
       </c>
       <c r="F99" t="n">
-        <v>99</v>
+        <v>836.6534</v>
       </c>
       <c r="G99" t="n">
-        <v>11.89000000000001</v>
+        <v>-1250935.709240839</v>
       </c>
       <c r="H99" t="n">
-        <v>11.88816666666665</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="n">
-        <v>0</v>
-      </c>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="inlineStr"/>
-      <c r="N99" t="n">
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>11.84</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4392,36 +4003,39 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>11.85</v>
+        <v>11.89</v>
       </c>
       <c r="C100" t="n">
-        <v>11.85</v>
+        <v>11.89</v>
       </c>
       <c r="D100" t="n">
-        <v>11.85</v>
+        <v>11.89</v>
       </c>
       <c r="E100" t="n">
-        <v>11.85</v>
+        <v>11.89</v>
       </c>
       <c r="F100" t="n">
-        <v>465.3225</v>
+        <v>43</v>
       </c>
       <c r="G100" t="n">
-        <v>11.88933333333335</v>
+        <v>-1250892.709240839</v>
       </c>
       <c r="H100" t="n">
-        <v>11.88433333333331</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="n">
-        <v>0</v>
-      </c>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="inlineStr"/>
-      <c r="N100" t="n">
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>11.84</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4430,36 +4044,39 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>11.85</v>
+        <v>11.81</v>
       </c>
       <c r="C101" t="n">
-        <v>11.86</v>
+        <v>11.8</v>
       </c>
       <c r="D101" t="n">
-        <v>11.86</v>
+        <v>11.81</v>
       </c>
       <c r="E101" t="n">
-        <v>11.85</v>
+        <v>11.8</v>
       </c>
       <c r="F101" t="n">
-        <v>1000</v>
+        <v>788.6534</v>
       </c>
       <c r="G101" t="n">
-        <v>11.89666666666668</v>
+        <v>-1251681.362640839</v>
       </c>
       <c r="H101" t="n">
-        <v>11.88049999999998</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="n">
-        <v>0</v>
-      </c>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="inlineStr"/>
-      <c r="N101" t="n">
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>11.84</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4468,36 +4085,39 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>11.85</v>
+        <v>11.89</v>
       </c>
       <c r="C102" t="n">
-        <v>11.85</v>
+        <v>11.89</v>
       </c>
       <c r="D102" t="n">
-        <v>11.85</v>
+        <v>11.89</v>
       </c>
       <c r="E102" t="n">
-        <v>11.85</v>
+        <v>11.89</v>
       </c>
       <c r="F102" t="n">
-        <v>224.5935</v>
+        <v>20235</v>
       </c>
       <c r="G102" t="n">
-        <v>11.90000000000001</v>
+        <v>-1231446.362640839</v>
       </c>
       <c r="H102" t="n">
-        <v>11.87949999999998</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="n">
-        <v>0</v>
-      </c>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="inlineStr"/>
-      <c r="N102" t="n">
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>11.84</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4506,36 +4126,1230 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
+        <v>11.88</v>
+      </c>
+      <c r="C103" t="n">
+        <v>11.88</v>
+      </c>
+      <c r="D103" t="n">
+        <v>11.88</v>
+      </c>
+      <c r="E103" t="n">
+        <v>11.88</v>
+      </c>
+      <c r="F103" t="n">
+        <v>25325.3961</v>
+      </c>
+      <c r="G103" t="n">
+        <v>-1256771.758740839</v>
+      </c>
+      <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="n">
+        <v>0</v>
+      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>11.84</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M103" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>11.88</v>
+      </c>
+      <c r="C104" t="n">
+        <v>11.88</v>
+      </c>
+      <c r="D104" t="n">
+        <v>11.88</v>
+      </c>
+      <c r="E104" t="n">
+        <v>11.88</v>
+      </c>
+      <c r="F104" t="n">
+        <v>9000</v>
+      </c>
+      <c r="G104" t="n">
+        <v>-1256771.758740839</v>
+      </c>
+      <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="n">
+        <v>0</v>
+      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>11.84</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M104" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>11.81</v>
+      </c>
+      <c r="C105" t="n">
+        <v>11.81</v>
+      </c>
+      <c r="D105" t="n">
+        <v>11.81</v>
+      </c>
+      <c r="E105" t="n">
+        <v>11.81</v>
+      </c>
+      <c r="F105" t="n">
+        <v>48</v>
+      </c>
+      <c r="G105" t="n">
+        <v>-1256819.758740839</v>
+      </c>
+      <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="n">
+        <v>0</v>
+      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>11.84</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M105" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>11.81</v>
+      </c>
+      <c r="C106" t="n">
+        <v>11.81</v>
+      </c>
+      <c r="D106" t="n">
+        <v>11.81</v>
+      </c>
+      <c r="E106" t="n">
+        <v>11.81</v>
+      </c>
+      <c r="F106" t="n">
+        <v>8576.993700000001</v>
+      </c>
+      <c r="G106" t="n">
+        <v>-1256819.758740839</v>
+      </c>
+      <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="n">
+        <v>0</v>
+      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>11.84</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M106" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>11.81</v>
+      </c>
+      <c r="C107" t="n">
+        <v>11.81</v>
+      </c>
+      <c r="D107" t="n">
+        <v>11.81</v>
+      </c>
+      <c r="E107" t="n">
+        <v>11.81</v>
+      </c>
+      <c r="F107" t="n">
+        <v>179641.521</v>
+      </c>
+      <c r="G107" t="n">
+        <v>-1256819.758740839</v>
+      </c>
+      <c r="H107" t="n">
+        <v>1</v>
+      </c>
+      <c r="I107" t="n">
+        <v>0</v>
+      </c>
+      <c r="J107" t="n">
+        <v>11.81</v>
+      </c>
+      <c r="K107" t="n">
+        <v>11.84</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M107" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>11.88</v>
+      </c>
+      <c r="C108" t="n">
+        <v>11.88</v>
+      </c>
+      <c r="D108" t="n">
+        <v>11.88</v>
+      </c>
+      <c r="E108" t="n">
+        <v>11.88</v>
+      </c>
+      <c r="F108" t="n">
+        <v>19795.1213</v>
+      </c>
+      <c r="G108" t="n">
+        <v>-1237024.637440839</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="n">
+        <v>0</v>
+      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>11.84</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M108" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>11.88</v>
+      </c>
+      <c r="C109" t="n">
+        <v>11.88</v>
+      </c>
+      <c r="D109" t="n">
+        <v>11.88</v>
+      </c>
+      <c r="E109" t="n">
+        <v>11.88</v>
+      </c>
+      <c r="F109" t="n">
+        <v>2885</v>
+      </c>
+      <c r="G109" t="n">
+        <v>-1237024.637440839</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="n">
+        <v>0</v>
+      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>11.84</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M109" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>11.89</v>
+      </c>
+      <c r="C110" t="n">
         <v>11.95</v>
       </c>
-      <c r="C103" t="n">
+      <c r="D110" t="n">
+        <v>11.95</v>
+      </c>
+      <c r="E110" t="n">
+        <v>11.89</v>
+      </c>
+      <c r="F110" t="n">
+        <v>9009.349200000001</v>
+      </c>
+      <c r="G110" t="n">
+        <v>-1228015.288240839</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0</v>
+      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>11.84</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M110" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>11.95</v>
+      </c>
+      <c r="C111" t="n">
+        <v>11.81</v>
+      </c>
+      <c r="D111" t="n">
+        <v>11.95</v>
+      </c>
+      <c r="E111" t="n">
+        <v>11.81</v>
+      </c>
+      <c r="F111" t="n">
+        <v>110</v>
+      </c>
+      <c r="G111" t="n">
+        <v>-1228125.288240839</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0</v>
+      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>11.84</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M111" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>11.95</v>
+      </c>
+      <c r="C112" t="n">
+        <v>11.95</v>
+      </c>
+      <c r="D112" t="n">
+        <v>11.95</v>
+      </c>
+      <c r="E112" t="n">
+        <v>11.95</v>
+      </c>
+      <c r="F112" t="n">
+        <v>42</v>
+      </c>
+      <c r="G112" t="n">
+        <v>-1228083.288240839</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0</v>
+      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>11.84</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M112" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>11.86</v>
+      </c>
+      <c r="C113" t="n">
+        <v>11.86</v>
+      </c>
+      <c r="D113" t="n">
+        <v>11.86</v>
+      </c>
+      <c r="E113" t="n">
+        <v>11.86</v>
+      </c>
+      <c r="F113" t="n">
+        <v>42271.0676</v>
+      </c>
+      <c r="G113" t="n">
+        <v>-1270354.355840839</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>11.84</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M113" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>11.86</v>
+      </c>
+      <c r="C114" t="n">
+        <v>11.86</v>
+      </c>
+      <c r="D114" t="n">
+        <v>11.86</v>
+      </c>
+      <c r="E114" t="n">
+        <v>11.86</v>
+      </c>
+      <c r="F114" t="n">
+        <v>60798.5577</v>
+      </c>
+      <c r="G114" t="n">
+        <v>-1270354.355840839</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>11.84</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M114" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="C115" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="D115" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="E115" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="F115" t="n">
+        <v>55</v>
+      </c>
+      <c r="G115" t="n">
+        <v>-1270409.355840839</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>11.84</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M115" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="C116" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="D116" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="E116" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="F116" t="n">
+        <v>160703.0982</v>
+      </c>
+      <c r="G116" t="n">
+        <v>-1109706.257640839</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>11.84</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M116" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="C117" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="D117" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="E117" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="F117" t="n">
+        <v>98</v>
+      </c>
+      <c r="G117" t="n">
+        <v>-1109804.257640839</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>11.84</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M117" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>11.94</v>
+      </c>
+      <c r="C118" t="n">
+        <v>12.04</v>
+      </c>
+      <c r="D118" t="n">
+        <v>12.04</v>
+      </c>
+      <c r="E118" t="n">
+        <v>11.94</v>
+      </c>
+      <c r="F118" t="n">
+        <v>1566.3034</v>
+      </c>
+      <c r="G118" t="n">
+        <v>-1108237.954240839</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>11.84</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M118" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>12.04</v>
+      </c>
+      <c r="C119" t="n">
+        <v>11.81</v>
+      </c>
+      <c r="D119" t="n">
+        <v>12.04</v>
+      </c>
+      <c r="E119" t="n">
+        <v>11.81</v>
+      </c>
+      <c r="F119" t="n">
+        <v>987</v>
+      </c>
+      <c r="G119" t="n">
+        <v>-1109224.954240839</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>11.84</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M119" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>11.81</v>
+      </c>
+      <c r="C120" t="n">
+        <v>11.81</v>
+      </c>
+      <c r="D120" t="n">
+        <v>11.81</v>
+      </c>
+      <c r="E120" t="n">
+        <v>11.81</v>
+      </c>
+      <c r="F120" t="n">
+        <v>25898.0407</v>
+      </c>
+      <c r="G120" t="n">
+        <v>-1109224.954240839</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>11.84</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M120" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>11.81</v>
+      </c>
+      <c r="C121" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="D121" t="n">
+        <v>11.81</v>
+      </c>
+      <c r="E121" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="F121" t="n">
+        <v>414725.1476</v>
+      </c>
+      <c r="G121" t="n">
+        <v>-1523950.101840839</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>11.84</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M121" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>11.81</v>
+      </c>
+      <c r="C122" t="n">
         <v>11.99</v>
       </c>
-      <c r="D103" t="n">
+      <c r="D122" t="n">
         <v>11.99</v>
       </c>
-      <c r="E103" t="n">
+      <c r="E122" t="n">
+        <v>11.81</v>
+      </c>
+      <c r="F122" t="n">
+        <v>1100</v>
+      </c>
+      <c r="G122" t="n">
+        <v>-1522850.101840839</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>11.84</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M122" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
         <v>11.95</v>
       </c>
-      <c r="F103" t="n">
+      <c r="C123" t="n">
+        <v>11.99</v>
+      </c>
+      <c r="D123" t="n">
+        <v>11.99</v>
+      </c>
+      <c r="E123" t="n">
+        <v>11.81</v>
+      </c>
+      <c r="F123" t="n">
+        <v>383</v>
+      </c>
+      <c r="G123" t="n">
+        <v>-1522850.101840839</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>11.84</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="C124" t="n">
+        <v>11.99</v>
+      </c>
+      <c r="D124" t="n">
+        <v>11.99</v>
+      </c>
+      <c r="E124" t="n">
+        <v>11.81</v>
+      </c>
+      <c r="F124" t="n">
+        <v>605</v>
+      </c>
+      <c r="G124" t="n">
+        <v>-1522850.101840839</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>11.84</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M124" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>11.99</v>
+      </c>
+      <c r="C125" t="n">
+        <v>11.99</v>
+      </c>
+      <c r="D125" t="n">
+        <v>11.99</v>
+      </c>
+      <c r="E125" t="n">
+        <v>11.99</v>
+      </c>
+      <c r="F125" t="n">
+        <v>18768.7831</v>
+      </c>
+      <c r="G125" t="n">
+        <v>-1522850.101840839</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>11.84</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>11.99</v>
+      </c>
+      <c r="C126" t="n">
+        <v>11.99</v>
+      </c>
+      <c r="D126" t="n">
+        <v>11.99</v>
+      </c>
+      <c r="E126" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="F126" t="n">
+        <v>445009.5791</v>
+      </c>
+      <c r="G126" t="n">
+        <v>-1522850.101840839</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>11.84</v>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>11.95</v>
+      </c>
+      <c r="C127" t="n">
+        <v>11.95</v>
+      </c>
+      <c r="D127" t="n">
+        <v>11.95</v>
+      </c>
+      <c r="E127" t="n">
+        <v>11.95</v>
+      </c>
+      <c r="F127" t="n">
+        <v>94782.4538</v>
+      </c>
+      <c r="G127" t="n">
+        <v>-1617632.555640839</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>11.84</v>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>11.83</v>
+      </c>
+      <c r="C128" t="n">
+        <v>11.83</v>
+      </c>
+      <c r="D128" t="n">
+        <v>11.83</v>
+      </c>
+      <c r="E128" t="n">
+        <v>11.83</v>
+      </c>
+      <c r="F128" t="n">
+        <v>99</v>
+      </c>
+      <c r="G128" t="n">
+        <v>-1617731.555640839</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>11.84</v>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>11.85</v>
+      </c>
+      <c r="C129" t="n">
+        <v>11.85</v>
+      </c>
+      <c r="D129" t="n">
+        <v>11.85</v>
+      </c>
+      <c r="E129" t="n">
+        <v>11.85</v>
+      </c>
+      <c r="F129" t="n">
+        <v>465.3225</v>
+      </c>
+      <c r="G129" t="n">
+        <v>-1617266.233140839</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>11.84</v>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>11.85</v>
+      </c>
+      <c r="C130" t="n">
+        <v>11.86</v>
+      </c>
+      <c r="D130" t="n">
+        <v>11.86</v>
+      </c>
+      <c r="E130" t="n">
+        <v>11.85</v>
+      </c>
+      <c r="F130" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G130" t="n">
+        <v>-1616266.233140839</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>11.84</v>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>11.85</v>
+      </c>
+      <c r="C131" t="n">
+        <v>11.85</v>
+      </c>
+      <c r="D131" t="n">
+        <v>11.85</v>
+      </c>
+      <c r="E131" t="n">
+        <v>11.85</v>
+      </c>
+      <c r="F131" t="n">
+        <v>224.5935</v>
+      </c>
+      <c r="G131" t="n">
+        <v>-1616490.826640839</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>11.84</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>11.95</v>
+      </c>
+      <c r="C132" t="n">
+        <v>11.99</v>
+      </c>
+      <c r="D132" t="n">
+        <v>11.99</v>
+      </c>
+      <c r="E132" t="n">
+        <v>11.95</v>
+      </c>
+      <c r="F132" t="n">
         <v>19565.6442</v>
       </c>
-      <c r="G103" t="n">
-        <v>11.91600000000001</v>
-      </c>
-      <c r="H103" t="n">
-        <v>11.88083333333332</v>
-      </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
-      <c r="J103" t="n">
-        <v>0</v>
-      </c>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="inlineStr"/>
-      <c r="N103" t="n">
+      <c r="G132" t="n">
+        <v>-1596925.182440839</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>11.84</v>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M132" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-24 BackTest TRV.xlsx
+++ b/BackTest/2020-01-24 BackTest TRV.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M132"/>
+  <dimension ref="A1:N132"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,6 +427,11 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_gap</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -462,6 +467,7 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -489,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
@@ -497,6 +503,7 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -524,7 +531,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
@@ -532,6 +539,7 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -567,6 +575,7 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -594,7 +603,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
@@ -602,6 +611,7 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -629,7 +639,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
@@ -637,6 +647,7 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -664,7 +675,7 @@
         <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="n">
         <v>11.85</v>
@@ -676,6 +687,7 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -703,7 +715,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="n">
@@ -717,6 +729,7 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -744,7 +757,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="n">
@@ -758,6 +771,7 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -785,7 +799,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
@@ -793,6 +807,7 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -820,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
@@ -828,6 +843,7 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -855,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
@@ -863,6 +879,7 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -898,6 +915,7 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -925,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
@@ -933,6 +951,7 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -960,7 +979,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
@@ -968,6 +987,7 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1003,6 +1023,7 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1038,6 +1059,7 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1073,6 +1095,7 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1108,6 +1131,7 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1143,6 +1167,7 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1178,6 +1203,7 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1213,6 +1239,7 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1248,6 +1275,7 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1283,6 +1311,7 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1318,6 +1347,7 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1353,6 +1383,7 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1388,6 +1419,7 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1423,6 +1455,7 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1458,6 +1491,7 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1493,6 +1527,7 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1528,6 +1563,7 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1563,6 +1599,7 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1598,6 +1635,7 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1633,6 +1671,7 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1668,6 +1707,7 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1703,6 +1743,7 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1738,6 +1779,7 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1773,6 +1815,7 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1808,6 +1851,7 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1843,6 +1887,7 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1878,6 +1923,7 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1913,6 +1959,7 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1948,6 +1995,7 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1983,6 +2031,7 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2018,6 +2067,7 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2053,6 +2103,7 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2088,6 +2139,7 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2123,6 +2175,7 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2158,6 +2211,7 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2193,6 +2247,7 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2228,6 +2283,7 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2263,6 +2319,7 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2298,6 +2355,7 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2333,6 +2391,7 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2368,6 +2427,7 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2403,6 +2463,7 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2438,6 +2499,7 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2473,6 +2535,7 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2508,6 +2571,7 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2543,6 +2607,7 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2578,6 +2643,7 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2613,6 +2679,7 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2648,6 +2715,7 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2683,6 +2751,7 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2718,6 +2787,7 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2753,6 +2823,7 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2788,6 +2859,7 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2823,6 +2895,7 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2858,6 +2931,7 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2893,6 +2967,7 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2928,6 +3003,7 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2963,6 +3039,7 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2998,6 +3075,7 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3033,6 +3111,7 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3072,6 +3151,7 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3115,6 +3195,7 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3158,6 +3239,7 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3193,6 +3275,7 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3228,6 +3311,7 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3263,6 +3347,7 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3298,6 +3383,7 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3337,6 +3423,7 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3378,6 +3465,7 @@
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3421,6 +3509,7 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3464,6 +3553,7 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3505,6 +3595,7 @@
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3546,6 +3637,7 @@
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3587,6 +3679,7 @@
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3628,6 +3721,7 @@
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3669,6 +3763,7 @@
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3710,6 +3805,7 @@
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3751,6 +3847,7 @@
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3792,6 +3889,7 @@
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3833,6 +3931,7 @@
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3874,6 +3973,7 @@
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3915,6 +4015,7 @@
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3956,6 +4057,7 @@
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3997,6 +4099,7 @@
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4038,6 +4141,7 @@
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4079,6 +4183,7 @@
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4120,6 +4225,7 @@
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4161,6 +4267,7 @@
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4202,6 +4309,7 @@
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4243,6 +4351,7 @@
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4284,6 +4393,7 @@
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4327,6 +4437,7 @@
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4368,6 +4479,7 @@
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4409,6 +4521,7 @@
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4450,6 +4563,7 @@
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4491,6 +4605,7 @@
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4532,6 +4647,7 @@
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4573,6 +4689,7 @@
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4614,6 +4731,7 @@
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4655,6 +4773,7 @@
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4696,6 +4815,7 @@
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4737,6 +4857,7 @@
       <c r="M117" t="n">
         <v>1</v>
       </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4778,6 +4899,7 @@
       <c r="M118" t="n">
         <v>1</v>
       </c>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4819,6 +4941,7 @@
       <c r="M119" t="n">
         <v>1</v>
       </c>
+      <c r="N119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4860,6 +4983,7 @@
       <c r="M120" t="n">
         <v>1</v>
       </c>
+      <c r="N120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4901,6 +5025,7 @@
       <c r="M121" t="n">
         <v>1</v>
       </c>
+      <c r="N121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4942,6 +5067,7 @@
       <c r="M122" t="n">
         <v>1</v>
       </c>
+      <c r="N122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4983,6 +5109,7 @@
       <c r="M123" t="n">
         <v>1</v>
       </c>
+      <c r="N123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5024,6 +5151,7 @@
       <c r="M124" t="n">
         <v>1</v>
       </c>
+      <c r="N124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5065,6 +5193,7 @@
       <c r="M125" t="n">
         <v>1</v>
       </c>
+      <c r="N125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5106,6 +5235,7 @@
       <c r="M126" t="n">
         <v>1</v>
       </c>
+      <c r="N126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5147,6 +5277,7 @@
       <c r="M127" t="n">
         <v>1</v>
       </c>
+      <c r="N127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5188,6 +5319,7 @@
       <c r="M128" t="n">
         <v>1</v>
       </c>
+      <c r="N128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5229,6 +5361,7 @@
       <c r="M129" t="n">
         <v>1</v>
       </c>
+      <c r="N129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5270,6 +5403,7 @@
       <c r="M130" t="n">
         <v>1</v>
       </c>
+      <c r="N130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5311,6 +5445,7 @@
       <c r="M131" t="n">
         <v>1</v>
       </c>
+      <c r="N131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5352,6 +5487,7 @@
       <c r="M132" t="n">
         <v>1</v>
       </c>
+      <c r="N132" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-24 BackTest TRV.xlsx
+++ b/BackTest/2020-01-24 BackTest TRV.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N132"/>
+  <dimension ref="A1:N161"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,7 +429,7 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Price_gap</t>
+          <t>Price_point</t>
         </is>
       </c>
     </row>
@@ -438,22 +438,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>11.88</v>
+        <v>12.11</v>
       </c>
       <c r="C2" t="n">
-        <v>11.88</v>
+        <v>12.11</v>
       </c>
       <c r="D2" t="n">
-        <v>11.88</v>
+        <v>12.11</v>
       </c>
       <c r="E2" t="n">
-        <v>11.88</v>
+        <v>12.11</v>
       </c>
       <c r="F2" t="n">
-        <v>57714.8541</v>
+        <v>71468.9246</v>
       </c>
       <c r="G2" t="n">
-        <v>-889016.1658999999</v>
+        <v>-234018.7402000001</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -474,22 +474,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>11.87</v>
+        <v>12.11</v>
       </c>
       <c r="C3" t="n">
-        <v>11.87</v>
+        <v>12.11</v>
       </c>
       <c r="D3" t="n">
-        <v>11.87</v>
+        <v>12.11</v>
       </c>
       <c r="E3" t="n">
-        <v>11.87</v>
+        <v>12.11</v>
       </c>
       <c r="F3" t="n">
-        <v>27491.6418</v>
+        <v>19474.1649</v>
       </c>
       <c r="G3" t="n">
-        <v>-916507.8076999999</v>
+        <v>-234018.7402000001</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -510,22 +510,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>11.87</v>
+        <v>12.11</v>
       </c>
       <c r="C4" t="n">
-        <v>11.87</v>
+        <v>12.1</v>
       </c>
       <c r="D4" t="n">
-        <v>11.87</v>
+        <v>12.11</v>
       </c>
       <c r="E4" t="n">
-        <v>11.87</v>
+        <v>12.1</v>
       </c>
       <c r="F4" t="n">
-        <v>9219.693499999999</v>
+        <v>227720.4484</v>
       </c>
       <c r="G4" t="n">
-        <v>-916507.8076999999</v>
+        <v>-461739.1886000001</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -546,22 +546,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>11.86</v>
+        <v>12.09</v>
       </c>
       <c r="C5" t="n">
-        <v>11.86</v>
+        <v>12.08</v>
       </c>
       <c r="D5" t="n">
-        <v>11.86</v>
+        <v>12.09</v>
       </c>
       <c r="E5" t="n">
-        <v>11.86</v>
+        <v>12.08</v>
       </c>
       <c r="F5" t="n">
-        <v>1322.2796</v>
+        <v>4878.2812</v>
       </c>
       <c r="G5" t="n">
-        <v>-917830.0872999999</v>
+        <v>-466617.4698000001</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -582,22 +582,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>11.85</v>
+        <v>12.07</v>
       </c>
       <c r="C6" t="n">
-        <v>11.85</v>
+        <v>12.07</v>
       </c>
       <c r="D6" t="n">
-        <v>11.85</v>
+        <v>12.07</v>
       </c>
       <c r="E6" t="n">
-        <v>11.85</v>
+        <v>12.07</v>
       </c>
       <c r="F6" t="n">
-        <v>39035.2493</v>
+        <v>4813.9226</v>
       </c>
       <c r="G6" t="n">
-        <v>-956865.3365999999</v>
+        <v>-471431.3924000001</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -618,22 +618,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>11.85</v>
+        <v>12.07</v>
       </c>
       <c r="C7" t="n">
-        <v>11.85</v>
+        <v>12.05</v>
       </c>
       <c r="D7" t="n">
-        <v>11.85</v>
+        <v>12.07</v>
       </c>
       <c r="E7" t="n">
-        <v>11.85</v>
+        <v>12.05</v>
       </c>
       <c r="F7" t="n">
-        <v>2027.6793</v>
+        <v>17525.2304</v>
       </c>
       <c r="G7" t="n">
-        <v>-956865.3365999999</v>
+        <v>-488956.6228000001</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -654,35 +654,31 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>11.84</v>
+        <v>12.04</v>
       </c>
       <c r="C8" t="n">
-        <v>11.84</v>
+        <v>12.04</v>
       </c>
       <c r="D8" t="n">
-        <v>11.84</v>
+        <v>12.04</v>
       </c>
       <c r="E8" t="n">
-        <v>11.84</v>
+        <v>12.04</v>
       </c>
       <c r="F8" t="n">
-        <v>29822.8086</v>
+        <v>35641.6688</v>
       </c>
       <c r="G8" t="n">
-        <v>-986688.1451999999</v>
+        <v>-524598.2916000001</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>1</v>
       </c>
-      <c r="J8" t="n">
-        <v>11.85</v>
-      </c>
-      <c r="K8" t="n">
-        <v>11.85</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
@@ -694,22 +690,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>11.85</v>
+        <v>12.03</v>
       </c>
       <c r="C9" t="n">
-        <v>11.85</v>
+        <v>12</v>
       </c>
       <c r="D9" t="n">
-        <v>11.85</v>
+        <v>12.03</v>
       </c>
       <c r="E9" t="n">
-        <v>11.85</v>
+        <v>12</v>
       </c>
       <c r="F9" t="n">
-        <v>176</v>
+        <v>199501.78</v>
       </c>
       <c r="G9" t="n">
-        <v>-986512.1451999999</v>
+        <v>-724100.0716000001</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -718,14 +714,8 @@
         <v>1</v>
       </c>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="n">
-        <v>11.85</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -736,22 +726,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>11.85</v>
+        <v>12</v>
       </c>
       <c r="C10" t="n">
-        <v>11.85</v>
+        <v>11.97</v>
       </c>
       <c r="D10" t="n">
-        <v>11.85</v>
+        <v>12</v>
       </c>
       <c r="E10" t="n">
-        <v>11.85</v>
+        <v>11.97</v>
       </c>
       <c r="F10" t="n">
-        <v>574</v>
+        <v>65035.1046</v>
       </c>
       <c r="G10" t="n">
-        <v>-986512.1451999999</v>
+        <v>-789135.1762000001</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -760,14 +750,8 @@
         <v>1</v>
       </c>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="n">
-        <v>11.85</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -778,22 +762,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>11.85</v>
+        <v>11.97</v>
       </c>
       <c r="C11" t="n">
-        <v>11.85</v>
+        <v>11.97</v>
       </c>
       <c r="D11" t="n">
-        <v>11.85</v>
+        <v>11.97</v>
       </c>
       <c r="E11" t="n">
-        <v>11.85</v>
+        <v>11.97</v>
       </c>
       <c r="F11" t="n">
-        <v>512</v>
+        <v>105564.8314</v>
       </c>
       <c r="G11" t="n">
-        <v>-986512.1451999999</v>
+        <v>-789135.1762000001</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -814,22 +798,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>11.83</v>
+        <v>11.95</v>
       </c>
       <c r="C12" t="n">
-        <v>11.83</v>
+        <v>11.95</v>
       </c>
       <c r="D12" t="n">
-        <v>11.83</v>
+        <v>11.95</v>
       </c>
       <c r="E12" t="n">
-        <v>11.83</v>
+        <v>11.95</v>
       </c>
       <c r="F12" t="n">
-        <v>91450.74099999999</v>
+        <v>2774.3367</v>
       </c>
       <c r="G12" t="n">
-        <v>-1077962.8862</v>
+        <v>-791909.5129000001</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -850,22 +834,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>11.85</v>
+        <v>11.91</v>
       </c>
       <c r="C13" t="n">
-        <v>11.85</v>
+        <v>11.89</v>
       </c>
       <c r="D13" t="n">
-        <v>11.85</v>
+        <v>11.91</v>
       </c>
       <c r="E13" t="n">
-        <v>11.85</v>
+        <v>11.89</v>
       </c>
       <c r="F13" t="n">
-        <v>66</v>
+        <v>89421.52929999999</v>
       </c>
       <c r="G13" t="n">
-        <v>-1077896.8862</v>
+        <v>-881331.0422</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -886,28 +870,28 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>11.83</v>
+        <v>11.89</v>
       </c>
       <c r="C14" t="n">
-        <v>11.83</v>
+        <v>11.82</v>
       </c>
       <c r="D14" t="n">
-        <v>11.83</v>
+        <v>11.89</v>
       </c>
       <c r="E14" t="n">
-        <v>11.83</v>
+        <v>11.82</v>
       </c>
       <c r="F14" t="n">
-        <v>275.3653</v>
+        <v>146087.3963</v>
       </c>
       <c r="G14" t="n">
-        <v>-1078172.2515</v>
+        <v>-1027418.4385</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
@@ -922,28 +906,28 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>11.81</v>
+        <v>12.03</v>
       </c>
       <c r="C15" t="n">
-        <v>11.71</v>
+        <v>12.03</v>
       </c>
       <c r="D15" t="n">
-        <v>11.81</v>
+        <v>12.03</v>
       </c>
       <c r="E15" t="n">
-        <v>11.71</v>
+        <v>12.03</v>
       </c>
       <c r="F15" t="n">
-        <v>219597.8189</v>
+        <v>42</v>
       </c>
       <c r="G15" t="n">
-        <v>-1297770.0704</v>
+        <v>-1027376.4385</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
@@ -958,22 +942,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>11.82</v>
+        <v>11.9</v>
       </c>
       <c r="C16" t="n">
-        <v>11.82</v>
+        <v>11.9</v>
       </c>
       <c r="D16" t="n">
-        <v>11.82</v>
+        <v>11.9</v>
       </c>
       <c r="E16" t="n">
-        <v>11.82</v>
+        <v>11.9</v>
       </c>
       <c r="F16" t="n">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="G16" t="n">
-        <v>-1297704.0704</v>
+        <v>-1027426.4385</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -994,22 +978,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>11.72</v>
+        <v>11.9</v>
       </c>
       <c r="C17" t="n">
-        <v>11.72</v>
+        <v>11.9</v>
       </c>
       <c r="D17" t="n">
-        <v>11.72</v>
+        <v>11.9</v>
       </c>
       <c r="E17" t="n">
-        <v>11.72</v>
+        <v>11.9</v>
       </c>
       <c r="F17" t="n">
-        <v>45093.816</v>
+        <v>4183.381</v>
       </c>
       <c r="G17" t="n">
-        <v>-1342797.8864</v>
+        <v>-1027426.4385</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1030,22 +1014,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>11.73</v>
+        <v>11.99</v>
       </c>
       <c r="C18" t="n">
-        <v>11.72</v>
+        <v>12</v>
       </c>
       <c r="D18" t="n">
-        <v>11.73</v>
+        <v>12</v>
       </c>
       <c r="E18" t="n">
-        <v>11.72</v>
+        <v>11.99</v>
       </c>
       <c r="F18" t="n">
-        <v>170000</v>
+        <v>83125.6026</v>
       </c>
       <c r="G18" t="n">
-        <v>-1342797.8864</v>
+        <v>-944300.8359000001</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1066,22 +1050,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>11.77</v>
+        <v>11.98</v>
       </c>
       <c r="C19" t="n">
-        <v>11.77</v>
+        <v>11.98</v>
       </c>
       <c r="D19" t="n">
-        <v>11.77</v>
+        <v>11.98</v>
       </c>
       <c r="E19" t="n">
-        <v>11.77</v>
+        <v>11.98</v>
       </c>
       <c r="F19" t="n">
-        <v>18827.4251</v>
+        <v>50000</v>
       </c>
       <c r="G19" t="n">
-        <v>-1323970.4613</v>
+        <v>-994300.8359000001</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1102,22 +1086,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>11.78</v>
+        <v>11.91</v>
       </c>
       <c r="C20" t="n">
-        <v>11.78</v>
+        <v>11.9</v>
       </c>
       <c r="D20" t="n">
-        <v>11.78</v>
+        <v>11.91</v>
       </c>
       <c r="E20" t="n">
-        <v>11.78</v>
+        <v>11.9</v>
       </c>
       <c r="F20" t="n">
-        <v>6280.374</v>
+        <v>141173.2151</v>
       </c>
       <c r="G20" t="n">
-        <v>-1317690.0873</v>
+        <v>-1135474.051</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1138,22 +1122,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>11.77</v>
+        <v>11.9</v>
       </c>
       <c r="C21" t="n">
-        <v>11.77</v>
+        <v>11.9</v>
       </c>
       <c r="D21" t="n">
-        <v>11.77</v>
+        <v>11.9</v>
       </c>
       <c r="E21" t="n">
-        <v>11.77</v>
+        <v>11.9</v>
       </c>
       <c r="F21" t="n">
-        <v>6280.374</v>
+        <v>20511.8297</v>
       </c>
       <c r="G21" t="n">
-        <v>-1323970.4613</v>
+        <v>-1135474.051</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1174,22 +1158,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>11.77</v>
+        <v>11.9</v>
       </c>
       <c r="C22" t="n">
-        <v>11.77</v>
+        <v>11.9</v>
       </c>
       <c r="D22" t="n">
-        <v>11.77</v>
+        <v>11.9</v>
       </c>
       <c r="E22" t="n">
-        <v>11.77</v>
+        <v>11.9</v>
       </c>
       <c r="F22" t="n">
-        <v>19986.7523</v>
+        <v>21657.5561</v>
       </c>
       <c r="G22" t="n">
-        <v>-1323970.4613</v>
+        <v>-1135474.051</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1210,22 +1194,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>11.77</v>
+        <v>11.9</v>
       </c>
       <c r="C23" t="n">
-        <v>11.77</v>
+        <v>11.9</v>
       </c>
       <c r="D23" t="n">
-        <v>11.77</v>
+        <v>11.9</v>
       </c>
       <c r="E23" t="n">
-        <v>11.77</v>
+        <v>11.9</v>
       </c>
       <c r="F23" t="n">
-        <v>367.8017</v>
+        <v>2521.0085</v>
       </c>
       <c r="G23" t="n">
-        <v>-1323970.4613</v>
+        <v>-1135474.051</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1246,22 +1230,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>11.74</v>
+        <v>11.86</v>
       </c>
       <c r="C24" t="n">
-        <v>11.74</v>
+        <v>11.86</v>
       </c>
       <c r="D24" t="n">
-        <v>11.74</v>
+        <v>11.86</v>
       </c>
       <c r="E24" t="n">
-        <v>11.74</v>
+        <v>11.86</v>
       </c>
       <c r="F24" t="n">
-        <v>5853.5171</v>
+        <v>6438.8808</v>
       </c>
       <c r="G24" t="n">
-        <v>-1329823.9784</v>
+        <v>-1141912.9318</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1282,22 +1266,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>11.82</v>
+        <v>11.86</v>
       </c>
       <c r="C25" t="n">
-        <v>11.82</v>
+        <v>11.86</v>
       </c>
       <c r="D25" t="n">
-        <v>11.82</v>
+        <v>11.86</v>
       </c>
       <c r="E25" t="n">
-        <v>11.82</v>
+        <v>11.86</v>
       </c>
       <c r="F25" t="n">
-        <v>26201.1263</v>
+        <v>980.9155</v>
       </c>
       <c r="G25" t="n">
-        <v>-1303622.8521</v>
+        <v>-1141912.9318</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1330,10 +1314,10 @@
         <v>11.86</v>
       </c>
       <c r="F26" t="n">
-        <v>71100.9516</v>
+        <v>33249.043</v>
       </c>
       <c r="G26" t="n">
-        <v>-1232521.9005</v>
+        <v>-1141912.9318</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1354,22 +1338,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>11.74</v>
+        <v>11.95</v>
       </c>
       <c r="C27" t="n">
-        <v>11.74</v>
+        <v>11.95</v>
       </c>
       <c r="D27" t="n">
-        <v>11.74</v>
+        <v>11.95</v>
       </c>
       <c r="E27" t="n">
-        <v>11.74</v>
+        <v>11.95</v>
       </c>
       <c r="F27" t="n">
-        <v>343.725</v>
+        <v>100</v>
       </c>
       <c r="G27" t="n">
-        <v>-1232865.6255</v>
+        <v>-1141812.9318</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1390,22 +1374,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>11.85</v>
+        <v>11.95</v>
       </c>
       <c r="C28" t="n">
-        <v>11.85</v>
+        <v>11.95</v>
       </c>
       <c r="D28" t="n">
-        <v>11.85</v>
+        <v>11.95</v>
       </c>
       <c r="E28" t="n">
-        <v>11.85</v>
+        <v>11.95</v>
       </c>
       <c r="F28" t="n">
-        <v>84.38818565400844</v>
+        <v>50</v>
       </c>
       <c r="G28" t="n">
-        <v>-1232781.237314346</v>
+        <v>-1141812.9318</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1426,22 +1410,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>11.85</v>
+        <v>11.95</v>
       </c>
       <c r="C29" t="n">
-        <v>11.85</v>
+        <v>12</v>
       </c>
       <c r="D29" t="n">
-        <v>11.85</v>
+        <v>12</v>
       </c>
       <c r="E29" t="n">
-        <v>11.85</v>
+        <v>11.95</v>
       </c>
       <c r="F29" t="n">
-        <v>10176.8363</v>
+        <v>279047.0192</v>
       </c>
       <c r="G29" t="n">
-        <v>-1232781.237314346</v>
+        <v>-862765.9125999999</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1462,22 +1446,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>11.85</v>
+        <v>11.88</v>
       </c>
       <c r="C30" t="n">
-        <v>11.85</v>
+        <v>11.88</v>
       </c>
       <c r="D30" t="n">
-        <v>11.85</v>
+        <v>11.88</v>
       </c>
       <c r="E30" t="n">
-        <v>11.85</v>
+        <v>11.88</v>
       </c>
       <c r="F30" t="n">
-        <v>37011.39711434599</v>
+        <v>26250.2533</v>
       </c>
       <c r="G30" t="n">
-        <v>-1232781.237314346</v>
+        <v>-889016.1658999999</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1498,22 +1482,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>11.86</v>
+        <v>11.88</v>
       </c>
       <c r="C31" t="n">
-        <v>11.86</v>
+        <v>11.88</v>
       </c>
       <c r="D31" t="n">
-        <v>11.86</v>
+        <v>11.88</v>
       </c>
       <c r="E31" t="n">
-        <v>11.86</v>
+        <v>11.88</v>
       </c>
       <c r="F31" t="n">
-        <v>43</v>
+        <v>57714.8541</v>
       </c>
       <c r="G31" t="n">
-        <v>-1232738.237314346</v>
+        <v>-889016.1658999999</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1534,22 +1518,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>11.86</v>
+        <v>11.87</v>
       </c>
       <c r="C32" t="n">
-        <v>11.86</v>
+        <v>11.87</v>
       </c>
       <c r="D32" t="n">
-        <v>11.86</v>
+        <v>11.87</v>
       </c>
       <c r="E32" t="n">
-        <v>11.86</v>
+        <v>11.87</v>
       </c>
       <c r="F32" t="n">
-        <v>37715.0378</v>
+        <v>27491.6418</v>
       </c>
       <c r="G32" t="n">
-        <v>-1232738.237314346</v>
+        <v>-916507.8076999999</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1570,22 +1554,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>11.86</v>
+        <v>11.87</v>
       </c>
       <c r="C33" t="n">
-        <v>11.86</v>
+        <v>11.87</v>
       </c>
       <c r="D33" t="n">
-        <v>11.86</v>
+        <v>11.87</v>
       </c>
       <c r="E33" t="n">
-        <v>11.86</v>
+        <v>11.87</v>
       </c>
       <c r="F33" t="n">
-        <v>11166.2744</v>
+        <v>9219.693499999999</v>
       </c>
       <c r="G33" t="n">
-        <v>-1232738.237314346</v>
+        <v>-916507.8076999999</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1606,22 +1590,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>11.94</v>
+        <v>11.86</v>
       </c>
       <c r="C34" t="n">
-        <v>11.94</v>
+        <v>11.86</v>
       </c>
       <c r="D34" t="n">
-        <v>11.94</v>
+        <v>11.86</v>
       </c>
       <c r="E34" t="n">
-        <v>11.94</v>
+        <v>11.86</v>
       </c>
       <c r="F34" t="n">
-        <v>50</v>
+        <v>1322.2796</v>
       </c>
       <c r="G34" t="n">
-        <v>-1232688.237314346</v>
+        <v>-917830.0872999999</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1642,22 +1626,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>11.87</v>
+        <v>11.85</v>
       </c>
       <c r="C35" t="n">
-        <v>11.87</v>
+        <v>11.85</v>
       </c>
       <c r="D35" t="n">
-        <v>11.87</v>
+        <v>11.85</v>
       </c>
       <c r="E35" t="n">
-        <v>11.87</v>
+        <v>11.85</v>
       </c>
       <c r="F35" t="n">
-        <v>5056.1334</v>
+        <v>39035.2493</v>
       </c>
       <c r="G35" t="n">
-        <v>-1237744.370714346</v>
+        <v>-956865.3365999999</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1678,22 +1662,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>11.87</v>
+        <v>11.85</v>
       </c>
       <c r="C36" t="n">
-        <v>11.87</v>
+        <v>11.85</v>
       </c>
       <c r="D36" t="n">
-        <v>11.87</v>
+        <v>11.85</v>
       </c>
       <c r="E36" t="n">
-        <v>11.87</v>
+        <v>11.85</v>
       </c>
       <c r="F36" t="n">
-        <v>12464.6216</v>
+        <v>2027.6793</v>
       </c>
       <c r="G36" t="n">
-        <v>-1237744.370714346</v>
+        <v>-956865.3365999999</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1714,22 +1698,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>11.94</v>
+        <v>11.84</v>
       </c>
       <c r="C37" t="n">
-        <v>11.94</v>
+        <v>11.84</v>
       </c>
       <c r="D37" t="n">
-        <v>11.94</v>
+        <v>11.84</v>
       </c>
       <c r="E37" t="n">
-        <v>11.94</v>
+        <v>11.84</v>
       </c>
       <c r="F37" t="n">
-        <v>50</v>
+        <v>29822.8086</v>
       </c>
       <c r="G37" t="n">
-        <v>-1237694.370714346</v>
+        <v>-986688.1451999999</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1750,22 +1734,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>11.88</v>
+        <v>11.85</v>
       </c>
       <c r="C38" t="n">
-        <v>11.88</v>
+        <v>11.85</v>
       </c>
       <c r="D38" t="n">
-        <v>11.88</v>
+        <v>11.85</v>
       </c>
       <c r="E38" t="n">
-        <v>11.88</v>
+        <v>11.85</v>
       </c>
       <c r="F38" t="n">
-        <v>16793.1182</v>
+        <v>176</v>
       </c>
       <c r="G38" t="n">
-        <v>-1254487.488914346</v>
+        <v>-986512.1451999999</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1786,22 +1770,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>11.86</v>
+        <v>11.85</v>
       </c>
       <c r="C39" t="n">
-        <v>11.86</v>
+        <v>11.85</v>
       </c>
       <c r="D39" t="n">
-        <v>11.86</v>
+        <v>11.85</v>
       </c>
       <c r="E39" t="n">
-        <v>11.86</v>
+        <v>11.85</v>
       </c>
       <c r="F39" t="n">
-        <v>90000</v>
+        <v>574</v>
       </c>
       <c r="G39" t="n">
-        <v>-1344487.488914346</v>
+        <v>-986512.1451999999</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1822,22 +1806,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>11.93</v>
+        <v>11.85</v>
       </c>
       <c r="C40" t="n">
-        <v>11.93</v>
+        <v>11.85</v>
       </c>
       <c r="D40" t="n">
-        <v>11.93</v>
+        <v>11.85</v>
       </c>
       <c r="E40" t="n">
-        <v>11.93</v>
+        <v>11.85</v>
       </c>
       <c r="F40" t="n">
-        <v>50</v>
+        <v>512</v>
       </c>
       <c r="G40" t="n">
-        <v>-1344437.488914346</v>
+        <v>-986512.1451999999</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1858,22 +1842,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>11.86</v>
+        <v>11.83</v>
       </c>
       <c r="C41" t="n">
-        <v>11.86</v>
+        <v>11.83</v>
       </c>
       <c r="D41" t="n">
-        <v>11.86</v>
+        <v>11.83</v>
       </c>
       <c r="E41" t="n">
-        <v>11.86</v>
+        <v>11.83</v>
       </c>
       <c r="F41" t="n">
-        <v>5000</v>
+        <v>91450.74099999999</v>
       </c>
       <c r="G41" t="n">
-        <v>-1349437.488914346</v>
+        <v>-1077962.8862</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1897,19 +1881,19 @@
         <v>11.85</v>
       </c>
       <c r="C42" t="n">
-        <v>11.71</v>
+        <v>11.85</v>
       </c>
       <c r="D42" t="n">
         <v>11.85</v>
       </c>
       <c r="E42" t="n">
-        <v>11.71</v>
+        <v>11.85</v>
       </c>
       <c r="F42" t="n">
-        <v>69969.99998565401</v>
+        <v>66</v>
       </c>
       <c r="G42" t="n">
-        <v>-1419407.4889</v>
+        <v>-1077896.8862</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1930,22 +1914,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>11.92</v>
+        <v>11.83</v>
       </c>
       <c r="C43" t="n">
-        <v>11.92</v>
+        <v>11.83</v>
       </c>
       <c r="D43" t="n">
-        <v>11.92</v>
+        <v>11.83</v>
       </c>
       <c r="E43" t="n">
-        <v>11.92</v>
+        <v>11.83</v>
       </c>
       <c r="F43" t="n">
-        <v>42</v>
+        <v>275.3653</v>
       </c>
       <c r="G43" t="n">
-        <v>-1419365.4889</v>
+        <v>-1078172.2515</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1966,22 +1950,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>11.82</v>
+        <v>11.81</v>
       </c>
       <c r="C44" t="n">
-        <v>11.82</v>
+        <v>11.71</v>
       </c>
       <c r="D44" t="n">
-        <v>11.82</v>
+        <v>11.81</v>
       </c>
       <c r="E44" t="n">
-        <v>11.82</v>
+        <v>11.71</v>
       </c>
       <c r="F44" t="n">
-        <v>522.9987</v>
+        <v>219597.8189</v>
       </c>
       <c r="G44" t="n">
-        <v>-1419888.4876</v>
+        <v>-1297770.0704</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2005,19 +1989,19 @@
         <v>11.82</v>
       </c>
       <c r="C45" t="n">
-        <v>12.39</v>
+        <v>11.82</v>
       </c>
       <c r="D45" t="n">
-        <v>12.39</v>
+        <v>11.82</v>
       </c>
       <c r="E45" t="n">
         <v>11.82</v>
       </c>
       <c r="F45" t="n">
-        <v>800409.6838591606</v>
+        <v>66</v>
       </c>
       <c r="G45" t="n">
-        <v>-619478.8037408392</v>
+        <v>-1297704.0704</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2038,22 +2022,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>12.38</v>
+        <v>11.72</v>
       </c>
       <c r="C46" t="n">
-        <v>12.38</v>
+        <v>11.72</v>
       </c>
       <c r="D46" t="n">
-        <v>12.38</v>
+        <v>11.72</v>
       </c>
       <c r="E46" t="n">
-        <v>12.38</v>
+        <v>11.72</v>
       </c>
       <c r="F46" t="n">
-        <v>50</v>
+        <v>45093.816</v>
       </c>
       <c r="G46" t="n">
-        <v>-619528.8037408392</v>
+        <v>-1342797.8864</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2074,28 +2058,28 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>12.37</v>
+        <v>11.73</v>
       </c>
       <c r="C47" t="n">
-        <v>12.37</v>
+        <v>11.72</v>
       </c>
       <c r="D47" t="n">
-        <v>12.37</v>
+        <v>11.73</v>
       </c>
       <c r="E47" t="n">
-        <v>12.37</v>
+        <v>11.72</v>
       </c>
       <c r="F47" t="n">
-        <v>50</v>
+        <v>170000</v>
       </c>
       <c r="G47" t="n">
-        <v>-619578.8037408392</v>
+        <v>-1342797.8864</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
@@ -2110,28 +2094,28 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>12.1</v>
+        <v>11.77</v>
       </c>
       <c r="C48" t="n">
-        <v>11.98</v>
+        <v>11.77</v>
       </c>
       <c r="D48" t="n">
-        <v>12.1</v>
+        <v>11.77</v>
       </c>
       <c r="E48" t="n">
-        <v>11.98</v>
+        <v>11.77</v>
       </c>
       <c r="F48" t="n">
-        <v>36983.4905</v>
+        <v>18827.4251</v>
       </c>
       <c r="G48" t="n">
-        <v>-656562.2942408392</v>
+        <v>-1323970.4613</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
@@ -2146,22 +2130,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>11.98</v>
+        <v>11.78</v>
       </c>
       <c r="C49" t="n">
-        <v>12.19</v>
+        <v>11.78</v>
       </c>
       <c r="D49" t="n">
-        <v>12.19</v>
+        <v>11.78</v>
       </c>
       <c r="E49" t="n">
-        <v>11.98</v>
+        <v>11.78</v>
       </c>
       <c r="F49" t="n">
-        <v>250</v>
+        <v>6280.374</v>
       </c>
       <c r="G49" t="n">
-        <v>-656312.2942408392</v>
+        <v>-1317690.0873</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2182,31 +2166,35 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>12.1</v>
+        <v>11.77</v>
       </c>
       <c r="C50" t="n">
-        <v>12.1</v>
+        <v>11.77</v>
       </c>
       <c r="D50" t="n">
-        <v>12.1</v>
+        <v>11.77</v>
       </c>
       <c r="E50" t="n">
-        <v>12.1</v>
+        <v>11.77</v>
       </c>
       <c r="F50" t="n">
-        <v>329.0558</v>
+        <v>6280.374</v>
       </c>
       <c r="G50" t="n">
-        <v>-656641.3500408392</v>
+        <v>-1323970.4613</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>11.78</v>
+      </c>
+      <c r="K50" t="n">
+        <v>11.78</v>
+      </c>
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
@@ -2218,32 +2206,40 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>11.94</v>
+        <v>11.77</v>
       </c>
       <c r="C51" t="n">
-        <v>11.93</v>
+        <v>11.77</v>
       </c>
       <c r="D51" t="n">
-        <v>11.94</v>
+        <v>11.77</v>
       </c>
       <c r="E51" t="n">
-        <v>11.93</v>
+        <v>11.77</v>
       </c>
       <c r="F51" t="n">
-        <v>45462.3531</v>
+        <v>19986.7523</v>
       </c>
       <c r="G51" t="n">
-        <v>-702103.7031408391</v>
+        <v>-1323970.4613</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>11.77</v>
+      </c>
+      <c r="K51" t="n">
+        <v>11.78</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2254,32 +2250,40 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>11.93</v>
+        <v>11.77</v>
       </c>
       <c r="C52" t="n">
-        <v>11.93</v>
+        <v>11.77</v>
       </c>
       <c r="D52" t="n">
-        <v>11.93</v>
+        <v>11.77</v>
       </c>
       <c r="E52" t="n">
-        <v>11.93</v>
+        <v>11.77</v>
       </c>
       <c r="F52" t="n">
-        <v>934.0089</v>
+        <v>367.8017</v>
       </c>
       <c r="G52" t="n">
-        <v>-702103.7031408391</v>
+        <v>-1323970.4613</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>11.77</v>
+      </c>
+      <c r="K52" t="n">
+        <v>11.78</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2290,31 +2294,35 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>11.95</v>
+        <v>11.74</v>
       </c>
       <c r="C53" t="n">
-        <v>12.09</v>
+        <v>11.74</v>
       </c>
       <c r="D53" t="n">
-        <v>12.09</v>
+        <v>11.74</v>
       </c>
       <c r="E53" t="n">
-        <v>11.95</v>
+        <v>11.74</v>
       </c>
       <c r="F53" t="n">
-        <v>650</v>
+        <v>5853.5171</v>
       </c>
       <c r="G53" t="n">
-        <v>-701453.7031408391</v>
+        <v>-1329823.9784</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>11.77</v>
+      </c>
+      <c r="K53" t="n">
+        <v>11.77</v>
+      </c>
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
@@ -2326,32 +2334,40 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>12.19</v>
+        <v>11.82</v>
       </c>
       <c r="C54" t="n">
-        <v>12.19</v>
+        <v>11.82</v>
       </c>
       <c r="D54" t="n">
-        <v>12.19</v>
+        <v>11.82</v>
       </c>
       <c r="E54" t="n">
-        <v>12.19</v>
+        <v>11.82</v>
       </c>
       <c r="F54" t="n">
-        <v>50</v>
+        <v>26201.1263</v>
       </c>
       <c r="G54" t="n">
-        <v>-701403.7031408391</v>
+        <v>-1303622.8521</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>11.74</v>
+      </c>
+      <c r="K54" t="n">
+        <v>11.77</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2362,32 +2378,40 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>12</v>
+        <v>11.86</v>
       </c>
       <c r="C55" t="n">
-        <v>12</v>
+        <v>11.86</v>
       </c>
       <c r="D55" t="n">
-        <v>12</v>
+        <v>11.86</v>
       </c>
       <c r="E55" t="n">
-        <v>12</v>
+        <v>11.86</v>
       </c>
       <c r="F55" t="n">
-        <v>3000</v>
+        <v>71100.9516</v>
       </c>
       <c r="G55" t="n">
-        <v>-704403.7031408391</v>
+        <v>-1232521.9005</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>11.82</v>
+      </c>
+      <c r="K55" t="n">
+        <v>11.77</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2398,31 +2422,35 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>12.1</v>
+        <v>11.74</v>
       </c>
       <c r="C56" t="n">
-        <v>12.1</v>
+        <v>11.74</v>
       </c>
       <c r="D56" t="n">
-        <v>12.1</v>
+        <v>11.74</v>
       </c>
       <c r="E56" t="n">
-        <v>12.1</v>
+        <v>11.74</v>
       </c>
       <c r="F56" t="n">
-        <v>1421.947</v>
+        <v>343.725</v>
       </c>
       <c r="G56" t="n">
-        <v>-702981.7561408391</v>
+        <v>-1232865.6255</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>11.86</v>
+      </c>
+      <c r="K56" t="n">
+        <v>11.86</v>
+      </c>
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
@@ -2434,32 +2462,40 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>12.1</v>
+        <v>11.85</v>
       </c>
       <c r="C57" t="n">
-        <v>12.19</v>
+        <v>11.85</v>
       </c>
       <c r="D57" t="n">
-        <v>12.19</v>
+        <v>11.85</v>
       </c>
       <c r="E57" t="n">
-        <v>12.1</v>
+        <v>11.85</v>
       </c>
       <c r="F57" t="n">
-        <v>7050</v>
+        <v>84.38818565400844</v>
       </c>
       <c r="G57" t="n">
-        <v>-695931.7561408391</v>
+        <v>-1232781.237314346</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>11.74</v>
+      </c>
+      <c r="K57" t="n">
+        <v>11.86</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2470,32 +2506,40 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>12.1</v>
+        <v>11.85</v>
       </c>
       <c r="C58" t="n">
-        <v>12</v>
+        <v>11.85</v>
       </c>
       <c r="D58" t="n">
-        <v>12.1</v>
+        <v>11.85</v>
       </c>
       <c r="E58" t="n">
-        <v>12</v>
+        <v>11.85</v>
       </c>
       <c r="F58" t="n">
-        <v>1164.2988</v>
+        <v>10176.8363</v>
       </c>
       <c r="G58" t="n">
-        <v>-697096.0549408391</v>
+        <v>-1232781.237314346</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>11.85</v>
+      </c>
+      <c r="K58" t="n">
+        <v>11.86</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2506,31 +2550,35 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>11.95</v>
+        <v>11.85</v>
       </c>
       <c r="C59" t="n">
-        <v>11.95</v>
+        <v>11.85</v>
       </c>
       <c r="D59" t="n">
-        <v>11.95</v>
+        <v>11.85</v>
       </c>
       <c r="E59" t="n">
-        <v>11.95</v>
+        <v>11.85</v>
       </c>
       <c r="F59" t="n">
-        <v>3240.2121</v>
+        <v>37011.39711434599</v>
       </c>
       <c r="G59" t="n">
-        <v>-700336.2670408391</v>
+        <v>-1232781.237314346</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>11.85</v>
+      </c>
+      <c r="K59" t="n">
+        <v>11.85</v>
+      </c>
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
@@ -2542,32 +2590,40 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>12</v>
+        <v>11.86</v>
       </c>
       <c r="C60" t="n">
-        <v>12</v>
+        <v>11.86</v>
       </c>
       <c r="D60" t="n">
-        <v>12</v>
+        <v>11.86</v>
       </c>
       <c r="E60" t="n">
-        <v>12</v>
+        <v>11.86</v>
       </c>
       <c r="F60" t="n">
-        <v>961.2521</v>
+        <v>43</v>
       </c>
       <c r="G60" t="n">
-        <v>-699375.014940839</v>
+        <v>-1232738.237314346</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>11.85</v>
+      </c>
+      <c r="K60" t="n">
+        <v>11.85</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2578,22 +2634,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>12.09</v>
+        <v>11.86</v>
       </c>
       <c r="C61" t="n">
-        <v>12.2</v>
+        <v>11.86</v>
       </c>
       <c r="D61" t="n">
-        <v>12.2</v>
+        <v>11.86</v>
       </c>
       <c r="E61" t="n">
-        <v>12.09</v>
+        <v>11.86</v>
       </c>
       <c r="F61" t="n">
-        <v>29183.6937</v>
+        <v>37715.0378</v>
       </c>
       <c r="G61" t="n">
-        <v>-670191.3212408391</v>
+        <v>-1232738.237314346</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2602,8 +2658,14 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>11.85</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2614,31 +2676,35 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>12.2</v>
+        <v>11.86</v>
       </c>
       <c r="C62" t="n">
-        <v>12.2</v>
+        <v>11.86</v>
       </c>
       <c r="D62" t="n">
-        <v>12.2</v>
+        <v>11.86</v>
       </c>
       <c r="E62" t="n">
-        <v>12.2</v>
+        <v>11.86</v>
       </c>
       <c r="F62" t="n">
-        <v>17065.2918</v>
+        <v>11166.2744</v>
       </c>
       <c r="G62" t="n">
-        <v>-670191.3212408391</v>
+        <v>-1232738.237314346</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>11.86</v>
+      </c>
+      <c r="K62" t="n">
+        <v>11.86</v>
+      </c>
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
@@ -2650,32 +2716,40 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>12.2</v>
+        <v>11.94</v>
       </c>
       <c r="C63" t="n">
-        <v>12.2</v>
+        <v>11.94</v>
       </c>
       <c r="D63" t="n">
-        <v>12.2</v>
+        <v>11.94</v>
       </c>
       <c r="E63" t="n">
-        <v>12.2</v>
+        <v>11.94</v>
       </c>
       <c r="F63" t="n">
-        <v>2809.4162</v>
+        <v>50</v>
       </c>
       <c r="G63" t="n">
-        <v>-670191.3212408391</v>
+        <v>-1232688.237314346</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>11.86</v>
+      </c>
+      <c r="K63" t="n">
+        <v>11.86</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2686,22 +2760,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>12.03</v>
+        <v>11.87</v>
       </c>
       <c r="C64" t="n">
-        <v>12.03</v>
+        <v>11.87</v>
       </c>
       <c r="D64" t="n">
-        <v>12.03</v>
+        <v>11.87</v>
       </c>
       <c r="E64" t="n">
-        <v>12.03</v>
+        <v>11.87</v>
       </c>
       <c r="F64" t="n">
-        <v>20365.752</v>
+        <v>5056.1334</v>
       </c>
       <c r="G64" t="n">
-        <v>-690557.0732408391</v>
+        <v>-1237744.370714346</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2710,8 +2784,14 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>11.86</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2722,22 +2802,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>12.02</v>
+        <v>11.87</v>
       </c>
       <c r="C65" t="n">
-        <v>12.02</v>
+        <v>11.87</v>
       </c>
       <c r="D65" t="n">
-        <v>12.02</v>
+        <v>11.87</v>
       </c>
       <c r="E65" t="n">
-        <v>12.02</v>
+        <v>11.87</v>
       </c>
       <c r="F65" t="n">
-        <v>10000</v>
+        <v>12464.6216</v>
       </c>
       <c r="G65" t="n">
-        <v>-700557.0732408391</v>
+        <v>-1237744.370714346</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2758,31 +2838,35 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>11.97</v>
+        <v>11.94</v>
       </c>
       <c r="C66" t="n">
-        <v>11.97</v>
+        <v>11.94</v>
       </c>
       <c r="D66" t="n">
-        <v>11.97</v>
+        <v>11.94</v>
       </c>
       <c r="E66" t="n">
-        <v>11.97</v>
+        <v>11.94</v>
       </c>
       <c r="F66" t="n">
-        <v>822.5151</v>
+        <v>50</v>
       </c>
       <c r="G66" t="n">
-        <v>-701379.588340839</v>
+        <v>-1237694.370714346</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>11.87</v>
+      </c>
+      <c r="K66" t="n">
+        <v>11.87</v>
+      </c>
       <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
@@ -2794,32 +2878,40 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>12</v>
+        <v>11.88</v>
       </c>
       <c r="C67" t="n">
-        <v>11.92</v>
+        <v>11.88</v>
       </c>
       <c r="D67" t="n">
-        <v>12</v>
+        <v>11.88</v>
       </c>
       <c r="E67" t="n">
-        <v>11.92</v>
+        <v>11.88</v>
       </c>
       <c r="F67" t="n">
-        <v>15112.4652</v>
+        <v>16793.1182</v>
       </c>
       <c r="G67" t="n">
-        <v>-716492.053540839</v>
+        <v>-1254487.488914346</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>11.94</v>
+      </c>
+      <c r="K67" t="n">
+        <v>11.87</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -2830,22 +2922,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>11.92</v>
+        <v>11.86</v>
       </c>
       <c r="C68" t="n">
-        <v>11.92</v>
+        <v>11.86</v>
       </c>
       <c r="D68" t="n">
-        <v>11.92</v>
+        <v>11.86</v>
       </c>
       <c r="E68" t="n">
-        <v>11.92</v>
+        <v>11.86</v>
       </c>
       <c r="F68" t="n">
-        <v>1000</v>
+        <v>90000</v>
       </c>
       <c r="G68" t="n">
-        <v>-716492.053540839</v>
+        <v>-1344487.488914346</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2854,8 +2946,14 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>11.87</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -2866,22 +2964,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>12.08</v>
+        <v>11.93</v>
       </c>
       <c r="C69" t="n">
-        <v>12.08</v>
+        <v>11.93</v>
       </c>
       <c r="D69" t="n">
-        <v>12.08</v>
+        <v>11.93</v>
       </c>
       <c r="E69" t="n">
-        <v>12.08</v>
+        <v>11.93</v>
       </c>
       <c r="F69" t="n">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G69" t="n">
-        <v>-716450.053540839</v>
+        <v>-1344437.488914346</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2902,31 +3000,35 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>12.08</v>
+        <v>11.86</v>
       </c>
       <c r="C70" t="n">
-        <v>12.09</v>
+        <v>11.86</v>
       </c>
       <c r="D70" t="n">
-        <v>12.09</v>
+        <v>11.86</v>
       </c>
       <c r="E70" t="n">
-        <v>12.08</v>
+        <v>11.86</v>
       </c>
       <c r="F70" t="n">
-        <v>800</v>
+        <v>5000</v>
       </c>
       <c r="G70" t="n">
-        <v>-715650.053540839</v>
+        <v>-1349437.488914346</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>11.93</v>
+      </c>
+      <c r="K70" t="n">
+        <v>11.93</v>
+      </c>
       <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
@@ -2938,32 +3040,40 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>11.93</v>
+        <v>11.85</v>
       </c>
       <c r="C71" t="n">
-        <v>11.91</v>
+        <v>11.71</v>
       </c>
       <c r="D71" t="n">
-        <v>11.93</v>
+        <v>11.85</v>
       </c>
       <c r="E71" t="n">
-        <v>11.91</v>
+        <v>11.71</v>
       </c>
       <c r="F71" t="n">
-        <v>41252.8503</v>
+        <v>69969.99998565401</v>
       </c>
       <c r="G71" t="n">
-        <v>-756902.903840839</v>
+        <v>-1419407.4889</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>11.86</v>
+      </c>
+      <c r="K71" t="n">
+        <v>11.93</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -2974,32 +3084,40 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>11.91</v>
+        <v>11.92</v>
       </c>
       <c r="C72" t="n">
-        <v>11.91</v>
+        <v>11.92</v>
       </c>
       <c r="D72" t="n">
-        <v>11.91</v>
+        <v>11.92</v>
       </c>
       <c r="E72" t="n">
-        <v>11.91</v>
+        <v>11.92</v>
       </c>
       <c r="F72" t="n">
-        <v>9710.1152</v>
+        <v>42</v>
       </c>
       <c r="G72" t="n">
-        <v>-756902.903840839</v>
+        <v>-1419365.4889</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>11.71</v>
+      </c>
+      <c r="K72" t="n">
+        <v>11.93</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3010,32 +3128,40 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>11.99</v>
+        <v>11.82</v>
       </c>
       <c r="C73" t="n">
-        <v>11.99</v>
+        <v>11.82</v>
       </c>
       <c r="D73" t="n">
-        <v>11.99</v>
+        <v>11.82</v>
       </c>
       <c r="E73" t="n">
-        <v>11.99</v>
+        <v>11.82</v>
       </c>
       <c r="F73" t="n">
-        <v>20346.267</v>
+        <v>522.9987</v>
       </c>
       <c r="G73" t="n">
-        <v>-736556.6368408391</v>
+        <v>-1419888.4876</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>11.92</v>
+      </c>
+      <c r="K73" t="n">
+        <v>11.93</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3046,32 +3172,40 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>12</v>
+        <v>11.82</v>
       </c>
       <c r="C74" t="n">
-        <v>12</v>
+        <v>12.39</v>
       </c>
       <c r="D74" t="n">
-        <v>12</v>
+        <v>12.39</v>
       </c>
       <c r="E74" t="n">
-        <v>12</v>
+        <v>11.82</v>
       </c>
       <c r="F74" t="n">
-        <v>8312.5519</v>
+        <v>800409.6838591606</v>
       </c>
       <c r="G74" t="n">
-        <v>-728244.0849408391</v>
+        <v>-619478.8037408392</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>11.82</v>
+      </c>
+      <c r="K74" t="n">
+        <v>11.93</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3082,22 +3216,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>12.03</v>
+        <v>12.38</v>
       </c>
       <c r="C75" t="n">
-        <v>12.03</v>
+        <v>12.38</v>
       </c>
       <c r="D75" t="n">
-        <v>12.03</v>
+        <v>12.38</v>
       </c>
       <c r="E75" t="n">
-        <v>12.03</v>
+        <v>12.38</v>
       </c>
       <c r="F75" t="n">
-        <v>38595.7642</v>
+        <v>50</v>
       </c>
       <c r="G75" t="n">
-        <v>-689648.3207408391</v>
+        <v>-619528.8037408392</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3106,8 +3240,14 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>11.93</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3118,36 +3258,38 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>12.17</v>
+        <v>12.37</v>
       </c>
       <c r="C76" t="n">
-        <v>12.17</v>
+        <v>12.37</v>
       </c>
       <c r="D76" t="n">
-        <v>12.17</v>
+        <v>12.37</v>
       </c>
       <c r="E76" t="n">
-        <v>12.17</v>
+        <v>12.37</v>
       </c>
       <c r="F76" t="n">
         <v>50</v>
       </c>
       <c r="G76" t="n">
-        <v>-689598.3207408391</v>
+        <v>-619578.8037408392</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="n">
-        <v>12.03</v>
-      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="n">
-        <v>12.03</v>
-      </c>
-      <c r="L76" t="inlineStr"/>
+        <v>11.93</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3158,38 +3300,36 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="C77" t="n">
-        <v>12</v>
+        <v>11.98</v>
       </c>
       <c r="D77" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="E77" t="n">
-        <v>12</v>
+        <v>11.98</v>
       </c>
       <c r="F77" t="n">
-        <v>18022.6671</v>
+        <v>36983.4905</v>
       </c>
       <c r="G77" t="n">
-        <v>-707620.9878408391</v>
+        <v>-656562.2942408392</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>12.17</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="n">
-        <v>12.03</v>
+        <v>11.93</v>
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M77" t="n">
@@ -3202,38 +3342,36 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>12</v>
+        <v>11.98</v>
       </c>
       <c r="C78" t="n">
-        <v>12</v>
+        <v>12.19</v>
       </c>
       <c r="D78" t="n">
-        <v>12</v>
+        <v>12.19</v>
       </c>
       <c r="E78" t="n">
-        <v>12</v>
+        <v>11.98</v>
       </c>
       <c r="F78" t="n">
-        <v>30666.2838</v>
+        <v>250</v>
       </c>
       <c r="G78" t="n">
-        <v>-707620.9878408391</v>
+        <v>-656312.2942408392</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>12</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="n">
-        <v>12.03</v>
+        <v>11.93</v>
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M78" t="n">
@@ -3246,22 +3384,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="C79" t="n">
-        <v>11.91</v>
+        <v>12.1</v>
       </c>
       <c r="D79" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="E79" t="n">
-        <v>11.91</v>
+        <v>12.1</v>
       </c>
       <c r="F79" t="n">
-        <v>66899.4262</v>
+        <v>329.0558</v>
       </c>
       <c r="G79" t="n">
-        <v>-774520.4140408391</v>
+        <v>-656641.3500408392</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3270,8 +3408,14 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>11.93</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3282,22 +3426,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>11.9</v>
+        <v>11.94</v>
       </c>
       <c r="C80" t="n">
-        <v>11.84</v>
+        <v>11.93</v>
       </c>
       <c r="D80" t="n">
-        <v>11.9</v>
+        <v>11.94</v>
       </c>
       <c r="E80" t="n">
-        <v>11.84</v>
+        <v>11.93</v>
       </c>
       <c r="F80" t="n">
-        <v>14605.8889</v>
+        <v>45462.3531</v>
       </c>
       <c r="G80" t="n">
-        <v>-789126.3029408391</v>
+        <v>-702103.7031408391</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3306,8 +3450,14 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>11.93</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3318,22 +3468,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>11.84</v>
+        <v>11.93</v>
       </c>
       <c r="C81" t="n">
-        <v>11.84</v>
+        <v>11.93</v>
       </c>
       <c r="D81" t="n">
-        <v>11.84</v>
+        <v>11.93</v>
       </c>
       <c r="E81" t="n">
-        <v>11.84</v>
+        <v>11.93</v>
       </c>
       <c r="F81" t="n">
-        <v>9052.6759</v>
+        <v>934.0089</v>
       </c>
       <c r="G81" t="n">
-        <v>-789126.3029408391</v>
+        <v>-702103.7031408391</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3342,8 +3492,14 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>11.93</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3354,22 +3510,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>11.84</v>
+        <v>11.95</v>
       </c>
       <c r="C82" t="n">
-        <v>11.84</v>
+        <v>12.09</v>
       </c>
       <c r="D82" t="n">
-        <v>11.84</v>
+        <v>12.09</v>
       </c>
       <c r="E82" t="n">
-        <v>11.84</v>
+        <v>11.95</v>
       </c>
       <c r="F82" t="n">
-        <v>23504.6221</v>
+        <v>650</v>
       </c>
       <c r="G82" t="n">
-        <v>-789126.3029408391</v>
+        <v>-701453.7031408391</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3378,8 +3534,14 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>11.93</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3390,36 +3552,38 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>11.85</v>
+        <v>12.19</v>
       </c>
       <c r="C83" t="n">
-        <v>11.85</v>
+        <v>12.19</v>
       </c>
       <c r="D83" t="n">
-        <v>11.85</v>
+        <v>12.19</v>
       </c>
       <c r="E83" t="n">
-        <v>11.85</v>
+        <v>12.19</v>
       </c>
       <c r="F83" t="n">
-        <v>497.2642</v>
+        <v>50</v>
       </c>
       <c r="G83" t="n">
-        <v>-788629.0387408391</v>
+        <v>-701403.7031408391</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="n">
-        <v>11.84</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="n">
-        <v>11.84</v>
-      </c>
-      <c r="L83" t="inlineStr"/>
+        <v>11.93</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3430,22 +3594,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>11.92</v>
+        <v>12</v>
       </c>
       <c r="C84" t="n">
-        <v>11.92</v>
+        <v>12</v>
       </c>
       <c r="D84" t="n">
-        <v>11.92</v>
+        <v>12</v>
       </c>
       <c r="E84" t="n">
-        <v>11.92</v>
+        <v>12</v>
       </c>
       <c r="F84" t="n">
-        <v>55</v>
+        <v>3000</v>
       </c>
       <c r="G84" t="n">
-        <v>-788574.0387408391</v>
+        <v>-704403.7031408391</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3455,11 +3619,11 @@
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="n">
-        <v>11.84</v>
+        <v>11.93</v>
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M84" t="n">
@@ -3472,22 +3636,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>11.85</v>
+        <v>12.1</v>
       </c>
       <c r="C85" t="n">
-        <v>11.84</v>
+        <v>12.1</v>
       </c>
       <c r="D85" t="n">
-        <v>11.85</v>
+        <v>12.1</v>
       </c>
       <c r="E85" t="n">
-        <v>11.84</v>
+        <v>12.1</v>
       </c>
       <c r="F85" t="n">
-        <v>179641.5209</v>
+        <v>1421.947</v>
       </c>
       <c r="G85" t="n">
-        <v>-968215.5596408391</v>
+        <v>-702981.7561408391</v>
       </c>
       <c r="H85" t="n">
         <v>1</v>
@@ -3496,14 +3660,14 @@
         <v>0</v>
       </c>
       <c r="J85" t="n">
-        <v>11.92</v>
+        <v>12</v>
       </c>
       <c r="K85" t="n">
-        <v>11.84</v>
+        <v>11.93</v>
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M85" t="n">
@@ -3516,22 +3680,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>11.92</v>
+        <v>12.1</v>
       </c>
       <c r="C86" t="n">
-        <v>11.92</v>
+        <v>12.19</v>
       </c>
       <c r="D86" t="n">
-        <v>11.92</v>
+        <v>12.19</v>
       </c>
       <c r="E86" t="n">
-        <v>11.92</v>
+        <v>12.1</v>
       </c>
       <c r="F86" t="n">
-        <v>55</v>
+        <v>7050</v>
       </c>
       <c r="G86" t="n">
-        <v>-968160.5596408391</v>
+        <v>-695931.7561408391</v>
       </c>
       <c r="H86" t="n">
         <v>1</v>
@@ -3540,10 +3704,10 @@
         <v>0</v>
       </c>
       <c r="J86" t="n">
-        <v>11.84</v>
+        <v>12.1</v>
       </c>
       <c r="K86" t="n">
-        <v>11.84</v>
+        <v>11.93</v>
       </c>
       <c r="L86" t="inlineStr">
         <is>
@@ -3560,22 +3724,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>11.84</v>
+        <v>12.1</v>
       </c>
       <c r="C87" t="n">
-        <v>11.84</v>
+        <v>12</v>
       </c>
       <c r="D87" t="n">
-        <v>11.84</v>
+        <v>12.1</v>
       </c>
       <c r="E87" t="n">
-        <v>11.84</v>
+        <v>12</v>
       </c>
       <c r="F87" t="n">
-        <v>55.4065</v>
+        <v>1164.2988</v>
       </c>
       <c r="G87" t="n">
-        <v>-968215.9661408392</v>
+        <v>-697096.0549408391</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3585,7 +3749,7 @@
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="n">
-        <v>11.84</v>
+        <v>11.93</v>
       </c>
       <c r="L87" t="inlineStr">
         <is>
@@ -3602,22 +3766,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>11.84</v>
+        <v>11.95</v>
       </c>
       <c r="C88" t="n">
-        <v>11.81</v>
+        <v>11.95</v>
       </c>
       <c r="D88" t="n">
-        <v>11.84</v>
+        <v>11.95</v>
       </c>
       <c r="E88" t="n">
-        <v>11.81</v>
+        <v>11.95</v>
       </c>
       <c r="F88" t="n">
-        <v>12464.6216</v>
+        <v>3240.2121</v>
       </c>
       <c r="G88" t="n">
-        <v>-980680.5877408391</v>
+        <v>-700336.2670408391</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3627,7 +3791,7 @@
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="n">
-        <v>11.84</v>
+        <v>11.93</v>
       </c>
       <c r="L88" t="inlineStr">
         <is>
@@ -3644,22 +3808,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>11.82</v>
+        <v>12</v>
       </c>
       <c r="C89" t="n">
-        <v>11.81</v>
+        <v>12</v>
       </c>
       <c r="D89" t="n">
-        <v>11.82</v>
+        <v>12</v>
       </c>
       <c r="E89" t="n">
-        <v>11.81</v>
+        <v>12</v>
       </c>
       <c r="F89" t="n">
-        <v>61938.5491</v>
+        <v>961.2521</v>
       </c>
       <c r="G89" t="n">
-        <v>-980680.5877408391</v>
+        <v>-699375.014940839</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3669,7 +3833,7 @@
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="n">
-        <v>11.84</v>
+        <v>11.93</v>
       </c>
       <c r="L89" t="inlineStr">
         <is>
@@ -3686,22 +3850,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>11.81</v>
+        <v>12.09</v>
       </c>
       <c r="C90" t="n">
-        <v>11.81</v>
+        <v>12.2</v>
       </c>
       <c r="D90" t="n">
-        <v>11.81</v>
+        <v>12.2</v>
       </c>
       <c r="E90" t="n">
-        <v>11.81</v>
+        <v>12.09</v>
       </c>
       <c r="F90" t="n">
-        <v>80998.1724</v>
+        <v>29183.6937</v>
       </c>
       <c r="G90" t="n">
-        <v>-980680.5877408391</v>
+        <v>-670191.3212408391</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3711,7 +3875,7 @@
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="n">
-        <v>11.84</v>
+        <v>11.93</v>
       </c>
       <c r="L90" t="inlineStr">
         <is>
@@ -3728,22 +3892,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>11.81</v>
+        <v>12.2</v>
       </c>
       <c r="C91" t="n">
-        <v>11.8</v>
+        <v>12.2</v>
       </c>
       <c r="D91" t="n">
-        <v>11.81</v>
+        <v>12.2</v>
       </c>
       <c r="E91" t="n">
-        <v>11.8</v>
+        <v>12.2</v>
       </c>
       <c r="F91" t="n">
-        <v>55091.3805</v>
+        <v>17065.2918</v>
       </c>
       <c r="G91" t="n">
-        <v>-1035771.968240839</v>
+        <v>-670191.3212408391</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3753,7 +3917,7 @@
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="n">
-        <v>11.84</v>
+        <v>11.93</v>
       </c>
       <c r="L91" t="inlineStr">
         <is>
@@ -3770,22 +3934,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>11.8</v>
+        <v>12.2</v>
       </c>
       <c r="C92" t="n">
-        <v>11.8</v>
+        <v>12.2</v>
       </c>
       <c r="D92" t="n">
-        <v>11.8</v>
+        <v>12.2</v>
       </c>
       <c r="E92" t="n">
-        <v>11.8</v>
+        <v>12.2</v>
       </c>
       <c r="F92" t="n">
-        <v>85971.4491</v>
+        <v>2809.4162</v>
       </c>
       <c r="G92" t="n">
-        <v>-1035771.968240839</v>
+        <v>-670191.3212408391</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3795,7 +3959,7 @@
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="n">
-        <v>11.84</v>
+        <v>11.93</v>
       </c>
       <c r="L92" t="inlineStr">
         <is>
@@ -3812,22 +3976,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>11.78</v>
+        <v>12.03</v>
       </c>
       <c r="C93" t="n">
-        <v>11.78</v>
+        <v>12.03</v>
       </c>
       <c r="D93" t="n">
-        <v>11.78</v>
+        <v>12.03</v>
       </c>
       <c r="E93" t="n">
-        <v>11.78</v>
+        <v>12.03</v>
       </c>
       <c r="F93" t="n">
-        <v>2383.9126</v>
+        <v>20365.752</v>
       </c>
       <c r="G93" t="n">
-        <v>-1038155.880840839</v>
+        <v>-690557.0732408391</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3837,7 +4001,7 @@
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="n">
-        <v>11.84</v>
+        <v>11.93</v>
       </c>
       <c r="L93" t="inlineStr">
         <is>
@@ -3854,22 +4018,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>11.8</v>
+        <v>12.02</v>
       </c>
       <c r="C94" t="n">
-        <v>11.8</v>
+        <v>12.02</v>
       </c>
       <c r="D94" t="n">
-        <v>11.8</v>
+        <v>12.02</v>
       </c>
       <c r="E94" t="n">
-        <v>11.8</v>
+        <v>12.02</v>
       </c>
       <c r="F94" t="n">
-        <v>1599</v>
+        <v>10000</v>
       </c>
       <c r="G94" t="n">
-        <v>-1036556.880840839</v>
+        <v>-700557.0732408391</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3879,7 +4043,7 @@
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="n">
-        <v>11.84</v>
+        <v>11.93</v>
       </c>
       <c r="L94" t="inlineStr">
         <is>
@@ -3896,22 +4060,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>11.8</v>
+        <v>11.97</v>
       </c>
       <c r="C95" t="n">
-        <v>11.81</v>
+        <v>11.97</v>
       </c>
       <c r="D95" t="n">
-        <v>11.81</v>
+        <v>11.97</v>
       </c>
       <c r="E95" t="n">
-        <v>11.8</v>
+        <v>11.97</v>
       </c>
       <c r="F95" t="n">
-        <v>27588.7632</v>
+        <v>822.5151</v>
       </c>
       <c r="G95" t="n">
-        <v>-1008968.117640839</v>
+        <v>-701379.588340839</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3921,7 +4085,7 @@
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="n">
-        <v>11.84</v>
+        <v>11.93</v>
       </c>
       <c r="L95" t="inlineStr">
         <is>
@@ -3941,19 +4105,19 @@
         <v>12</v>
       </c>
       <c r="C96" t="n">
-        <v>12</v>
+        <v>11.92</v>
       </c>
       <c r="D96" t="n">
         <v>12</v>
       </c>
       <c r="E96" t="n">
-        <v>12</v>
+        <v>11.92</v>
       </c>
       <c r="F96" t="n">
-        <v>55</v>
+        <v>15112.4652</v>
       </c>
       <c r="G96" t="n">
-        <v>-1008913.117640839</v>
+        <v>-716492.053540839</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3963,7 +4127,7 @@
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="n">
-        <v>11.84</v>
+        <v>11.93</v>
       </c>
       <c r="L96" t="inlineStr">
         <is>
@@ -3980,22 +4144,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>11.81</v>
+        <v>11.92</v>
       </c>
       <c r="C97" t="n">
-        <v>11.75</v>
+        <v>11.92</v>
       </c>
       <c r="D97" t="n">
-        <v>11.81</v>
+        <v>11.92</v>
       </c>
       <c r="E97" t="n">
-        <v>11.75</v>
+        <v>11.92</v>
       </c>
       <c r="F97" t="n">
-        <v>241233.9382</v>
+        <v>1000</v>
       </c>
       <c r="G97" t="n">
-        <v>-1250147.055840839</v>
+        <v>-716492.053540839</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4005,7 +4169,7 @@
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="n">
-        <v>11.84</v>
+        <v>11.93</v>
       </c>
       <c r="L97" t="inlineStr">
         <is>
@@ -4022,22 +4186,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>11.89</v>
+        <v>12.08</v>
       </c>
       <c r="C98" t="n">
-        <v>11.89</v>
+        <v>12.08</v>
       </c>
       <c r="D98" t="n">
-        <v>11.89</v>
+        <v>12.08</v>
       </c>
       <c r="E98" t="n">
-        <v>11.89</v>
+        <v>12.08</v>
       </c>
       <c r="F98" t="n">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G98" t="n">
-        <v>-1250099.055840839</v>
+        <v>-716450.053540839</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4047,7 +4211,7 @@
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="n">
-        <v>11.84</v>
+        <v>11.93</v>
       </c>
       <c r="L98" t="inlineStr">
         <is>
@@ -4064,22 +4228,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>11.81</v>
+        <v>12.08</v>
       </c>
       <c r="C99" t="n">
-        <v>11.8</v>
+        <v>12.09</v>
       </c>
       <c r="D99" t="n">
-        <v>11.81</v>
+        <v>12.09</v>
       </c>
       <c r="E99" t="n">
-        <v>11.8</v>
+        <v>12.08</v>
       </c>
       <c r="F99" t="n">
-        <v>836.6534</v>
+        <v>800</v>
       </c>
       <c r="G99" t="n">
-        <v>-1250935.709240839</v>
+        <v>-715650.053540839</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4089,7 +4253,7 @@
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="n">
-        <v>11.84</v>
+        <v>11.93</v>
       </c>
       <c r="L99" t="inlineStr">
         <is>
@@ -4106,22 +4270,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>11.89</v>
+        <v>11.93</v>
       </c>
       <c r="C100" t="n">
-        <v>11.89</v>
+        <v>11.91</v>
       </c>
       <c r="D100" t="n">
-        <v>11.89</v>
+        <v>11.93</v>
       </c>
       <c r="E100" t="n">
-        <v>11.89</v>
+        <v>11.91</v>
       </c>
       <c r="F100" t="n">
-        <v>43</v>
+        <v>41252.8503</v>
       </c>
       <c r="G100" t="n">
-        <v>-1250892.709240839</v>
+        <v>-756902.903840839</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4131,7 +4295,7 @@
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="n">
-        <v>11.84</v>
+        <v>11.93</v>
       </c>
       <c r="L100" t="inlineStr">
         <is>
@@ -4148,22 +4312,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>11.81</v>
+        <v>11.91</v>
       </c>
       <c r="C101" t="n">
-        <v>11.8</v>
+        <v>11.91</v>
       </c>
       <c r="D101" t="n">
-        <v>11.81</v>
+        <v>11.91</v>
       </c>
       <c r="E101" t="n">
-        <v>11.8</v>
+        <v>11.91</v>
       </c>
       <c r="F101" t="n">
-        <v>788.6534</v>
+        <v>9710.1152</v>
       </c>
       <c r="G101" t="n">
-        <v>-1251681.362640839</v>
+        <v>-756902.903840839</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4173,7 +4337,7 @@
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="n">
-        <v>11.84</v>
+        <v>11.93</v>
       </c>
       <c r="L101" t="inlineStr">
         <is>
@@ -4190,22 +4354,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>11.89</v>
+        <v>11.99</v>
       </c>
       <c r="C102" t="n">
-        <v>11.89</v>
+        <v>11.99</v>
       </c>
       <c r="D102" t="n">
-        <v>11.89</v>
+        <v>11.99</v>
       </c>
       <c r="E102" t="n">
-        <v>11.89</v>
+        <v>11.99</v>
       </c>
       <c r="F102" t="n">
-        <v>20235</v>
+        <v>20346.267</v>
       </c>
       <c r="G102" t="n">
-        <v>-1231446.362640839</v>
+        <v>-736556.6368408391</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4215,7 +4379,7 @@
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="n">
-        <v>11.84</v>
+        <v>11.93</v>
       </c>
       <c r="L102" t="inlineStr">
         <is>
@@ -4232,22 +4396,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>11.88</v>
+        <v>12</v>
       </c>
       <c r="C103" t="n">
-        <v>11.88</v>
+        <v>12</v>
       </c>
       <c r="D103" t="n">
-        <v>11.88</v>
+        <v>12</v>
       </c>
       <c r="E103" t="n">
-        <v>11.88</v>
+        <v>12</v>
       </c>
       <c r="F103" t="n">
-        <v>25325.3961</v>
+        <v>8312.5519</v>
       </c>
       <c r="G103" t="n">
-        <v>-1256771.758740839</v>
+        <v>-728244.0849408391</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4257,7 +4421,7 @@
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="n">
-        <v>11.84</v>
+        <v>11.93</v>
       </c>
       <c r="L103" t="inlineStr">
         <is>
@@ -4274,22 +4438,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>11.88</v>
+        <v>12.03</v>
       </c>
       <c r="C104" t="n">
-        <v>11.88</v>
+        <v>12.03</v>
       </c>
       <c r="D104" t="n">
-        <v>11.88</v>
+        <v>12.03</v>
       </c>
       <c r="E104" t="n">
-        <v>11.88</v>
+        <v>12.03</v>
       </c>
       <c r="F104" t="n">
-        <v>9000</v>
+        <v>38595.7642</v>
       </c>
       <c r="G104" t="n">
-        <v>-1256771.758740839</v>
+        <v>-689648.3207408391</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4299,7 +4463,7 @@
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="n">
-        <v>11.84</v>
+        <v>11.93</v>
       </c>
       <c r="L104" t="inlineStr">
         <is>
@@ -4316,22 +4480,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>11.81</v>
+        <v>12.17</v>
       </c>
       <c r="C105" t="n">
-        <v>11.81</v>
+        <v>12.17</v>
       </c>
       <c r="D105" t="n">
-        <v>11.81</v>
+        <v>12.17</v>
       </c>
       <c r="E105" t="n">
-        <v>11.81</v>
+        <v>12.17</v>
       </c>
       <c r="F105" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G105" t="n">
-        <v>-1256819.758740839</v>
+        <v>-689598.3207408391</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4341,7 +4505,7 @@
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="n">
-        <v>11.84</v>
+        <v>11.93</v>
       </c>
       <c r="L105" t="inlineStr">
         <is>
@@ -4358,22 +4522,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>11.81</v>
+        <v>12</v>
       </c>
       <c r="C106" t="n">
-        <v>11.81</v>
+        <v>12</v>
       </c>
       <c r="D106" t="n">
-        <v>11.81</v>
+        <v>12</v>
       </c>
       <c r="E106" t="n">
-        <v>11.81</v>
+        <v>12</v>
       </c>
       <c r="F106" t="n">
-        <v>8576.993700000001</v>
+        <v>18022.6671</v>
       </c>
       <c r="G106" t="n">
-        <v>-1256819.758740839</v>
+        <v>-707620.9878408391</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4383,7 +4547,7 @@
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="n">
-        <v>11.84</v>
+        <v>11.93</v>
       </c>
       <c r="L106" t="inlineStr">
         <is>
@@ -4400,34 +4564,32 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>11.81</v>
+        <v>12</v>
       </c>
       <c r="C107" t="n">
-        <v>11.81</v>
+        <v>12</v>
       </c>
       <c r="D107" t="n">
-        <v>11.81</v>
+        <v>12</v>
       </c>
       <c r="E107" t="n">
-        <v>11.81</v>
+        <v>12</v>
       </c>
       <c r="F107" t="n">
-        <v>179641.521</v>
+        <v>30666.2838</v>
       </c>
       <c r="G107" t="n">
-        <v>-1256819.758740839</v>
+        <v>-707620.9878408391</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="n">
-        <v>11.81</v>
-      </c>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="n">
-        <v>11.84</v>
+        <v>11.93</v>
       </c>
       <c r="L107" t="inlineStr">
         <is>
@@ -4444,22 +4606,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>11.88</v>
+        <v>12</v>
       </c>
       <c r="C108" t="n">
-        <v>11.88</v>
+        <v>11.91</v>
       </c>
       <c r="D108" t="n">
-        <v>11.88</v>
+        <v>12</v>
       </c>
       <c r="E108" t="n">
-        <v>11.88</v>
+        <v>11.91</v>
       </c>
       <c r="F108" t="n">
-        <v>19795.1213</v>
+        <v>66899.4262</v>
       </c>
       <c r="G108" t="n">
-        <v>-1237024.637440839</v>
+        <v>-774520.4140408391</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4469,7 +4631,7 @@
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="n">
-        <v>11.84</v>
+        <v>11.93</v>
       </c>
       <c r="L108" t="inlineStr">
         <is>
@@ -4486,22 +4648,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>11.88</v>
+        <v>11.9</v>
       </c>
       <c r="C109" t="n">
-        <v>11.88</v>
+        <v>11.84</v>
       </c>
       <c r="D109" t="n">
-        <v>11.88</v>
+        <v>11.9</v>
       </c>
       <c r="E109" t="n">
-        <v>11.88</v>
+        <v>11.84</v>
       </c>
       <c r="F109" t="n">
-        <v>2885</v>
+        <v>14605.8889</v>
       </c>
       <c r="G109" t="n">
-        <v>-1237024.637440839</v>
+        <v>-789126.3029408391</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4511,7 +4673,7 @@
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="n">
-        <v>11.84</v>
+        <v>11.93</v>
       </c>
       <c r="L109" t="inlineStr">
         <is>
@@ -4528,22 +4690,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>11.89</v>
+        <v>11.84</v>
       </c>
       <c r="C110" t="n">
-        <v>11.95</v>
+        <v>11.84</v>
       </c>
       <c r="D110" t="n">
-        <v>11.95</v>
+        <v>11.84</v>
       </c>
       <c r="E110" t="n">
-        <v>11.89</v>
+        <v>11.84</v>
       </c>
       <c r="F110" t="n">
-        <v>9009.349200000001</v>
+        <v>9052.6759</v>
       </c>
       <c r="G110" t="n">
-        <v>-1228015.288240839</v>
+        <v>-789126.3029408391</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4553,7 +4715,7 @@
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="n">
-        <v>11.84</v>
+        <v>11.93</v>
       </c>
       <c r="L110" t="inlineStr">
         <is>
@@ -4570,22 +4732,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>11.95</v>
+        <v>11.84</v>
       </c>
       <c r="C111" t="n">
-        <v>11.81</v>
+        <v>11.84</v>
       </c>
       <c r="D111" t="n">
-        <v>11.95</v>
+        <v>11.84</v>
       </c>
       <c r="E111" t="n">
-        <v>11.81</v>
+        <v>11.84</v>
       </c>
       <c r="F111" t="n">
-        <v>110</v>
+        <v>23504.6221</v>
       </c>
       <c r="G111" t="n">
-        <v>-1228125.288240839</v>
+        <v>-789126.3029408391</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4595,7 +4757,7 @@
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="n">
-        <v>11.84</v>
+        <v>11.93</v>
       </c>
       <c r="L111" t="inlineStr">
         <is>
@@ -4612,22 +4774,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>11.95</v>
+        <v>11.85</v>
       </c>
       <c r="C112" t="n">
-        <v>11.95</v>
+        <v>11.85</v>
       </c>
       <c r="D112" t="n">
-        <v>11.95</v>
+        <v>11.85</v>
       </c>
       <c r="E112" t="n">
-        <v>11.95</v>
+        <v>11.85</v>
       </c>
       <c r="F112" t="n">
-        <v>42</v>
+        <v>497.2642</v>
       </c>
       <c r="G112" t="n">
-        <v>-1228083.288240839</v>
+        <v>-788629.0387408391</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4637,7 +4799,7 @@
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="n">
-        <v>11.84</v>
+        <v>11.93</v>
       </c>
       <c r="L112" t="inlineStr">
         <is>
@@ -4654,22 +4816,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>11.86</v>
+        <v>11.92</v>
       </c>
       <c r="C113" t="n">
-        <v>11.86</v>
+        <v>11.92</v>
       </c>
       <c r="D113" t="n">
-        <v>11.86</v>
+        <v>11.92</v>
       </c>
       <c r="E113" t="n">
-        <v>11.86</v>
+        <v>11.92</v>
       </c>
       <c r="F113" t="n">
-        <v>42271.0676</v>
+        <v>55</v>
       </c>
       <c r="G113" t="n">
-        <v>-1270354.355840839</v>
+        <v>-788574.0387408391</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4679,7 +4841,7 @@
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="n">
-        <v>11.84</v>
+        <v>11.93</v>
       </c>
       <c r="L113" t="inlineStr">
         <is>
@@ -4696,22 +4858,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>11.86</v>
+        <v>11.85</v>
       </c>
       <c r="C114" t="n">
-        <v>11.86</v>
+        <v>11.84</v>
       </c>
       <c r="D114" t="n">
-        <v>11.86</v>
+        <v>11.85</v>
       </c>
       <c r="E114" t="n">
-        <v>11.86</v>
+        <v>11.84</v>
       </c>
       <c r="F114" t="n">
-        <v>60798.5577</v>
+        <v>179641.5209</v>
       </c>
       <c r="G114" t="n">
-        <v>-1270354.355840839</v>
+        <v>-968215.5596408391</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4721,7 +4883,7 @@
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="n">
-        <v>11.84</v>
+        <v>11.93</v>
       </c>
       <c r="L114" t="inlineStr">
         <is>
@@ -4738,22 +4900,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>11.75</v>
+        <v>11.92</v>
       </c>
       <c r="C115" t="n">
-        <v>11.75</v>
+        <v>11.92</v>
       </c>
       <c r="D115" t="n">
-        <v>11.75</v>
+        <v>11.92</v>
       </c>
       <c r="E115" t="n">
-        <v>11.75</v>
+        <v>11.92</v>
       </c>
       <c r="F115" t="n">
         <v>55</v>
       </c>
       <c r="G115" t="n">
-        <v>-1270409.355840839</v>
+        <v>-968160.5596408391</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4763,7 +4925,7 @@
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="n">
-        <v>11.84</v>
+        <v>11.93</v>
       </c>
       <c r="L115" t="inlineStr">
         <is>
@@ -4780,22 +4942,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>11.8</v>
+        <v>11.84</v>
       </c>
       <c r="C116" t="n">
-        <v>11.8</v>
+        <v>11.84</v>
       </c>
       <c r="D116" t="n">
-        <v>11.8</v>
+        <v>11.84</v>
       </c>
       <c r="E116" t="n">
-        <v>11.8</v>
+        <v>11.84</v>
       </c>
       <c r="F116" t="n">
-        <v>160703.0982</v>
+        <v>55.4065</v>
       </c>
       <c r="G116" t="n">
-        <v>-1109706.257640839</v>
+        <v>-968215.9661408392</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4805,7 +4967,7 @@
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="n">
-        <v>11.84</v>
+        <v>11.93</v>
       </c>
       <c r="L116" t="inlineStr">
         <is>
@@ -4822,22 +4984,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>11.9</v>
+        <v>11.84</v>
       </c>
       <c r="C117" t="n">
-        <v>11.75</v>
+        <v>11.81</v>
       </c>
       <c r="D117" t="n">
-        <v>11.9</v>
+        <v>11.84</v>
       </c>
       <c r="E117" t="n">
-        <v>11.75</v>
+        <v>11.81</v>
       </c>
       <c r="F117" t="n">
-        <v>98</v>
+        <v>12464.6216</v>
       </c>
       <c r="G117" t="n">
-        <v>-1109804.257640839</v>
+        <v>-980680.5877408391</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4847,7 +5009,7 @@
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="n">
-        <v>11.84</v>
+        <v>11.93</v>
       </c>
       <c r="L117" t="inlineStr">
         <is>
@@ -4864,22 +5026,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>11.94</v>
+        <v>11.82</v>
       </c>
       <c r="C118" t="n">
-        <v>12.04</v>
+        <v>11.81</v>
       </c>
       <c r="D118" t="n">
-        <v>12.04</v>
+        <v>11.82</v>
       </c>
       <c r="E118" t="n">
-        <v>11.94</v>
+        <v>11.81</v>
       </c>
       <c r="F118" t="n">
-        <v>1566.3034</v>
+        <v>61938.5491</v>
       </c>
       <c r="G118" t="n">
-        <v>-1108237.954240839</v>
+        <v>-980680.5877408391</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4889,7 +5051,7 @@
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="n">
-        <v>11.84</v>
+        <v>11.93</v>
       </c>
       <c r="L118" t="inlineStr">
         <is>
@@ -4906,22 +5068,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>12.04</v>
+        <v>11.81</v>
       </c>
       <c r="C119" t="n">
         <v>11.81</v>
       </c>
       <c r="D119" t="n">
-        <v>12.04</v>
+        <v>11.81</v>
       </c>
       <c r="E119" t="n">
         <v>11.81</v>
       </c>
       <c r="F119" t="n">
-        <v>987</v>
+        <v>80998.1724</v>
       </c>
       <c r="G119" t="n">
-        <v>-1109224.954240839</v>
+        <v>-980680.5877408391</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4931,7 +5093,7 @@
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="n">
-        <v>11.84</v>
+        <v>11.93</v>
       </c>
       <c r="L119" t="inlineStr">
         <is>
@@ -4951,19 +5113,19 @@
         <v>11.81</v>
       </c>
       <c r="C120" t="n">
-        <v>11.81</v>
+        <v>11.8</v>
       </c>
       <c r="D120" t="n">
         <v>11.81</v>
       </c>
       <c r="E120" t="n">
-        <v>11.81</v>
+        <v>11.8</v>
       </c>
       <c r="F120" t="n">
-        <v>25898.0407</v>
+        <v>55091.3805</v>
       </c>
       <c r="G120" t="n">
-        <v>-1109224.954240839</v>
+        <v>-1035771.968240839</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4973,7 +5135,7 @@
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="n">
-        <v>11.84</v>
+        <v>11.93</v>
       </c>
       <c r="L120" t="inlineStr">
         <is>
@@ -4990,22 +5152,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>11.81</v>
+        <v>11.8</v>
       </c>
       <c r="C121" t="n">
         <v>11.8</v>
       </c>
       <c r="D121" t="n">
-        <v>11.81</v>
+        <v>11.8</v>
       </c>
       <c r="E121" t="n">
         <v>11.8</v>
       </c>
       <c r="F121" t="n">
-        <v>414725.1476</v>
+        <v>85971.4491</v>
       </c>
       <c r="G121" t="n">
-        <v>-1523950.101840839</v>
+        <v>-1035771.968240839</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -5015,7 +5177,7 @@
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="n">
-        <v>11.84</v>
+        <v>11.93</v>
       </c>
       <c r="L121" t="inlineStr">
         <is>
@@ -5032,22 +5194,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>11.81</v>
+        <v>11.78</v>
       </c>
       <c r="C122" t="n">
-        <v>11.99</v>
+        <v>11.78</v>
       </c>
       <c r="D122" t="n">
-        <v>11.99</v>
+        <v>11.78</v>
       </c>
       <c r="E122" t="n">
-        <v>11.81</v>
+        <v>11.78</v>
       </c>
       <c r="F122" t="n">
-        <v>1100</v>
+        <v>2383.9126</v>
       </c>
       <c r="G122" t="n">
-        <v>-1522850.101840839</v>
+        <v>-1038155.880840839</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -5057,7 +5219,7 @@
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="n">
-        <v>11.84</v>
+        <v>11.93</v>
       </c>
       <c r="L122" t="inlineStr">
         <is>
@@ -5074,22 +5236,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>11.95</v>
+        <v>11.8</v>
       </c>
       <c r="C123" t="n">
-        <v>11.99</v>
+        <v>11.8</v>
       </c>
       <c r="D123" t="n">
-        <v>11.99</v>
+        <v>11.8</v>
       </c>
       <c r="E123" t="n">
-        <v>11.81</v>
+        <v>11.8</v>
       </c>
       <c r="F123" t="n">
-        <v>383</v>
+        <v>1599</v>
       </c>
       <c r="G123" t="n">
-        <v>-1522850.101840839</v>
+        <v>-1036556.880840839</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -5099,7 +5261,7 @@
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="n">
-        <v>11.84</v>
+        <v>11.93</v>
       </c>
       <c r="L123" t="inlineStr">
         <is>
@@ -5116,22 +5278,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="C124" t="n">
-        <v>11.99</v>
+        <v>11.81</v>
       </c>
       <c r="D124" t="n">
-        <v>11.99</v>
+        <v>11.81</v>
       </c>
       <c r="E124" t="n">
-        <v>11.81</v>
+        <v>11.8</v>
       </c>
       <c r="F124" t="n">
-        <v>605</v>
+        <v>27588.7632</v>
       </c>
       <c r="G124" t="n">
-        <v>-1522850.101840839</v>
+        <v>-1008968.117640839</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -5141,7 +5303,7 @@
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="n">
-        <v>11.84</v>
+        <v>11.93</v>
       </c>
       <c r="L124" t="inlineStr">
         <is>
@@ -5158,22 +5320,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>11.99</v>
+        <v>12</v>
       </c>
       <c r="C125" t="n">
-        <v>11.99</v>
+        <v>12</v>
       </c>
       <c r="D125" t="n">
-        <v>11.99</v>
+        <v>12</v>
       </c>
       <c r="E125" t="n">
-        <v>11.99</v>
+        <v>12</v>
       </c>
       <c r="F125" t="n">
-        <v>18768.7831</v>
+        <v>55</v>
       </c>
       <c r="G125" t="n">
-        <v>-1522850.101840839</v>
+        <v>-1008913.117640839</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -5183,7 +5345,7 @@
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="n">
-        <v>11.84</v>
+        <v>11.93</v>
       </c>
       <c r="L125" t="inlineStr">
         <is>
@@ -5200,22 +5362,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>11.99</v>
+        <v>11.81</v>
       </c>
       <c r="C126" t="n">
-        <v>11.99</v>
+        <v>11.75</v>
       </c>
       <c r="D126" t="n">
-        <v>11.99</v>
+        <v>11.81</v>
       </c>
       <c r="E126" t="n">
-        <v>11.8</v>
+        <v>11.75</v>
       </c>
       <c r="F126" t="n">
-        <v>445009.5791</v>
+        <v>241233.9382</v>
       </c>
       <c r="G126" t="n">
-        <v>-1522850.101840839</v>
+        <v>-1250147.055840839</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -5225,7 +5387,7 @@
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="n">
-        <v>11.84</v>
+        <v>11.93</v>
       </c>
       <c r="L126" t="inlineStr">
         <is>
@@ -5242,22 +5404,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>11.95</v>
+        <v>11.89</v>
       </c>
       <c r="C127" t="n">
-        <v>11.95</v>
+        <v>11.89</v>
       </c>
       <c r="D127" t="n">
-        <v>11.95</v>
+        <v>11.89</v>
       </c>
       <c r="E127" t="n">
-        <v>11.95</v>
+        <v>11.89</v>
       </c>
       <c r="F127" t="n">
-        <v>94782.4538</v>
+        <v>48</v>
       </c>
       <c r="G127" t="n">
-        <v>-1617632.555640839</v>
+        <v>-1250099.055840839</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5267,7 +5429,7 @@
       </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="n">
-        <v>11.84</v>
+        <v>11.93</v>
       </c>
       <c r="L127" t="inlineStr">
         <is>
@@ -5284,22 +5446,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>11.83</v>
+        <v>11.81</v>
       </c>
       <c r="C128" t="n">
-        <v>11.83</v>
+        <v>11.8</v>
       </c>
       <c r="D128" t="n">
-        <v>11.83</v>
+        <v>11.81</v>
       </c>
       <c r="E128" t="n">
-        <v>11.83</v>
+        <v>11.8</v>
       </c>
       <c r="F128" t="n">
-        <v>99</v>
+        <v>836.6534</v>
       </c>
       <c r="G128" t="n">
-        <v>-1617731.555640839</v>
+        <v>-1250935.709240839</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5309,7 +5471,7 @@
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="n">
-        <v>11.84</v>
+        <v>11.93</v>
       </c>
       <c r="L128" t="inlineStr">
         <is>
@@ -5326,22 +5488,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>11.85</v>
+        <v>11.89</v>
       </c>
       <c r="C129" t="n">
-        <v>11.85</v>
+        <v>11.89</v>
       </c>
       <c r="D129" t="n">
-        <v>11.85</v>
+        <v>11.89</v>
       </c>
       <c r="E129" t="n">
-        <v>11.85</v>
+        <v>11.89</v>
       </c>
       <c r="F129" t="n">
-        <v>465.3225</v>
+        <v>43</v>
       </c>
       <c r="G129" t="n">
-        <v>-1617266.233140839</v>
+        <v>-1250892.709240839</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5351,7 +5513,7 @@
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="n">
-        <v>11.84</v>
+        <v>11.93</v>
       </c>
       <c r="L129" t="inlineStr">
         <is>
@@ -5368,22 +5530,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>11.85</v>
+        <v>11.81</v>
       </c>
       <c r="C130" t="n">
-        <v>11.86</v>
+        <v>11.8</v>
       </c>
       <c r="D130" t="n">
-        <v>11.86</v>
+        <v>11.81</v>
       </c>
       <c r="E130" t="n">
-        <v>11.85</v>
+        <v>11.8</v>
       </c>
       <c r="F130" t="n">
-        <v>1000</v>
+        <v>788.6534</v>
       </c>
       <c r="G130" t="n">
-        <v>-1616266.233140839</v>
+        <v>-1251681.362640839</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5393,7 +5555,7 @@
       </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="n">
-        <v>11.84</v>
+        <v>11.93</v>
       </c>
       <c r="L130" t="inlineStr">
         <is>
@@ -5410,22 +5572,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>11.85</v>
+        <v>11.89</v>
       </c>
       <c r="C131" t="n">
-        <v>11.85</v>
+        <v>11.89</v>
       </c>
       <c r="D131" t="n">
-        <v>11.85</v>
+        <v>11.89</v>
       </c>
       <c r="E131" t="n">
-        <v>11.85</v>
+        <v>11.89</v>
       </c>
       <c r="F131" t="n">
-        <v>224.5935</v>
+        <v>20235</v>
       </c>
       <c r="G131" t="n">
-        <v>-1616490.826640839</v>
+        <v>-1231446.362640839</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5435,7 +5597,7 @@
       </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="n">
-        <v>11.84</v>
+        <v>11.93</v>
       </c>
       <c r="L131" t="inlineStr">
         <is>
@@ -5452,22 +5614,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>11.95</v>
+        <v>11.88</v>
       </c>
       <c r="C132" t="n">
-        <v>11.99</v>
+        <v>11.88</v>
       </c>
       <c r="D132" t="n">
-        <v>11.99</v>
+        <v>11.88</v>
       </c>
       <c r="E132" t="n">
-        <v>11.95</v>
+        <v>11.88</v>
       </c>
       <c r="F132" t="n">
-        <v>19565.6442</v>
+        <v>25325.3961</v>
       </c>
       <c r="G132" t="n">
-        <v>-1596925.182440839</v>
+        <v>-1256771.758740839</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5477,7 +5639,7 @@
       </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="n">
-        <v>11.84</v>
+        <v>11.93</v>
       </c>
       <c r="L132" t="inlineStr">
         <is>
@@ -5488,6 +5650,1226 @@
         <v>1</v>
       </c>
       <c r="N132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>11.88</v>
+      </c>
+      <c r="C133" t="n">
+        <v>11.88</v>
+      </c>
+      <c r="D133" t="n">
+        <v>11.88</v>
+      </c>
+      <c r="E133" t="n">
+        <v>11.88</v>
+      </c>
+      <c r="F133" t="n">
+        <v>9000</v>
+      </c>
+      <c r="G133" t="n">
+        <v>-1256771.758740839</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>11.93</v>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+      <c r="N133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>11.81</v>
+      </c>
+      <c r="C134" t="n">
+        <v>11.81</v>
+      </c>
+      <c r="D134" t="n">
+        <v>11.81</v>
+      </c>
+      <c r="E134" t="n">
+        <v>11.81</v>
+      </c>
+      <c r="F134" t="n">
+        <v>48</v>
+      </c>
+      <c r="G134" t="n">
+        <v>-1256819.758740839</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>11.93</v>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+      <c r="N134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>11.81</v>
+      </c>
+      <c r="C135" t="n">
+        <v>11.81</v>
+      </c>
+      <c r="D135" t="n">
+        <v>11.81</v>
+      </c>
+      <c r="E135" t="n">
+        <v>11.81</v>
+      </c>
+      <c r="F135" t="n">
+        <v>8576.993700000001</v>
+      </c>
+      <c r="G135" t="n">
+        <v>-1256819.758740839</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>11.93</v>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+      <c r="N135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>11.81</v>
+      </c>
+      <c r="C136" t="n">
+        <v>11.81</v>
+      </c>
+      <c r="D136" t="n">
+        <v>11.81</v>
+      </c>
+      <c r="E136" t="n">
+        <v>11.81</v>
+      </c>
+      <c r="F136" t="n">
+        <v>179641.521</v>
+      </c>
+      <c r="G136" t="n">
+        <v>-1256819.758740839</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>11.93</v>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+      <c r="N136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>11.88</v>
+      </c>
+      <c r="C137" t="n">
+        <v>11.88</v>
+      </c>
+      <c r="D137" t="n">
+        <v>11.88</v>
+      </c>
+      <c r="E137" t="n">
+        <v>11.88</v>
+      </c>
+      <c r="F137" t="n">
+        <v>19795.1213</v>
+      </c>
+      <c r="G137" t="n">
+        <v>-1237024.637440839</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>11.93</v>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+      <c r="N137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>11.88</v>
+      </c>
+      <c r="C138" t="n">
+        <v>11.88</v>
+      </c>
+      <c r="D138" t="n">
+        <v>11.88</v>
+      </c>
+      <c r="E138" t="n">
+        <v>11.88</v>
+      </c>
+      <c r="F138" t="n">
+        <v>2885</v>
+      </c>
+      <c r="G138" t="n">
+        <v>-1237024.637440839</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>11.93</v>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+      <c r="N138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>11.89</v>
+      </c>
+      <c r="C139" t="n">
+        <v>11.95</v>
+      </c>
+      <c r="D139" t="n">
+        <v>11.95</v>
+      </c>
+      <c r="E139" t="n">
+        <v>11.89</v>
+      </c>
+      <c r="F139" t="n">
+        <v>9009.349200000001</v>
+      </c>
+      <c r="G139" t="n">
+        <v>-1228015.288240839</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>11.93</v>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+      <c r="N139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>11.95</v>
+      </c>
+      <c r="C140" t="n">
+        <v>11.81</v>
+      </c>
+      <c r="D140" t="n">
+        <v>11.95</v>
+      </c>
+      <c r="E140" t="n">
+        <v>11.81</v>
+      </c>
+      <c r="F140" t="n">
+        <v>110</v>
+      </c>
+      <c r="G140" t="n">
+        <v>-1228125.288240839</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>11.93</v>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+      <c r="N140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>11.95</v>
+      </c>
+      <c r="C141" t="n">
+        <v>11.95</v>
+      </c>
+      <c r="D141" t="n">
+        <v>11.95</v>
+      </c>
+      <c r="E141" t="n">
+        <v>11.95</v>
+      </c>
+      <c r="F141" t="n">
+        <v>42</v>
+      </c>
+      <c r="G141" t="n">
+        <v>-1228083.288240839</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>11.93</v>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+      <c r="N141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>11.86</v>
+      </c>
+      <c r="C142" t="n">
+        <v>11.86</v>
+      </c>
+      <c r="D142" t="n">
+        <v>11.86</v>
+      </c>
+      <c r="E142" t="n">
+        <v>11.86</v>
+      </c>
+      <c r="F142" t="n">
+        <v>42271.0676</v>
+      </c>
+      <c r="G142" t="n">
+        <v>-1270354.355840839</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>11.93</v>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+      <c r="N142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>11.86</v>
+      </c>
+      <c r="C143" t="n">
+        <v>11.86</v>
+      </c>
+      <c r="D143" t="n">
+        <v>11.86</v>
+      </c>
+      <c r="E143" t="n">
+        <v>11.86</v>
+      </c>
+      <c r="F143" t="n">
+        <v>60798.5577</v>
+      </c>
+      <c r="G143" t="n">
+        <v>-1270354.355840839</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>11.93</v>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+      <c r="N143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="C144" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="D144" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="E144" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="F144" t="n">
+        <v>55</v>
+      </c>
+      <c r="G144" t="n">
+        <v>-1270409.355840839</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>11.93</v>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+      <c r="N144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="C145" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="D145" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="E145" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="F145" t="n">
+        <v>160703.0982</v>
+      </c>
+      <c r="G145" t="n">
+        <v>-1109706.257640839</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>11.93</v>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+      <c r="N145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="C146" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="D146" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="E146" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="F146" t="n">
+        <v>98</v>
+      </c>
+      <c r="G146" t="n">
+        <v>-1109804.257640839</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>11.93</v>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+      <c r="N146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>11.94</v>
+      </c>
+      <c r="C147" t="n">
+        <v>12.04</v>
+      </c>
+      <c r="D147" t="n">
+        <v>12.04</v>
+      </c>
+      <c r="E147" t="n">
+        <v>11.94</v>
+      </c>
+      <c r="F147" t="n">
+        <v>1566.3034</v>
+      </c>
+      <c r="G147" t="n">
+        <v>-1108237.954240839</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>11.93</v>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+      <c r="N147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>12.04</v>
+      </c>
+      <c r="C148" t="n">
+        <v>11.81</v>
+      </c>
+      <c r="D148" t="n">
+        <v>12.04</v>
+      </c>
+      <c r="E148" t="n">
+        <v>11.81</v>
+      </c>
+      <c r="F148" t="n">
+        <v>987</v>
+      </c>
+      <c r="G148" t="n">
+        <v>-1109224.954240839</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>11.93</v>
+      </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+      <c r="N148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>11.81</v>
+      </c>
+      <c r="C149" t="n">
+        <v>11.81</v>
+      </c>
+      <c r="D149" t="n">
+        <v>11.81</v>
+      </c>
+      <c r="E149" t="n">
+        <v>11.81</v>
+      </c>
+      <c r="F149" t="n">
+        <v>25898.0407</v>
+      </c>
+      <c r="G149" t="n">
+        <v>-1109224.954240839</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>11.93</v>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+      <c r="N149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>11.81</v>
+      </c>
+      <c r="C150" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="D150" t="n">
+        <v>11.81</v>
+      </c>
+      <c r="E150" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="F150" t="n">
+        <v>414725.1476</v>
+      </c>
+      <c r="G150" t="n">
+        <v>-1523950.101840839</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>11.93</v>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+      <c r="N150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>11.81</v>
+      </c>
+      <c r="C151" t="n">
+        <v>11.99</v>
+      </c>
+      <c r="D151" t="n">
+        <v>11.99</v>
+      </c>
+      <c r="E151" t="n">
+        <v>11.81</v>
+      </c>
+      <c r="F151" t="n">
+        <v>1100</v>
+      </c>
+      <c r="G151" t="n">
+        <v>-1522850.101840839</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>11.93</v>
+      </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+      <c r="N151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>11.95</v>
+      </c>
+      <c r="C152" t="n">
+        <v>11.99</v>
+      </c>
+      <c r="D152" t="n">
+        <v>11.99</v>
+      </c>
+      <c r="E152" t="n">
+        <v>11.81</v>
+      </c>
+      <c r="F152" t="n">
+        <v>383</v>
+      </c>
+      <c r="G152" t="n">
+        <v>-1522850.101840839</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>11.93</v>
+      </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+      <c r="N152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="C153" t="n">
+        <v>11.99</v>
+      </c>
+      <c r="D153" t="n">
+        <v>11.99</v>
+      </c>
+      <c r="E153" t="n">
+        <v>11.81</v>
+      </c>
+      <c r="F153" t="n">
+        <v>605</v>
+      </c>
+      <c r="G153" t="n">
+        <v>-1522850.101840839</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>11.93</v>
+      </c>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+      <c r="N153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>11.99</v>
+      </c>
+      <c r="C154" t="n">
+        <v>11.99</v>
+      </c>
+      <c r="D154" t="n">
+        <v>11.99</v>
+      </c>
+      <c r="E154" t="n">
+        <v>11.99</v>
+      </c>
+      <c r="F154" t="n">
+        <v>18768.7831</v>
+      </c>
+      <c r="G154" t="n">
+        <v>-1522850.101840839</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>11.93</v>
+      </c>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+      <c r="N154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>11.99</v>
+      </c>
+      <c r="C155" t="n">
+        <v>11.99</v>
+      </c>
+      <c r="D155" t="n">
+        <v>11.99</v>
+      </c>
+      <c r="E155" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="F155" t="n">
+        <v>445009.5791</v>
+      </c>
+      <c r="G155" t="n">
+        <v>-1522850.101840839</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>11.93</v>
+      </c>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+      <c r="N155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>11.95</v>
+      </c>
+      <c r="C156" t="n">
+        <v>11.95</v>
+      </c>
+      <c r="D156" t="n">
+        <v>11.95</v>
+      </c>
+      <c r="E156" t="n">
+        <v>11.95</v>
+      </c>
+      <c r="F156" t="n">
+        <v>94782.4538</v>
+      </c>
+      <c r="G156" t="n">
+        <v>-1617632.555640839</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>11.93</v>
+      </c>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+      <c r="N156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>11.83</v>
+      </c>
+      <c r="C157" t="n">
+        <v>11.83</v>
+      </c>
+      <c r="D157" t="n">
+        <v>11.83</v>
+      </c>
+      <c r="E157" t="n">
+        <v>11.83</v>
+      </c>
+      <c r="F157" t="n">
+        <v>99</v>
+      </c>
+      <c r="G157" t="n">
+        <v>-1617731.555640839</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>11.93</v>
+      </c>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+      <c r="N157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>11.85</v>
+      </c>
+      <c r="C158" t="n">
+        <v>11.85</v>
+      </c>
+      <c r="D158" t="n">
+        <v>11.85</v>
+      </c>
+      <c r="E158" t="n">
+        <v>11.85</v>
+      </c>
+      <c r="F158" t="n">
+        <v>465.3225</v>
+      </c>
+      <c r="G158" t="n">
+        <v>-1617266.233140839</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>11.93</v>
+      </c>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+      <c r="N158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>11.85</v>
+      </c>
+      <c r="C159" t="n">
+        <v>11.86</v>
+      </c>
+      <c r="D159" t="n">
+        <v>11.86</v>
+      </c>
+      <c r="E159" t="n">
+        <v>11.85</v>
+      </c>
+      <c r="F159" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G159" t="n">
+        <v>-1616266.233140839</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>11.93</v>
+      </c>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+      <c r="N159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>11.85</v>
+      </c>
+      <c r="C160" t="n">
+        <v>11.85</v>
+      </c>
+      <c r="D160" t="n">
+        <v>11.85</v>
+      </c>
+      <c r="E160" t="n">
+        <v>11.85</v>
+      </c>
+      <c r="F160" t="n">
+        <v>224.5935</v>
+      </c>
+      <c r="G160" t="n">
+        <v>-1616490.826640839</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>11.93</v>
+      </c>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+      <c r="N160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>11.95</v>
+      </c>
+      <c r="C161" t="n">
+        <v>11.99</v>
+      </c>
+      <c r="D161" t="n">
+        <v>11.99</v>
+      </c>
+      <c r="E161" t="n">
+        <v>11.95</v>
+      </c>
+      <c r="F161" t="n">
+        <v>19565.6442</v>
+      </c>
+      <c r="G161" t="n">
+        <v>-1596925.182440839</v>
+      </c>
+      <c r="H161" t="n">
+        <v>1</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="n">
+        <v>11.85</v>
+      </c>
+      <c r="K161" t="n">
+        <v>11.93</v>
+      </c>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+      <c r="N161" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-24 BackTest TRV.xlsx
+++ b/BackTest/2020-01-24 BackTest TRV.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N161"/>
+  <dimension ref="A1:M161"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>high_check</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>-234018.7402000001</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,18 +484,15 @@
         <v>-234018.7402000001</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -528,18 +517,15 @@
         <v>-461739.1886000001</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>1</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>1</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>1</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +651,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>1</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -710,16 +684,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>1</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -744,18 +715,15 @@
         <v>-789135.1762000001</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +750,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>1</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -818,16 +783,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>1</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -852,18 +814,15 @@
         <v>-881331.0422</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -890,16 +849,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -926,16 +882,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -960,18 +913,15 @@
         <v>-1027426.4385</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -996,18 +946,15 @@
         <v>-1027426.4385</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1034,16 +981,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1068,18 +1012,15 @@
         <v>-994300.8359000001</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1104,18 +1045,15 @@
         <v>-1135474.051</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1142,16 +1080,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1176,18 +1111,15 @@
         <v>-1135474.051</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1214,16 +1146,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1248,18 +1177,15 @@
         <v>-1141912.9318</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1284,18 +1210,15 @@
         <v>-1141912.9318</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1320,18 +1243,15 @@
         <v>-1141912.9318</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1356,18 +1276,15 @@
         <v>-1141812.9318</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1392,18 +1309,15 @@
         <v>-1141812.9318</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1428,18 +1342,15 @@
         <v>-862765.9125999999</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1464,18 +1375,15 @@
         <v>-889016.1658999999</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1500,18 +1408,15 @@
         <v>-889016.1658999999</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1536,18 +1441,15 @@
         <v>-916507.8076999999</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1574,16 +1476,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1610,16 +1509,13 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1646,16 +1542,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1680,18 +1573,15 @@
         <v>-956865.3365999999</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1716,18 +1606,15 @@
         <v>-986688.1451999999</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1754,16 +1641,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1790,16 +1674,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1826,16 +1707,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1862,16 +1740,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1898,16 +1773,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1934,16 +1806,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1970,16 +1839,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2006,16 +1872,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2040,18 +1903,15 @@
         <v>-1342797.8864</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2078,16 +1938,13 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2112,18 +1969,15 @@
         <v>-1323970.4613</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2150,16 +2004,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2184,22 +2035,15 @@
         <v>-1323970.4613</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
-      <c r="J50" t="n">
-        <v>11.78</v>
-      </c>
-      <c r="K50" t="n">
-        <v>11.78</v>
-      </c>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2224,816 +2068,708 @@
         <v>-1323970.4613</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
         <v>11.77</v>
       </c>
-      <c r="K51" t="n">
-        <v>11.78</v>
-      </c>
-      <c r="L51" t="inlineStr">
+      <c r="C52" t="n">
+        <v>11.77</v>
+      </c>
+      <c r="D52" t="n">
+        <v>11.77</v>
+      </c>
+      <c r="E52" t="n">
+        <v>11.77</v>
+      </c>
+      <c r="F52" t="n">
+        <v>367.8017</v>
+      </c>
+      <c r="G52" t="n">
+        <v>-1323970.4613</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>11.74</v>
+      </c>
+      <c r="C53" t="n">
+        <v>11.74</v>
+      </c>
+      <c r="D53" t="n">
+        <v>11.74</v>
+      </c>
+      <c r="E53" t="n">
+        <v>11.74</v>
+      </c>
+      <c r="F53" t="n">
+        <v>5853.5171</v>
+      </c>
+      <c r="G53" t="n">
+        <v>-1329823.9784</v>
+      </c>
+      <c r="H53" t="n">
+        <v>2</v>
+      </c>
+      <c r="I53" t="n">
+        <v>11.77</v>
+      </c>
+      <c r="J53" t="n">
+        <v>11.77</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>11.82</v>
+      </c>
+      <c r="C54" t="n">
+        <v>11.82</v>
+      </c>
+      <c r="D54" t="n">
+        <v>11.82</v>
+      </c>
+      <c r="E54" t="n">
+        <v>11.82</v>
+      </c>
+      <c r="F54" t="n">
+        <v>26201.1263</v>
+      </c>
+      <c r="G54" t="n">
+        <v>-1303622.8521</v>
+      </c>
+      <c r="H54" t="n">
+        <v>2</v>
+      </c>
+      <c r="I54" t="n">
+        <v>11.74</v>
+      </c>
+      <c r="J54" t="n">
+        <v>11.77</v>
+      </c>
+      <c r="K54" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="n">
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>11.86</v>
+      </c>
+      <c r="C55" t="n">
+        <v>11.86</v>
+      </c>
+      <c r="D55" t="n">
+        <v>11.86</v>
+      </c>
+      <c r="E55" t="n">
+        <v>11.86</v>
+      </c>
+      <c r="F55" t="n">
+        <v>71100.9516</v>
+      </c>
+      <c r="G55" t="n">
+        <v>-1232521.9005</v>
+      </c>
+      <c r="H55" t="n">
+        <v>2</v>
+      </c>
+      <c r="I55" t="n">
+        <v>11.82</v>
+      </c>
+      <c r="J55" t="n">
         <v>11.77</v>
       </c>
-      <c r="C52" t="n">
-        <v>11.77</v>
-      </c>
-      <c r="D52" t="n">
-        <v>11.77</v>
-      </c>
-      <c r="E52" t="n">
-        <v>11.77</v>
-      </c>
-      <c r="F52" t="n">
-        <v>367.8017</v>
-      </c>
-      <c r="G52" t="n">
-        <v>-1323970.4613</v>
-      </c>
-      <c r="H52" t="n">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
-      <c r="J52" t="n">
-        <v>11.77</v>
-      </c>
-      <c r="K52" t="n">
-        <v>11.78</v>
-      </c>
-      <c r="L52" t="inlineStr">
+      <c r="K55" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="n">
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
         <v>11.74</v>
       </c>
-      <c r="C53" t="n">
+      <c r="C56" t="n">
         <v>11.74</v>
       </c>
-      <c r="D53" t="n">
+      <c r="D56" t="n">
         <v>11.74</v>
       </c>
-      <c r="E53" t="n">
+      <c r="E56" t="n">
         <v>11.74</v>
       </c>
-      <c r="F53" t="n">
-        <v>5853.5171</v>
-      </c>
-      <c r="G53" t="n">
-        <v>-1329823.9784</v>
-      </c>
-      <c r="H53" t="n">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
-      <c r="J53" t="n">
-        <v>11.77</v>
-      </c>
-      <c r="K53" t="n">
-        <v>11.77</v>
-      </c>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="n">
-        <v>11.82</v>
-      </c>
-      <c r="C54" t="n">
-        <v>11.82</v>
-      </c>
-      <c r="D54" t="n">
-        <v>11.82</v>
-      </c>
-      <c r="E54" t="n">
-        <v>11.82</v>
-      </c>
-      <c r="F54" t="n">
-        <v>26201.1263</v>
-      </c>
-      <c r="G54" t="n">
-        <v>-1303622.8521</v>
-      </c>
-      <c r="H54" t="n">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
-      <c r="J54" t="n">
+      <c r="F56" t="n">
+        <v>343.725</v>
+      </c>
+      <c r="G56" t="n">
+        <v>-1232865.6255</v>
+      </c>
+      <c r="H56" t="n">
+        <v>2</v>
+      </c>
+      <c r="I56" t="n">
+        <v>11.86</v>
+      </c>
+      <c r="J56" t="n">
+        <v>11.86</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>11.85</v>
+      </c>
+      <c r="C57" t="n">
+        <v>11.85</v>
+      </c>
+      <c r="D57" t="n">
+        <v>11.85</v>
+      </c>
+      <c r="E57" t="n">
+        <v>11.85</v>
+      </c>
+      <c r="F57" t="n">
+        <v>84.38818565400844</v>
+      </c>
+      <c r="G57" t="n">
+        <v>-1232781.237314346</v>
+      </c>
+      <c r="H57" t="n">
+        <v>2</v>
+      </c>
+      <c r="I57" t="n">
         <v>11.74</v>
       </c>
-      <c r="K54" t="n">
-        <v>11.77</v>
-      </c>
-      <c r="L54" t="inlineStr">
+      <c r="J57" t="n">
+        <v>11.86</v>
+      </c>
+      <c r="K57" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="n">
-        <v>11.86</v>
-      </c>
-      <c r="C55" t="n">
-        <v>11.86</v>
-      </c>
-      <c r="D55" t="n">
-        <v>11.86</v>
-      </c>
-      <c r="E55" t="n">
-        <v>11.86</v>
-      </c>
-      <c r="F55" t="n">
-        <v>71100.9516</v>
-      </c>
-      <c r="G55" t="n">
-        <v>-1232521.9005</v>
-      </c>
-      <c r="H55" t="n">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
-      <c r="J55" t="n">
-        <v>11.82</v>
-      </c>
-      <c r="K55" t="n">
-        <v>11.77</v>
-      </c>
-      <c r="L55" t="inlineStr">
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>11.85</v>
+      </c>
+      <c r="C58" t="n">
+        <v>11.85</v>
+      </c>
+      <c r="D58" t="n">
+        <v>11.85</v>
+      </c>
+      <c r="E58" t="n">
+        <v>11.85</v>
+      </c>
+      <c r="F58" t="n">
+        <v>10176.8363</v>
+      </c>
+      <c r="G58" t="n">
+        <v>-1232781.237314346</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>11.86</v>
+      </c>
+      <c r="K58" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="n">
-        <v>11.74</v>
-      </c>
-      <c r="C56" t="n">
-        <v>11.74</v>
-      </c>
-      <c r="D56" t="n">
-        <v>11.74</v>
-      </c>
-      <c r="E56" t="n">
-        <v>11.74</v>
-      </c>
-      <c r="F56" t="n">
-        <v>343.725</v>
-      </c>
-      <c r="G56" t="n">
-        <v>-1232865.6255</v>
-      </c>
-      <c r="H56" t="n">
-        <v>1</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>11.86</v>
-      </c>
-      <c r="K56" t="n">
-        <v>11.86</v>
-      </c>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="n">
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
         <v>11.85</v>
       </c>
-      <c r="C57" t="n">
+      <c r="C59" t="n">
         <v>11.85</v>
       </c>
-      <c r="D57" t="n">
+      <c r="D59" t="n">
         <v>11.85</v>
       </c>
-      <c r="E57" t="n">
+      <c r="E59" t="n">
         <v>11.85</v>
       </c>
-      <c r="F57" t="n">
-        <v>84.38818565400844</v>
-      </c>
-      <c r="G57" t="n">
+      <c r="F59" t="n">
+        <v>37011.39711434599</v>
+      </c>
+      <c r="G59" t="n">
         <v>-1232781.237314346</v>
       </c>
-      <c r="H57" t="n">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
-      <c r="J57" t="n">
-        <v>11.74</v>
-      </c>
-      <c r="K57" t="n">
-        <v>11.86</v>
-      </c>
-      <c r="L57" t="inlineStr">
+      <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>11.86</v>
+      </c>
+      <c r="C60" t="n">
+        <v>11.86</v>
+      </c>
+      <c r="D60" t="n">
+        <v>11.86</v>
+      </c>
+      <c r="E60" t="n">
+        <v>11.86</v>
+      </c>
+      <c r="F60" t="n">
+        <v>43</v>
+      </c>
+      <c r="G60" t="n">
+        <v>-1232738.237314346</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>11.86</v>
+      </c>
+      <c r="C61" t="n">
+        <v>11.86</v>
+      </c>
+      <c r="D61" t="n">
+        <v>11.86</v>
+      </c>
+      <c r="E61" t="n">
+        <v>11.86</v>
+      </c>
+      <c r="F61" t="n">
+        <v>37715.0378</v>
+      </c>
+      <c r="G61" t="n">
+        <v>-1232738.237314346</v>
+      </c>
+      <c r="H61" t="n">
+        <v>2</v>
+      </c>
+      <c r="I61" t="n">
+        <v>11.86</v>
+      </c>
+      <c r="J61" t="n">
+        <v>11.86</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>11.86</v>
+      </c>
+      <c r="C62" t="n">
+        <v>11.86</v>
+      </c>
+      <c r="D62" t="n">
+        <v>11.86</v>
+      </c>
+      <c r="E62" t="n">
+        <v>11.86</v>
+      </c>
+      <c r="F62" t="n">
+        <v>11166.2744</v>
+      </c>
+      <c r="G62" t="n">
+        <v>-1232738.237314346</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>11.86</v>
+      </c>
+      <c r="K62" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="n">
-        <v>11.85</v>
-      </c>
-      <c r="C58" t="n">
-        <v>11.85</v>
-      </c>
-      <c r="D58" t="n">
-        <v>11.85</v>
-      </c>
-      <c r="E58" t="n">
-        <v>11.85</v>
-      </c>
-      <c r="F58" t="n">
-        <v>10176.8363</v>
-      </c>
-      <c r="G58" t="n">
-        <v>-1232781.237314346</v>
-      </c>
-      <c r="H58" t="n">
-        <v>1</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>11.85</v>
-      </c>
-      <c r="K58" t="n">
-        <v>11.86</v>
-      </c>
-      <c r="L58" t="inlineStr">
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>11.94</v>
+      </c>
+      <c r="C63" t="n">
+        <v>11.94</v>
+      </c>
+      <c r="D63" t="n">
+        <v>11.94</v>
+      </c>
+      <c r="E63" t="n">
+        <v>11.94</v>
+      </c>
+      <c r="F63" t="n">
+        <v>50</v>
+      </c>
+      <c r="G63" t="n">
+        <v>-1232688.237314346</v>
+      </c>
+      <c r="H63" t="n">
+        <v>2</v>
+      </c>
+      <c r="I63" t="n">
+        <v>11.86</v>
+      </c>
+      <c r="J63" t="n">
+        <v>11.86</v>
+      </c>
+      <c r="K63" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="n">
-        <v>11.85</v>
-      </c>
-      <c r="C59" t="n">
-        <v>11.85</v>
-      </c>
-      <c r="D59" t="n">
-        <v>11.85</v>
-      </c>
-      <c r="E59" t="n">
-        <v>11.85</v>
-      </c>
-      <c r="F59" t="n">
-        <v>37011.39711434599</v>
-      </c>
-      <c r="G59" t="n">
-        <v>-1232781.237314346</v>
-      </c>
-      <c r="H59" t="n">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
-      <c r="J59" t="n">
-        <v>11.85</v>
-      </c>
-      <c r="K59" t="n">
-        <v>11.85</v>
-      </c>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="n">
-        <v>11.86</v>
-      </c>
-      <c r="C60" t="n">
-        <v>11.86</v>
-      </c>
-      <c r="D60" t="n">
-        <v>11.86</v>
-      </c>
-      <c r="E60" t="n">
-        <v>11.86</v>
-      </c>
-      <c r="F60" t="n">
-        <v>43</v>
-      </c>
-      <c r="G60" t="n">
-        <v>-1232738.237314346</v>
-      </c>
-      <c r="H60" t="n">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
-      <c r="J60" t="n">
-        <v>11.85</v>
-      </c>
-      <c r="K60" t="n">
-        <v>11.85</v>
-      </c>
-      <c r="L60" t="inlineStr">
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>11.87</v>
+      </c>
+      <c r="C64" t="n">
+        <v>11.87</v>
+      </c>
+      <c r="D64" t="n">
+        <v>11.87</v>
+      </c>
+      <c r="E64" t="n">
+        <v>11.87</v>
+      </c>
+      <c r="F64" t="n">
+        <v>5056.1334</v>
+      </c>
+      <c r="G64" t="n">
+        <v>-1237744.370714346</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>11.87</v>
+      </c>
+      <c r="C65" t="n">
+        <v>11.87</v>
+      </c>
+      <c r="D65" t="n">
+        <v>11.87</v>
+      </c>
+      <c r="E65" t="n">
+        <v>11.87</v>
+      </c>
+      <c r="F65" t="n">
+        <v>12464.6216</v>
+      </c>
+      <c r="G65" t="n">
+        <v>-1237744.370714346</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>11.94</v>
+      </c>
+      <c r="C66" t="n">
+        <v>11.94</v>
+      </c>
+      <c r="D66" t="n">
+        <v>11.94</v>
+      </c>
+      <c r="E66" t="n">
+        <v>11.94</v>
+      </c>
+      <c r="F66" t="n">
+        <v>50</v>
+      </c>
+      <c r="G66" t="n">
+        <v>-1237694.370714346</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>11.88</v>
+      </c>
+      <c r="C67" t="n">
+        <v>11.88</v>
+      </c>
+      <c r="D67" t="n">
+        <v>11.88</v>
+      </c>
+      <c r="E67" t="n">
+        <v>11.88</v>
+      </c>
+      <c r="F67" t="n">
+        <v>16793.1182</v>
+      </c>
+      <c r="G67" t="n">
+        <v>-1254487.488914346</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>11.86</v>
+      </c>
+      <c r="C68" t="n">
+        <v>11.86</v>
+      </c>
+      <c r="D68" t="n">
+        <v>11.86</v>
+      </c>
+      <c r="E68" t="n">
+        <v>11.86</v>
+      </c>
+      <c r="F68" t="n">
+        <v>90000</v>
+      </c>
+      <c r="G68" t="n">
+        <v>-1344487.488914346</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>11.93</v>
+      </c>
+      <c r="C69" t="n">
+        <v>11.93</v>
+      </c>
+      <c r="D69" t="n">
+        <v>11.93</v>
+      </c>
+      <c r="E69" t="n">
+        <v>11.93</v>
+      </c>
+      <c r="F69" t="n">
+        <v>50</v>
+      </c>
+      <c r="G69" t="n">
+        <v>-1344437.488914346</v>
+      </c>
+      <c r="H69" t="n">
+        <v>2</v>
+      </c>
+      <c r="I69" t="n">
+        <v>11.86</v>
+      </c>
+      <c r="J69" t="n">
+        <v>11.86</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>11.86</v>
+      </c>
+      <c r="C70" t="n">
+        <v>11.86</v>
+      </c>
+      <c r="D70" t="n">
+        <v>11.86</v>
+      </c>
+      <c r="E70" t="n">
+        <v>11.86</v>
+      </c>
+      <c r="F70" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G70" t="n">
+        <v>-1349437.488914346</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>11.86</v>
+      </c>
+      <c r="K70" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="n">
-        <v>11.86</v>
-      </c>
-      <c r="C61" t="n">
-        <v>11.86</v>
-      </c>
-      <c r="D61" t="n">
-        <v>11.86</v>
-      </c>
-      <c r="E61" t="n">
-        <v>11.86</v>
-      </c>
-      <c r="F61" t="n">
-        <v>37715.0378</v>
-      </c>
-      <c r="G61" t="n">
-        <v>-1232738.237314346</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>11.85</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="n">
-        <v>11.86</v>
-      </c>
-      <c r="C62" t="n">
-        <v>11.86</v>
-      </c>
-      <c r="D62" t="n">
-        <v>11.86</v>
-      </c>
-      <c r="E62" t="n">
-        <v>11.86</v>
-      </c>
-      <c r="F62" t="n">
-        <v>11166.2744</v>
-      </c>
-      <c r="G62" t="n">
-        <v>-1232738.237314346</v>
-      </c>
-      <c r="H62" t="n">
-        <v>1</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>11.86</v>
-      </c>
-      <c r="K62" t="n">
-        <v>11.86</v>
-      </c>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="n">
-        <v>11.94</v>
-      </c>
-      <c r="C63" t="n">
-        <v>11.94</v>
-      </c>
-      <c r="D63" t="n">
-        <v>11.94</v>
-      </c>
-      <c r="E63" t="n">
-        <v>11.94</v>
-      </c>
-      <c r="F63" t="n">
-        <v>50</v>
-      </c>
-      <c r="G63" t="n">
-        <v>-1232688.237314346</v>
-      </c>
-      <c r="H63" t="n">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
-      <c r="J63" t="n">
-        <v>11.86</v>
-      </c>
-      <c r="K63" t="n">
-        <v>11.86</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="n">
-        <v>11.87</v>
-      </c>
-      <c r="C64" t="n">
-        <v>11.87</v>
-      </c>
-      <c r="D64" t="n">
-        <v>11.87</v>
-      </c>
-      <c r="E64" t="n">
-        <v>11.87</v>
-      </c>
-      <c r="F64" t="n">
-        <v>5056.1334</v>
-      </c>
-      <c r="G64" t="n">
-        <v>-1237744.370714346</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>11.86</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="n">
-        <v>11.87</v>
-      </c>
-      <c r="C65" t="n">
-        <v>11.87</v>
-      </c>
-      <c r="D65" t="n">
-        <v>11.87</v>
-      </c>
-      <c r="E65" t="n">
-        <v>11.87</v>
-      </c>
-      <c r="F65" t="n">
-        <v>12464.6216</v>
-      </c>
-      <c r="G65" t="n">
-        <v>-1237744.370714346</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="n">
-        <v>11.94</v>
-      </c>
-      <c r="C66" t="n">
-        <v>11.94</v>
-      </c>
-      <c r="D66" t="n">
-        <v>11.94</v>
-      </c>
-      <c r="E66" t="n">
-        <v>11.94</v>
-      </c>
-      <c r="F66" t="n">
-        <v>50</v>
-      </c>
-      <c r="G66" t="n">
-        <v>-1237694.370714346</v>
-      </c>
-      <c r="H66" t="n">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
-      <c r="J66" t="n">
-        <v>11.87</v>
-      </c>
-      <c r="K66" t="n">
-        <v>11.87</v>
-      </c>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="n">
-        <v>11.88</v>
-      </c>
-      <c r="C67" t="n">
-        <v>11.88</v>
-      </c>
-      <c r="D67" t="n">
-        <v>11.88</v>
-      </c>
-      <c r="E67" t="n">
-        <v>11.88</v>
-      </c>
-      <c r="F67" t="n">
-        <v>16793.1182</v>
-      </c>
-      <c r="G67" t="n">
-        <v>-1254487.488914346</v>
-      </c>
-      <c r="H67" t="n">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
-      <c r="J67" t="n">
-        <v>11.94</v>
-      </c>
-      <c r="K67" t="n">
-        <v>11.87</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="n">
-        <v>11.86</v>
-      </c>
-      <c r="C68" t="n">
-        <v>11.86</v>
-      </c>
-      <c r="D68" t="n">
-        <v>11.86</v>
-      </c>
-      <c r="E68" t="n">
-        <v>11.86</v>
-      </c>
-      <c r="F68" t="n">
-        <v>90000</v>
-      </c>
-      <c r="G68" t="n">
-        <v>-1344487.488914346</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>11.87</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="n">
-        <v>11.93</v>
-      </c>
-      <c r="C69" t="n">
-        <v>11.93</v>
-      </c>
-      <c r="D69" t="n">
-        <v>11.93</v>
-      </c>
-      <c r="E69" t="n">
-        <v>11.93</v>
-      </c>
-      <c r="F69" t="n">
-        <v>50</v>
-      </c>
-      <c r="G69" t="n">
-        <v>-1344437.488914346</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="n">
-        <v>11.86</v>
-      </c>
-      <c r="C70" t="n">
-        <v>11.86</v>
-      </c>
-      <c r="D70" t="n">
-        <v>11.86</v>
-      </c>
-      <c r="E70" t="n">
-        <v>11.86</v>
-      </c>
-      <c r="F70" t="n">
-        <v>5000</v>
-      </c>
-      <c r="G70" t="n">
-        <v>-1349437.488914346</v>
-      </c>
-      <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
-      <c r="J70" t="n">
-        <v>11.93</v>
-      </c>
-      <c r="K70" t="n">
-        <v>11.93</v>
-      </c>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3058,26 +2794,21 @@
         <v>-1419407.4889</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="n">
         <v>11.86</v>
       </c>
-      <c r="K71" t="n">
-        <v>11.93</v>
-      </c>
-      <c r="L71" t="inlineStr">
+      <c r="K71" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3102,26 +2833,21 @@
         <v>-1419365.4889</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="n">
-        <v>11.71</v>
-      </c>
-      <c r="K72" t="n">
-        <v>11.93</v>
-      </c>
-      <c r="L72" t="inlineStr">
+        <v>11.86</v>
+      </c>
+      <c r="K72" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3146,26 +2872,21 @@
         <v>-1419888.4876</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="n">
-        <v>11.92</v>
-      </c>
-      <c r="K73" t="n">
-        <v>11.93</v>
-      </c>
-      <c r="L73" t="inlineStr">
+        <v>11.86</v>
+      </c>
+      <c r="K73" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3190,26 +2911,21 @@
         <v>-619478.8037408392</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="n">
-        <v>11.82</v>
-      </c>
-      <c r="K74" t="n">
-        <v>11.93</v>
-      </c>
-      <c r="L74" t="inlineStr">
+        <v>11.86</v>
+      </c>
+      <c r="K74" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3236,22 +2952,19 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>11.93</v>
-      </c>
-      <c r="L75" t="inlineStr">
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>11.86</v>
+      </c>
+      <c r="K75" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3278,22 +2991,19 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>11.93</v>
-      </c>
-      <c r="L76" t="inlineStr">
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>11.86</v>
+      </c>
+      <c r="K76" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3320,22 +3030,19 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>11.93</v>
-      </c>
-      <c r="L77" t="inlineStr">
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>11.86</v>
+      </c>
+      <c r="K77" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3362,22 +3069,19 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>11.93</v>
-      </c>
-      <c r="L78" t="inlineStr">
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>11.86</v>
+      </c>
+      <c r="K78" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3404,22 +3108,19 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>11.93</v>
-      </c>
-      <c r="L79" t="inlineStr">
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>11.86</v>
+      </c>
+      <c r="K79" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3446,22 +3147,19 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>11.93</v>
-      </c>
-      <c r="L80" t="inlineStr">
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>11.86</v>
+      </c>
+      <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3486,24 +3184,23 @@
         <v>-702103.7031408391</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="n">
-        <v>0</v>
-      </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
         <v>11.93</v>
       </c>
-      <c r="L81" t="inlineStr">
+      <c r="J81" t="n">
+        <v>11.86</v>
+      </c>
+      <c r="K81" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3528,24 +3225,23 @@
         <v>-701453.7031408391</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="n">
-        <v>0</v>
-      </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
         <v>11.93</v>
       </c>
-      <c r="L82" t="inlineStr">
+      <c r="J82" t="n">
+        <v>11.86</v>
+      </c>
+      <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3572,22 +3268,19 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>11.93</v>
-      </c>
-      <c r="L83" t="inlineStr">
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>11.86</v>
+      </c>
+      <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3614,22 +3307,19 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>11.93</v>
-      </c>
-      <c r="L84" t="inlineStr">
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>11.86</v>
+      </c>
+      <c r="K84" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3654,26 +3344,21 @@
         <v>-702981.7561408391</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="n">
-        <v>12</v>
-      </c>
-      <c r="K85" t="n">
-        <v>11.93</v>
-      </c>
-      <c r="L85" t="inlineStr">
+        <v>11.86</v>
+      </c>
+      <c r="K85" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1.015236087689714</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3698,26 +3383,15 @@
         <v>-695931.7561408391</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
-      <c r="J86" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K86" t="n">
-        <v>11.93</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3744,22 +3418,13 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>11.93</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3786,22 +3451,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>11.93</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3828,22 +3484,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>11.93</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3870,22 +3517,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>11.93</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3912,22 +3550,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>11.93</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3954,22 +3583,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>11.93</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3996,22 +3616,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>11.93</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4038,22 +3649,13 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>11.93</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4080,22 +3682,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>11.93</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4122,22 +3715,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>11.93</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4164,22 +3748,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>11.93</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4206,22 +3781,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>11.93</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4248,22 +3814,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>11.93</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4290,22 +3847,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>11.93</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4332,22 +3880,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>11.93</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4374,22 +3913,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>11.93</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4416,22 +3946,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>11.93</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4458,22 +3979,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>11.93</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4500,22 +4012,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>11.93</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4542,22 +4045,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>11.93</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4584,22 +4078,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>11.93</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4626,22 +4111,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>11.93</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4668,22 +4144,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>11.93</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4710,22 +4177,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>11.93</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4752,22 +4210,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>11.93</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4794,22 +4243,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>11.93</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4836,22 +4276,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>11.93</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4878,22 +4309,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>11.93</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4920,22 +4342,13 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>11.93</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4962,22 +4375,13 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>11.93</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -5004,22 +4408,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>11.93</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -5046,22 +4441,13 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>11.93</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -5088,22 +4474,13 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>11.93</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5130,22 +4507,13 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>11.93</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5172,22 +4540,13 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>11.93</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5214,22 +4573,13 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>11.93</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5256,22 +4606,13 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>11.93</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5298,22 +4639,13 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>11.93</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5340,22 +4672,13 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>11.93</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5382,22 +4705,13 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>11.93</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5424,22 +4738,13 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>11.93</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5466,22 +4771,13 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>11.93</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5508,22 +4804,13 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>11.93</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5550,22 +4837,13 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>11.93</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5592,22 +4870,13 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>11.93</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5634,22 +4903,13 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>11.93</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5674,24 +4934,15 @@
         <v>-1256771.758740839</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>11.93</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5718,22 +4969,13 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="n">
-        <v>11.93</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5758,24 +5000,15 @@
         <v>-1256819.758740839</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="n">
-        <v>11.93</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5802,22 +5035,13 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="n">
-        <v>11.93</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5844,22 +5068,13 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="n">
-        <v>11.93</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5886,22 +5101,13 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="n">
-        <v>11.93</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5928,22 +5134,13 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="n">
-        <v>11.93</v>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5970,22 +5167,13 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
-        <v>11.93</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -6010,24 +5198,15 @@
         <v>-1228083.288240839</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="n">
-        <v>11.93</v>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -6054,22 +5233,13 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="n">
-        <v>11.93</v>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -6094,24 +5264,15 @@
         <v>-1270354.355840839</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="n">
-        <v>11.93</v>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -6138,22 +5299,13 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="n">
-        <v>11.93</v>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -6180,22 +5332,13 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="n">
-        <v>11.93</v>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -6222,22 +5365,13 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="n">
-        <v>11.93</v>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -6262,24 +5396,15 @@
         <v>-1108237.954240839</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="n">
-        <v>11.93</v>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -6306,22 +5431,13 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="n">
-        <v>11.93</v>
-      </c>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6348,22 +5464,13 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="n">
-        <v>11.93</v>
-      </c>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6390,22 +5497,13 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="n">
-        <v>11.93</v>
-      </c>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6430,24 +5528,15 @@
         <v>-1522850.101840839</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="n">
-        <v>11.93</v>
-      </c>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6474,22 +5563,13 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="n">
-        <v>11.93</v>
-      </c>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6514,24 +5594,15 @@
         <v>-1522850.101840839</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="n">
-        <v>11.93</v>
-      </c>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6558,22 +5629,13 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="n">
-        <v>11.93</v>
-      </c>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6600,22 +5662,13 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="n">
-        <v>11.93</v>
-      </c>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6642,22 +5695,13 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="n">
-        <v>11.93</v>
-      </c>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6684,22 +5728,13 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="n">
-        <v>11.93</v>
-      </c>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6726,22 +5761,13 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="n">
-        <v>11.93</v>
-      </c>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6768,22 +5794,13 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="n">
-        <v>11.93</v>
-      </c>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6810,22 +5827,13 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="n">
-        <v>11.93</v>
-      </c>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6850,28 +5858,17 @@
         <v>-1596925.182440839</v>
       </c>
       <c r="H161" t="n">
-        <v>1</v>
-      </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
-      <c r="J161" t="n">
-        <v>11.85</v>
-      </c>
-      <c r="K161" t="n">
-        <v>11.93</v>
-      </c>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I161" t="inlineStr"/>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-24 BackTest TRV.xlsx
+++ b/BackTest/2020-01-24 BackTest TRV.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-234018.7402000001</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-234018.7402000001</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-461739.1886000001</v>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-466617.4698000001</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-471431.3924000001</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-488956.6228000001</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-524598.2916000001</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-789135.1762000001</v>
       </c>
       <c r="H10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-789135.1762000001</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-881331.0422</v>
       </c>
       <c r="H13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-1027426.4385</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-1027426.4385</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-994300.8359000001</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-1135474.051</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-1135474.051</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-1141912.9318</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-1141912.9318</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-1141912.9318</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-1141812.9318</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-1141812.9318</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-862765.9125999999</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-889016.1658999999</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-889016.1658999999</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-916507.8076999999</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-956865.3365999999</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-986688.1451999999</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-1342797.8864</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1971,8 +1971,12 @@
       <c r="H48" t="n">
         <v>1</v>
       </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
+      <c r="I48" t="n">
+        <v>11.72</v>
+      </c>
+      <c r="J48" t="n">
+        <v>11.72</v>
+      </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
@@ -2002,11 +2006,19 @@
         <v>-1317690.0873</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I49" t="n">
+        <v>11.77</v>
+      </c>
+      <c r="J49" t="n">
+        <v>11.72</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2035,11 +2047,19 @@
         <v>-1323970.4613</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>11.78</v>
+      </c>
+      <c r="J50" t="n">
+        <v>11.72</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2068,10 +2088,14 @@
         <v>-1323970.4613</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I51" t="n">
+        <v>11.77</v>
+      </c>
+      <c r="J51" t="n">
+        <v>11.77</v>
+      </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
@@ -2101,11 +2125,19 @@
         <v>-1323970.4613</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>11.77</v>
+      </c>
+      <c r="J52" t="n">
+        <v>11.77</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2134,7 +2166,7 @@
         <v>-1329823.9784</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I53" t="n">
         <v>11.77</v>
@@ -2142,7 +2174,11 @@
       <c r="J53" t="n">
         <v>11.77</v>
       </c>
-      <c r="K53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2171,19 +2207,15 @@
         <v>-1303622.8521</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I54" t="n">
         <v>11.74</v>
       </c>
       <c r="J54" t="n">
-        <v>11.77</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>11.74</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2212,13 +2244,13 @@
         <v>-1232521.9005</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I55" t="n">
         <v>11.82</v>
       </c>
       <c r="J55" t="n">
-        <v>11.77</v>
+        <v>11.74</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
@@ -2253,15 +2285,19 @@
         <v>-1232865.6255</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I56" t="n">
         <v>11.86</v>
       </c>
       <c r="J56" t="n">
-        <v>11.86</v>
-      </c>
-      <c r="K56" t="inlineStr"/>
+        <v>11.74</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2290,19 +2326,15 @@
         <v>-1232781.237314346</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I57" t="n">
         <v>11.74</v>
       </c>
       <c r="J57" t="n">
-        <v>11.86</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>11.74</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2331,11 +2363,13 @@
         <v>-1232781.237314346</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I58" t="n">
+        <v>11.85</v>
+      </c>
       <c r="J58" t="n">
-        <v>11.86</v>
+        <v>11.74</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
@@ -2370,11 +2404,19 @@
         <v>-1232781.237314346</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>11.85</v>
+      </c>
+      <c r="J59" t="n">
+        <v>11.74</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2403,10 +2445,14 @@
         <v>-1232738.237314346</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>11.85</v>
+      </c>
+      <c r="J60" t="n">
+        <v>11.85</v>
+      </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
@@ -2436,15 +2482,19 @@
         <v>-1232738.237314346</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I61" t="n">
         <v>11.86</v>
       </c>
       <c r="J61" t="n">
-        <v>11.86</v>
-      </c>
-      <c r="K61" t="inlineStr"/>
+        <v>11.85</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2473,11 +2523,13 @@
         <v>-1232738.237314346</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I62" t="n">
+        <v>11.86</v>
+      </c>
       <c r="J62" t="n">
-        <v>11.86</v>
+        <v>11.85</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -2512,7 +2564,7 @@
         <v>-1232688.237314346</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I63" t="n">
         <v>11.86</v>
@@ -2520,11 +2572,7 @@
       <c r="J63" t="n">
         <v>11.86</v>
       </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2553,11 +2601,19 @@
         <v>-1237744.370714346</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I64" t="n">
+        <v>11.94</v>
+      </c>
+      <c r="J64" t="n">
+        <v>11.86</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2589,8 +2645,14 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>11.86</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2718,14 +2780,10 @@
         <v>-1344437.488914346</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
-      </c>
-      <c r="I69" t="n">
-        <v>11.86</v>
-      </c>
-      <c r="J69" t="n">
-        <v>11.86</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
@@ -2758,14 +2816,8 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>11.86</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2794,12 +2846,12 @@
         <v>-1419407.4889</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
+        <v>1</v>
+      </c>
+      <c r="I71" t="n">
         <v>11.86</v>
       </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr">
         <is>
           <t>매수 체결</t>
@@ -2833,12 +2885,12 @@
         <v>-1419365.4889</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>11.86</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I72" t="n">
+        <v>11.71</v>
+      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2872,12 +2924,12 @@
         <v>-1419888.4876</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>11.86</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>11.92</v>
+      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2911,12 +2963,12 @@
         <v>-619478.8037408392</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>11.86</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>11.82</v>
+      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2953,9 +3005,7 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>11.86</v>
-      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2992,9 +3042,7 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>11.86</v>
-      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3031,9 +3079,7 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>11.86</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3070,9 +3116,7 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>11.86</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3109,9 +3153,7 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>11.86</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3148,9 +3190,7 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>11.86</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3184,14 +3224,10 @@
         <v>-702103.7031408391</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
-      </c>
-      <c r="I81" t="n">
-        <v>11.93</v>
-      </c>
-      <c r="J81" t="n">
-        <v>11.86</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3225,14 +3261,10 @@
         <v>-701453.7031408391</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
-      </c>
-      <c r="I82" t="n">
-        <v>11.93</v>
-      </c>
-      <c r="J82" t="n">
-        <v>11.86</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3266,12 +3298,12 @@
         <v>-701403.7031408391</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>11.86</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I83" t="n">
+        <v>12.09</v>
+      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3308,9 +3340,7 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>11.86</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3344,19 +3374,17 @@
         <v>-702981.7561408391</v>
       </c>
       <c r="H85" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>11.86</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L85" t="n">
-        <v>1.015236087689714</v>
+        <v>1</v>
       </c>
       <c r="M85" t="inlineStr"/>
     </row>
@@ -3387,7 +3415,11 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3420,7 +3452,11 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3453,7 +3489,11 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3486,7 +3526,11 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3519,7 +3563,11 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3552,7 +3600,11 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3585,7 +3637,11 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3618,7 +3674,11 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3651,7 +3711,11 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3684,7 +3748,11 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3717,7 +3785,11 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3750,7 +3822,11 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3783,7 +3859,11 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3816,7 +3896,11 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3849,7 +3933,11 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3882,7 +3970,11 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3915,7 +4007,11 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3948,7 +4044,11 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3981,7 +4081,11 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4014,7 +4118,11 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4047,7 +4155,11 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4080,7 +4192,11 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4113,7 +4229,11 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4146,7 +4266,11 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4179,7 +4303,11 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4212,7 +4340,11 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4245,7 +4377,11 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4278,7 +4414,11 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4311,7 +4451,11 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4344,7 +4488,11 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4377,7 +4525,11 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4410,7 +4562,11 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4443,7 +4599,11 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4476,7 +4636,11 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4509,7 +4673,11 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4542,7 +4710,11 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4575,7 +4747,11 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4608,7 +4784,11 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4641,7 +4821,11 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4674,7 +4858,11 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4707,7 +4895,11 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4740,7 +4932,11 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4773,7 +4969,11 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4806,7 +5006,11 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4839,7 +5043,11 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4872,7 +5080,11 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4905,7 +5117,11 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4934,11 +5150,15 @@
         <v>-1256771.758740839</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4971,7 +5191,11 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5000,11 +5224,15 @@
         <v>-1256819.758740839</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5037,7 +5265,11 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5070,7 +5302,11 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5103,7 +5339,11 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5136,7 +5376,11 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5169,7 +5413,11 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5198,11 +5446,15 @@
         <v>-1228083.288240839</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5235,7 +5487,11 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5264,11 +5520,15 @@
         <v>-1270354.355840839</v>
       </c>
       <c r="H143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5301,7 +5561,11 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5334,7 +5598,11 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5367,7 +5635,11 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5396,11 +5668,15 @@
         <v>-1108237.954240839</v>
       </c>
       <c r="H147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5433,7 +5709,11 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5466,7 +5746,11 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5499,7 +5783,11 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5528,11 +5816,15 @@
         <v>-1522850.101840839</v>
       </c>
       <c r="H151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5565,7 +5857,11 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5594,11 +5890,15 @@
         <v>-1522850.101840839</v>
       </c>
       <c r="H153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5631,7 +5931,11 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5664,7 +5968,11 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5697,7 +6005,11 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5730,7 +6042,11 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5763,7 +6079,11 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5796,7 +6116,11 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5825,11 +6149,17 @@
         <v>-1616490.826640839</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I160" t="n">
+        <v>11.86</v>
+      </c>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5858,17 +6188,23 @@
         <v>-1596925.182440839</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I161" t="n">
+        <v>11.85</v>
+      </c>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
       <c r="M161" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-24 BackTest TRV.xlsx
+++ b/BackTest/2020-01-24 BackTest TRV.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-234018.7402000001</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-234018.7402000001</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-461739.1886000001</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-466617.4698000001</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-471431.3924000001</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-488956.6228000001</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-524598.2916000001</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-789135.1762000001</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-881331.0422</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -1936,11 +1936,17 @@
         <v>-1342797.8864</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>11.72</v>
+      </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -1974,10 +1980,12 @@
       <c r="I48" t="n">
         <v>11.72</v>
       </c>
-      <c r="J48" t="n">
-        <v>11.72</v>
-      </c>
-      <c r="K48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2011,12 +2019,10 @@
       <c r="I49" t="n">
         <v>11.77</v>
       </c>
-      <c r="J49" t="n">
-        <v>11.72</v>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L49" t="n">
@@ -2052,12 +2058,10 @@
       <c r="I50" t="n">
         <v>11.78</v>
       </c>
-      <c r="J50" t="n">
-        <v>11.72</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L50" t="n">
@@ -2093,10 +2097,12 @@
       <c r="I51" t="n">
         <v>11.77</v>
       </c>
-      <c r="J51" t="n">
-        <v>11.77</v>
-      </c>
-      <c r="K51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2130,12 +2136,10 @@
       <c r="I52" t="n">
         <v>11.77</v>
       </c>
-      <c r="J52" t="n">
-        <v>11.77</v>
-      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L52" t="n">
@@ -2171,12 +2175,10 @@
       <c r="I53" t="n">
         <v>11.77</v>
       </c>
-      <c r="J53" t="n">
-        <v>11.77</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L53" t="n">
@@ -2212,10 +2214,12 @@
       <c r="I54" t="n">
         <v>11.74</v>
       </c>
-      <c r="J54" t="n">
-        <v>11.74</v>
-      </c>
-      <c r="K54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2249,12 +2253,10 @@
       <c r="I55" t="n">
         <v>11.82</v>
       </c>
-      <c r="J55" t="n">
-        <v>11.74</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L55" t="n">
@@ -2285,17 +2287,13 @@
         <v>-1232865.6255</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
-      </c>
-      <c r="I56" t="n">
-        <v>11.86</v>
-      </c>
-      <c r="J56" t="n">
-        <v>11.74</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L56" t="n">
@@ -2331,10 +2329,12 @@
       <c r="I57" t="n">
         <v>11.74</v>
       </c>
-      <c r="J57" t="n">
-        <v>11.74</v>
-      </c>
-      <c r="K57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2368,12 +2368,10 @@
       <c r="I58" t="n">
         <v>11.85</v>
       </c>
-      <c r="J58" t="n">
-        <v>11.74</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L58" t="n">
@@ -2404,17 +2402,13 @@
         <v>-1232781.237314346</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>11.85</v>
-      </c>
-      <c r="J59" t="n">
-        <v>11.74</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L59" t="n">
@@ -2445,15 +2439,15 @@
         <v>-1232738.237314346</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>11.85</v>
-      </c>
-      <c r="J60" t="n">
-        <v>11.85</v>
-      </c>
-      <c r="K60" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2482,17 +2476,13 @@
         <v>-1232738.237314346</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>11.86</v>
-      </c>
-      <c r="J61" t="n">
-        <v>11.85</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L61" t="n">
@@ -2523,17 +2513,13 @@
         <v>-1232738.237314346</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
-      </c>
-      <c r="I62" t="n">
-        <v>11.86</v>
-      </c>
-      <c r="J62" t="n">
-        <v>11.85</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L62" t="n">
@@ -2564,15 +2550,15 @@
         <v>-1232688.237314346</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>11.86</v>
-      </c>
-      <c r="J63" t="n">
-        <v>11.86</v>
-      </c>
-      <c r="K63" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2601,17 +2587,13 @@
         <v>-1237744.370714346</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>11.94</v>
-      </c>
-      <c r="J64" t="n">
-        <v>11.86</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L64" t="n">
@@ -2645,12 +2627,10 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>11.86</v>
-      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L65" t="n">
@@ -2685,7 +2665,11 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2718,7 +2702,11 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2751,7 +2739,11 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2784,7 +2776,11 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2817,7 +2813,11 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2846,15 +2846,13 @@
         <v>-1419407.4889</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>11.86</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L71" t="n">
@@ -2924,11 +2922,9 @@
         <v>-1419888.4876</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>11.92</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr">
         <is>
@@ -2963,11 +2959,9 @@
         <v>-619478.8037408392</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>11.82</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr">
         <is>
@@ -3298,11 +3292,9 @@
         <v>-701403.7031408391</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
-      </c>
-      <c r="I83" t="n">
-        <v>12.09</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr">
         <is>
@@ -3929,18 +3921,16 @@
         <v>-756902.903840839</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr">
         <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
@@ -3970,11 +3960,7 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4007,11 +3993,7 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4044,11 +4026,7 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4077,15 +4055,11 @@
         <v>-689648.3207408391</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4114,15 +4088,11 @@
         <v>-689598.3207408391</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4151,15 +4121,11 @@
         <v>-707620.9878408391</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4188,15 +4154,11 @@
         <v>-707620.9878408391</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4229,11 +4191,7 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4266,11 +4224,7 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4303,11 +4257,7 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4340,11 +4290,7 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4377,11 +4323,7 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4414,11 +4356,7 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4451,11 +4389,7 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4488,11 +4422,7 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4525,11 +4455,7 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4562,11 +4488,7 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4599,11 +4521,7 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4636,11 +4554,7 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4673,11 +4587,7 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4710,11 +4620,7 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4747,11 +4653,7 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4784,11 +4686,7 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4821,11 +4719,7 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4858,11 +4752,7 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4895,11 +4785,7 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4932,11 +4818,7 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4969,11 +4851,7 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5006,11 +4884,7 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5043,11 +4917,7 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5080,11 +4950,7 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5117,11 +4983,7 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5154,11 +5016,7 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5191,11 +5049,7 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5228,11 +5082,7 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5265,11 +5115,7 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5302,11 +5148,7 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5339,11 +5181,7 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5376,11 +5214,7 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5413,11 +5247,7 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5450,11 +5280,7 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5487,11 +5313,7 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5524,11 +5346,7 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5561,11 +5379,7 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5598,11 +5412,7 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5635,11 +5445,7 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5672,11 +5478,7 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5709,11 +5511,7 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5746,11 +5544,7 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5783,11 +5577,7 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5820,11 +5610,7 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5857,11 +5643,7 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5894,11 +5676,7 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5931,11 +5709,7 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5968,11 +5742,7 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6005,11 +5775,7 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6042,11 +5808,7 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6079,11 +5841,7 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6116,11 +5874,7 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6149,17 +5903,11 @@
         <v>-1616490.826640839</v>
       </c>
       <c r="H160" t="n">
-        <v>1</v>
-      </c>
-      <c r="I160" t="n">
-        <v>11.86</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6188,23 +5936,17 @@
         <v>-1596925.182440839</v>
       </c>
       <c r="H161" t="n">
-        <v>1</v>
-      </c>
-      <c r="I161" t="n">
-        <v>11.85</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
       <c r="M161" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-24 BackTest TRV.xlsx
+++ b/BackTest/2020-01-24 BackTest TRV.xlsx
@@ -451,7 +451,7 @@
         <v>-234018.7402000001</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-234018.7402000001</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-461739.1886000001</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-466617.4698000001</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-471431.3924000001</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-488956.6228000001</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-524598.2916000001</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-724100.0716000001</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-789135.1762000001</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-789135.1762000001</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-881331.0422</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -1936,17 +1936,11 @@
         <v>-1342797.8864</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>11.72</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -1975,17 +1969,11 @@
         <v>-1323970.4613</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>11.72</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2014,17 +2002,11 @@
         <v>-1317690.0873</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
-      </c>
-      <c r="I49" t="n">
-        <v>11.77</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2053,17 +2035,11 @@
         <v>-1323970.4613</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>11.78</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2092,17 +2068,11 @@
         <v>-1323970.4613</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
-      </c>
-      <c r="I51" t="n">
-        <v>11.77</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2131,17 +2101,11 @@
         <v>-1323970.4613</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>11.77</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2175,12 +2139,10 @@
       <c r="I53" t="n">
         <v>11.77</v>
       </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J53" t="n">
+        <v>11.77</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2214,10 +2176,12 @@
       <c r="I54" t="n">
         <v>11.74</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>11.77</v>
+      </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L54" t="n">
@@ -2253,10 +2217,12 @@
       <c r="I55" t="n">
         <v>11.82</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>11.77</v>
+      </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L55" t="n">
@@ -2291,11 +2257,7 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2329,12 +2291,10 @@
       <c r="I57" t="n">
         <v>11.74</v>
       </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J57" t="n">
+        <v>11.74</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2368,10 +2328,12 @@
       <c r="I58" t="n">
         <v>11.85</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>11.74</v>
+      </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L58" t="n">
@@ -2402,13 +2364,17 @@
         <v>-1232781.237314346</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>11.85</v>
+      </c>
+      <c r="J59" t="n">
+        <v>11.74</v>
+      </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L59" t="n">
@@ -2439,15 +2405,15 @@
         <v>-1232738.237314346</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>11.85</v>
+      </c>
+      <c r="J60" t="n">
+        <v>11.85</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2476,13 +2442,17 @@
         <v>-1232738.237314346</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>11.86</v>
+      </c>
+      <c r="J61" t="n">
+        <v>11.85</v>
+      </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L61" t="n">
@@ -2513,13 +2483,17 @@
         <v>-1232738.237314346</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I62" t="n">
+        <v>11.86</v>
+      </c>
+      <c r="J62" t="n">
+        <v>11.85</v>
+      </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L62" t="n">
@@ -2550,15 +2524,15 @@
         <v>-1232688.237314346</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I63" t="n">
+        <v>11.86</v>
+      </c>
+      <c r="J63" t="n">
+        <v>11.86</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2590,10 +2564,12 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>11.86</v>
+      </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L64" t="n">
@@ -2624,13 +2600,17 @@
         <v>-1237744.370714346</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>11.87</v>
+      </c>
+      <c r="J65" t="n">
+        <v>11.86</v>
+      </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L65" t="n">
@@ -2661,15 +2641,15 @@
         <v>-1237694.370714346</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I66" t="n">
+        <v>11.87</v>
+      </c>
+      <c r="J66" t="n">
+        <v>11.87</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2698,13 +2678,17 @@
         <v>-1254487.488914346</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>11.94</v>
+      </c>
+      <c r="J67" t="n">
+        <v>11.87</v>
+      </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L67" t="n">
@@ -2735,13 +2719,17 @@
         <v>-1344487.488914346</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>11.88</v>
+      </c>
+      <c r="J68" t="n">
+        <v>11.87</v>
+      </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L68" t="n">
@@ -2772,15 +2760,15 @@
         <v>-1344437.488914346</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I69" t="n">
+        <v>11.86</v>
+      </c>
+      <c r="J69" t="n">
+        <v>11.86</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2809,13 +2797,17 @@
         <v>-1349437.488914346</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>11.93</v>
+      </c>
+      <c r="J70" t="n">
+        <v>11.86</v>
+      </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L70" t="n">
@@ -2846,13 +2838,17 @@
         <v>-1419407.4889</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>11.86</v>
+      </c>
+      <c r="J71" t="n">
+        <v>11.86</v>
+      </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L71" t="n">
@@ -2888,7 +2884,9 @@
       <c r="I72" t="n">
         <v>11.71</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>11.86</v>
+      </c>
       <c r="K72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2922,10 +2920,14 @@
         <v>-1419888.4876</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>11.92</v>
+      </c>
+      <c r="J73" t="n">
+        <v>11.86</v>
+      </c>
       <c r="K73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2959,10 +2961,14 @@
         <v>-619478.8037408392</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>11.82</v>
+      </c>
+      <c r="J74" t="n">
+        <v>11.86</v>
+      </c>
       <c r="K74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2996,10 +3002,12 @@
         <v>-619528.8037408392</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>11.86</v>
+      </c>
       <c r="K75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3033,10 +3041,12 @@
         <v>-619578.8037408392</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>11.86</v>
+      </c>
       <c r="K76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3070,10 +3080,12 @@
         <v>-656562.2942408392</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>11.86</v>
+      </c>
       <c r="K77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3110,7 +3122,9 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>11.86</v>
+      </c>
       <c r="K78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3147,7 +3161,9 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>11.86</v>
+      </c>
       <c r="K79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3184,7 +3200,9 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>11.86</v>
+      </c>
       <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3221,7 +3239,9 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>11.86</v>
+      </c>
       <c r="K81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3258,7 +3278,9 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>11.86</v>
+      </c>
       <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3295,7 +3317,9 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>11.86</v>
+      </c>
       <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3332,7 +3356,9 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>11.86</v>
+      </c>
       <c r="K84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3369,7 +3395,9 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>11.86</v>
+      </c>
       <c r="K85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3406,7 +3434,9 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>11.86</v>
+      </c>
       <c r="K86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3443,7 +3473,9 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>11.86</v>
+      </c>
       <c r="K87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3480,7 +3512,9 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>11.86</v>
+      </c>
       <c r="K88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3517,7 +3551,9 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>11.86</v>
+      </c>
       <c r="K89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3554,7 +3590,9 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>11.86</v>
+      </c>
       <c r="K90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3591,7 +3629,9 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>11.86</v>
+      </c>
       <c r="K91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3628,7 +3668,9 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>11.86</v>
+      </c>
       <c r="K92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3665,7 +3707,9 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>11.86</v>
+      </c>
       <c r="K93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3702,7 +3746,9 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>11.86</v>
+      </c>
       <c r="K94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3739,7 +3785,9 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>11.86</v>
+      </c>
       <c r="K95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3776,7 +3824,9 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>11.86</v>
+      </c>
       <c r="K96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3813,7 +3863,9 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>11.86</v>
+      </c>
       <c r="K97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3850,7 +3902,9 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>11.86</v>
+      </c>
       <c r="K98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3887,7 +3941,9 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>11.86</v>
+      </c>
       <c r="K99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3921,16 +3977,20 @@
         <v>-756902.903840839</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>11.86</v>
+      </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L100" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
       <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
@@ -3959,8 +4019,14 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>11.86</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3992,8 +4058,14 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>11.86</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4025,8 +4097,14 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>11.86</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4055,11 +4133,17 @@
         <v>-689648.3207408391</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>11.86</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4088,11 +4172,17 @@
         <v>-689598.3207408391</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>11.86</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4121,11 +4211,17 @@
         <v>-707620.9878408391</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>11.86</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4154,11 +4250,17 @@
         <v>-707620.9878408391</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>11.86</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4190,8 +4292,14 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>11.86</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4223,8 +4331,14 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>11.86</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4256,8 +4370,14 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>11.86</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4289,8 +4409,14 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>11.86</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4322,8 +4448,14 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>11.86</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4355,8 +4487,14 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>11.86</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4388,8 +4526,14 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>11.86</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4421,8 +4565,14 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>11.86</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4454,8 +4604,14 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>11.86</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4487,8 +4643,14 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>11.86</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4520,8 +4682,14 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>11.86</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4553,8 +4721,14 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>11.86</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4586,8 +4760,14 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>11.86</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4619,8 +4799,14 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>11.86</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4652,8 +4838,14 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>11.86</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4685,8 +4877,14 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>11.86</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4718,8 +4916,14 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>11.86</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4751,8 +4955,14 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>11.86</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4784,8 +4994,14 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>11.86</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4817,8 +5033,14 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>11.86</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4850,8 +5072,14 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>11.86</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4883,8 +5111,14 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>11.86</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4916,8 +5150,14 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>11.86</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4949,8 +5189,14 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>11.86</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4982,8 +5228,14 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>11.86</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5015,8 +5267,14 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>11.86</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5048,8 +5306,14 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>11.86</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5081,8 +5345,14 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>11.86</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5114,8 +5384,14 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>11.86</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5147,8 +5423,14 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>11.86</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5180,8 +5462,14 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>11.86</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5213,8 +5501,14 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>11.86</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5246,8 +5540,14 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>11.86</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5279,8 +5579,14 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>11.86</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5312,8 +5618,14 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>11.86</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5345,8 +5657,14 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>11.86</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5378,8 +5696,14 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>11.86</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5411,8 +5735,14 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>11.86</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5444,8 +5774,14 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>11.86</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5477,8 +5813,14 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>11.86</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5510,8 +5852,14 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>11.86</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5543,8 +5891,14 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>11.86</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5576,8 +5930,14 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>11.86</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5609,8 +5969,14 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>11.86</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5642,8 +6008,14 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>11.86</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5675,8 +6047,14 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>11.86</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5708,8 +6086,14 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>11.86</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5741,8 +6125,14 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>11.86</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5774,8 +6164,14 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>11.86</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5807,8 +6203,14 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>11.86</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5840,8 +6242,14 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>11.86</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5873,8 +6281,14 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>11.86</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5906,8 +6320,14 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>11.86</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5939,8 +6359,14 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>11.86</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2020-01-24 BackTest TRV.xlsx
+++ b/BackTest/2020-01-24 BackTest TRV.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M161"/>
+  <dimension ref="A1:L161"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>OBV</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>trade_state</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>71468.9246</v>
       </c>
       <c r="G2" t="n">
-        <v>-234018.7402000001</v>
-      </c>
-      <c r="H2" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>19474.1649</v>
       </c>
       <c r="G3" t="n">
-        <v>-234018.7402000001</v>
-      </c>
-      <c r="H3" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>227720.4484</v>
       </c>
       <c r="G4" t="n">
-        <v>-461739.1886000001</v>
-      </c>
-      <c r="H4" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>4878.2812</v>
       </c>
       <c r="G5" t="n">
-        <v>-466617.4698000001</v>
-      </c>
-      <c r="H5" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>4813.9226</v>
       </c>
       <c r="G6" t="n">
-        <v>-471431.3924000001</v>
-      </c>
-      <c r="H6" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>17525.2304</v>
       </c>
       <c r="G7" t="n">
-        <v>-488956.6228000001</v>
-      </c>
-      <c r="H7" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>35641.6688</v>
       </c>
       <c r="G8" t="n">
-        <v>-524598.2916000001</v>
-      </c>
-      <c r="H8" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>199501.78</v>
       </c>
       <c r="G9" t="n">
-        <v>-724100.0716000001</v>
-      </c>
-      <c r="H9" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>65035.1046</v>
       </c>
       <c r="G10" t="n">
-        <v>-789135.1762000001</v>
-      </c>
-      <c r="H10" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>105564.8314</v>
       </c>
       <c r="G11" t="n">
-        <v>-789135.1762000001</v>
-      </c>
-      <c r="H11" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>2774.3367</v>
       </c>
       <c r="G12" t="n">
-        <v>-791909.5129000001</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>89421.52929999999</v>
       </c>
       <c r="G13" t="n">
-        <v>-881331.0422</v>
-      </c>
-      <c r="H13" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>146087.3963</v>
       </c>
       <c r="G14" t="n">
-        <v>-1027418.4385</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>42</v>
       </c>
       <c r="G15" t="n">
-        <v>-1027376.4385</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>50</v>
       </c>
       <c r="G16" t="n">
-        <v>-1027426.4385</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>4183.381</v>
       </c>
       <c r="G17" t="n">
-        <v>-1027426.4385</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>83125.6026</v>
       </c>
       <c r="G18" t="n">
-        <v>-944300.8359000001</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>50000</v>
       </c>
       <c r="G19" t="n">
-        <v>-994300.8359000001</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>141173.2151</v>
       </c>
       <c r="G20" t="n">
-        <v>-1135474.051</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>20511.8297</v>
       </c>
       <c r="G21" t="n">
-        <v>-1135474.051</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>21657.5561</v>
       </c>
       <c r="G22" t="n">
-        <v>-1135474.051</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>2521.0085</v>
       </c>
       <c r="G23" t="n">
-        <v>-1135474.051</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>6438.8808</v>
       </c>
       <c r="G24" t="n">
-        <v>-1141912.9318</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>980.9155</v>
       </c>
       <c r="G25" t="n">
-        <v>-1141912.9318</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>33249.043</v>
       </c>
       <c r="G26" t="n">
-        <v>-1141912.9318</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,15 @@
         <v>100</v>
       </c>
       <c r="G27" t="n">
-        <v>-1141812.9318</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1223,15 @@
         <v>50</v>
       </c>
       <c r="G28" t="n">
-        <v>-1141812.9318</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1253,15 @@
         <v>279047.0192</v>
       </c>
       <c r="G29" t="n">
-        <v>-862765.9125999999</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1283,15 @@
         <v>26250.2533</v>
       </c>
       <c r="G30" t="n">
-        <v>-889016.1658999999</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1313,15 @@
         <v>57714.8541</v>
       </c>
       <c r="G31" t="n">
-        <v>-889016.1658999999</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1343,15 @@
         <v>27491.6418</v>
       </c>
       <c r="G32" t="n">
-        <v>-916507.8076999999</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1373,15 @@
         <v>9219.693499999999</v>
       </c>
       <c r="G33" t="n">
-        <v>-916507.8076999999</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1403,15 @@
         <v>1322.2796</v>
       </c>
       <c r="G34" t="n">
-        <v>-917830.0872999999</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1433,15 @@
         <v>39035.2493</v>
       </c>
       <c r="G35" t="n">
-        <v>-956865.3365999999</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1463,15 @@
         <v>2027.6793</v>
       </c>
       <c r="G36" t="n">
-        <v>-956865.3365999999</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1493,15 @@
         <v>29822.8086</v>
       </c>
       <c r="G37" t="n">
-        <v>-986688.1451999999</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1523,15 @@
         <v>176</v>
       </c>
       <c r="G38" t="n">
-        <v>-986512.1451999999</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1553,15 @@
         <v>574</v>
       </c>
       <c r="G39" t="n">
-        <v>-986512.1451999999</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1583,15 @@
         <v>512</v>
       </c>
       <c r="G40" t="n">
-        <v>-986512.1451999999</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1613,15 @@
         <v>91450.74099999999</v>
       </c>
       <c r="G41" t="n">
-        <v>-1077962.8862</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1643,15 @@
         <v>66</v>
       </c>
       <c r="G42" t="n">
-        <v>-1077896.8862</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1673,15 @@
         <v>275.3653</v>
       </c>
       <c r="G43" t="n">
-        <v>-1078172.2515</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1703,15 @@
         <v>219597.8189</v>
       </c>
       <c r="G44" t="n">
-        <v>-1297770.0704</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1733,15 @@
         <v>66</v>
       </c>
       <c r="G45" t="n">
-        <v>-1297704.0704</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1763,15 @@
         <v>45093.816</v>
       </c>
       <c r="G46" t="n">
-        <v>-1342797.8864</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1793,15 @@
         <v>170000</v>
       </c>
       <c r="G47" t="n">
-        <v>-1342797.8864</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1823,15 @@
         <v>18827.4251</v>
       </c>
       <c r="G48" t="n">
-        <v>-1323970.4613</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1853,15 @@
         <v>6280.374</v>
       </c>
       <c r="G49" t="n">
-        <v>-1317690.0873</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1883,19 @@
         <v>6280.374</v>
       </c>
       <c r="G50" t="n">
-        <v>-1323970.4613</v>
+        <v>1</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
+        <v>11.78</v>
+      </c>
+      <c r="I50" t="n">
+        <v>11.78</v>
+      </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +1917,23 @@
         <v>19986.7523</v>
       </c>
       <c r="G51" t="n">
-        <v>-1323970.4613</v>
+        <v>1</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+        <v>11.77</v>
+      </c>
+      <c r="I51" t="n">
+        <v>11.78</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +1955,23 @@
         <v>367.8017</v>
       </c>
       <c r="G52" t="n">
-        <v>-1323970.4613</v>
+        <v>1</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+        <v>11.77</v>
+      </c>
+      <c r="I52" t="n">
+        <v>11.78</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,22 +1993,19 @@
         <v>5853.5171</v>
       </c>
       <c r="G53" t="n">
-        <v>-1329823.9784</v>
+        <v>1</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>11.77</v>
       </c>
       <c r="I53" t="n">
         <v>11.77</v>
       </c>
-      <c r="J53" t="n">
-        <v>11.77</v>
-      </c>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2168,26 +2027,23 @@
         <v>26201.1263</v>
       </c>
       <c r="G54" t="n">
-        <v>-1303622.8521</v>
+        <v>1</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>11.74</v>
       </c>
       <c r="I54" t="n">
-        <v>11.74</v>
-      </c>
-      <c r="J54" t="n">
         <v>11.77</v>
       </c>
-      <c r="K54" t="inlineStr">
+      <c r="J54" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2209,26 +2065,23 @@
         <v>71100.9516</v>
       </c>
       <c r="G55" t="n">
-        <v>-1232521.9005</v>
+        <v>1</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>11.82</v>
       </c>
       <c r="I55" t="n">
-        <v>11.82</v>
-      </c>
-      <c r="J55" t="n">
         <v>11.77</v>
       </c>
-      <c r="K55" t="inlineStr">
+      <c r="J55" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2250,18 +2103,19 @@
         <v>343.725</v>
       </c>
       <c r="G56" t="n">
-        <v>-1232865.6255</v>
+        <v>1</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
+        <v>11.86</v>
+      </c>
+      <c r="I56" t="n">
+        <v>11.86</v>
+      </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2283,22 +2137,23 @@
         <v>84.38818565400844</v>
       </c>
       <c r="G57" t="n">
-        <v>-1232781.237314346</v>
+        <v>1</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>11.74</v>
       </c>
       <c r="I57" t="n">
-        <v>11.74</v>
-      </c>
-      <c r="J57" t="n">
-        <v>11.74</v>
-      </c>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+        <v>11.86</v>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2320,26 +2175,23 @@
         <v>10176.8363</v>
       </c>
       <c r="G58" t="n">
-        <v>-1232781.237314346</v>
+        <v>1</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>11.85</v>
       </c>
       <c r="I58" t="n">
-        <v>11.85</v>
-      </c>
-      <c r="J58" t="n">
-        <v>11.74</v>
-      </c>
-      <c r="K58" t="inlineStr">
+        <v>11.86</v>
+      </c>
+      <c r="J58" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2361,26 +2213,15 @@
         <v>37011.39711434599</v>
       </c>
       <c r="G59" t="n">
-        <v>-1232781.237314346</v>
-      </c>
-      <c r="H59" t="n">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>11.85</v>
-      </c>
-      <c r="J59" t="n">
-        <v>11.74</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2402,22 +2243,15 @@
         <v>43</v>
       </c>
       <c r="G60" t="n">
-        <v>-1232738.237314346</v>
-      </c>
-      <c r="H60" t="n">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>11.85</v>
-      </c>
-      <c r="J60" t="n">
-        <v>11.85</v>
-      </c>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2439,26 +2273,15 @@
         <v>37715.0378</v>
       </c>
       <c r="G61" t="n">
-        <v>-1232738.237314346</v>
-      </c>
-      <c r="H61" t="n">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>11.86</v>
-      </c>
-      <c r="J61" t="n">
-        <v>11.85</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2480,26 +2303,15 @@
         <v>11166.2744</v>
       </c>
       <c r="G62" t="n">
-        <v>-1232738.237314346</v>
-      </c>
-      <c r="H62" t="n">
-        <v>1</v>
-      </c>
-      <c r="I62" t="n">
-        <v>11.86</v>
-      </c>
-      <c r="J62" t="n">
-        <v>11.85</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2521,22 +2333,15 @@
         <v>50</v>
       </c>
       <c r="G63" t="n">
-        <v>-1232688.237314346</v>
-      </c>
-      <c r="H63" t="n">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>11.86</v>
-      </c>
-      <c r="J63" t="n">
-        <v>11.86</v>
-      </c>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2558,24 +2363,15 @@
         <v>5056.1334</v>
       </c>
       <c r="G64" t="n">
-        <v>-1237744.370714346</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>11.86</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2597,26 +2393,15 @@
         <v>12464.6216</v>
       </c>
       <c r="G65" t="n">
-        <v>-1237744.370714346</v>
-      </c>
-      <c r="H65" t="n">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>11.87</v>
-      </c>
-      <c r="J65" t="n">
-        <v>11.86</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2638,22 +2423,15 @@
         <v>50</v>
       </c>
       <c r="G66" t="n">
-        <v>-1237694.370714346</v>
-      </c>
-      <c r="H66" t="n">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>11.87</v>
-      </c>
-      <c r="J66" t="n">
-        <v>11.87</v>
-      </c>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2675,26 +2453,15 @@
         <v>16793.1182</v>
       </c>
       <c r="G67" t="n">
-        <v>-1254487.488914346</v>
-      </c>
-      <c r="H67" t="n">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>11.94</v>
-      </c>
-      <c r="J67" t="n">
-        <v>11.87</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2716,26 +2483,15 @@
         <v>90000</v>
       </c>
       <c r="G68" t="n">
-        <v>-1344487.488914346</v>
-      </c>
-      <c r="H68" t="n">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>11.88</v>
-      </c>
-      <c r="J68" t="n">
-        <v>11.87</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2757,22 +2513,15 @@
         <v>50</v>
       </c>
       <c r="G69" t="n">
-        <v>-1344437.488914346</v>
-      </c>
-      <c r="H69" t="n">
-        <v>1</v>
-      </c>
-      <c r="I69" t="n">
-        <v>11.86</v>
-      </c>
-      <c r="J69" t="n">
-        <v>11.86</v>
-      </c>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2794,26 +2543,15 @@
         <v>5000</v>
       </c>
       <c r="G70" t="n">
-        <v>-1349437.488914346</v>
-      </c>
-      <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>11.93</v>
-      </c>
-      <c r="J70" t="n">
-        <v>11.86</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2835,26 +2573,15 @@
         <v>69969.99998565401</v>
       </c>
       <c r="G71" t="n">
-        <v>-1419407.4889</v>
-      </c>
-      <c r="H71" t="n">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>11.86</v>
-      </c>
-      <c r="J71" t="n">
-        <v>11.86</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2876,26 +2603,15 @@
         <v>42</v>
       </c>
       <c r="G72" t="n">
-        <v>-1419365.4889</v>
-      </c>
-      <c r="H72" t="n">
-        <v>1</v>
-      </c>
-      <c r="I72" t="n">
-        <v>11.71</v>
-      </c>
-      <c r="J72" t="n">
-        <v>11.86</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2917,26 +2633,15 @@
         <v>522.9987</v>
       </c>
       <c r="G73" t="n">
-        <v>-1419888.4876</v>
-      </c>
-      <c r="H73" t="n">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>11.92</v>
-      </c>
-      <c r="J73" t="n">
-        <v>11.86</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2958,26 +2663,15 @@
         <v>800409.6838591606</v>
       </c>
       <c r="G74" t="n">
-        <v>-619478.8037408392</v>
-      </c>
-      <c r="H74" t="n">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>11.82</v>
-      </c>
-      <c r="J74" t="n">
-        <v>11.86</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2999,24 +2693,15 @@
         <v>50</v>
       </c>
       <c r="G75" t="n">
-        <v>-619528.8037408392</v>
-      </c>
-      <c r="H75" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>11.86</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3038,24 +2723,15 @@
         <v>50</v>
       </c>
       <c r="G76" t="n">
-        <v>-619578.8037408392</v>
-      </c>
-      <c r="H76" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>11.86</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3077,24 +2753,15 @@
         <v>36983.4905</v>
       </c>
       <c r="G77" t="n">
-        <v>-656562.2942408392</v>
-      </c>
-      <c r="H77" t="n">
         <v>2</v>
       </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>11.86</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3116,24 +2783,15 @@
         <v>250</v>
       </c>
       <c r="G78" t="n">
-        <v>-656312.2942408392</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>11.86</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3155,24 +2813,15 @@
         <v>329.0558</v>
       </c>
       <c r="G79" t="n">
-        <v>-656641.3500408392</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>11.86</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3194,24 +2843,15 @@
         <v>45462.3531</v>
       </c>
       <c r="G80" t="n">
-        <v>-702103.7031408391</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>11.86</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3233,24 +2873,15 @@
         <v>934.0089</v>
       </c>
       <c r="G81" t="n">
-        <v>-702103.7031408391</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>11.86</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3272,24 +2903,15 @@
         <v>650</v>
       </c>
       <c r="G82" t="n">
-        <v>-701453.7031408391</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>11.86</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3311,24 +2933,15 @@
         <v>50</v>
       </c>
       <c r="G83" t="n">
-        <v>-701403.7031408391</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>11.86</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3350,24 +2963,15 @@
         <v>3000</v>
       </c>
       <c r="G84" t="n">
-        <v>-704403.7031408391</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>11.86</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3389,24 +2993,15 @@
         <v>1421.947</v>
       </c>
       <c r="G85" t="n">
-        <v>-702981.7561408391</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>11.86</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3428,24 +3023,15 @@
         <v>7050</v>
       </c>
       <c r="G86" t="n">
-        <v>-695931.7561408391</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>11.86</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3467,24 +3053,15 @@
         <v>1164.2988</v>
       </c>
       <c r="G87" t="n">
-        <v>-697096.0549408391</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>11.86</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3506,24 +3083,15 @@
         <v>3240.2121</v>
       </c>
       <c r="G88" t="n">
-        <v>-700336.2670408391</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>11.86</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3545,24 +3113,15 @@
         <v>961.2521</v>
       </c>
       <c r="G89" t="n">
-        <v>-699375.014940839</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>11.86</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3584,24 +3143,15 @@
         <v>29183.6937</v>
       </c>
       <c r="G90" t="n">
-        <v>-670191.3212408391</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>11.86</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3623,24 +3173,15 @@
         <v>17065.2918</v>
       </c>
       <c r="G91" t="n">
-        <v>-670191.3212408391</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>11.86</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3662,24 +3203,15 @@
         <v>2809.4162</v>
       </c>
       <c r="G92" t="n">
-        <v>-670191.3212408391</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>11.86</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3701,24 +3233,15 @@
         <v>20365.752</v>
       </c>
       <c r="G93" t="n">
-        <v>-690557.0732408391</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>11.86</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3740,24 +3263,15 @@
         <v>10000</v>
       </c>
       <c r="G94" t="n">
-        <v>-700557.0732408391</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>11.86</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3779,24 +3293,15 @@
         <v>822.5151</v>
       </c>
       <c r="G95" t="n">
-        <v>-701379.588340839</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>11.86</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3818,24 +3323,15 @@
         <v>15112.4652</v>
       </c>
       <c r="G96" t="n">
-        <v>-716492.053540839</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>11.86</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3857,24 +3353,15 @@
         <v>1000</v>
       </c>
       <c r="G97" t="n">
-        <v>-716492.053540839</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>11.86</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3896,24 +3383,15 @@
         <v>42</v>
       </c>
       <c r="G98" t="n">
-        <v>-716450.053540839</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>11.86</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3935,24 +3413,15 @@
         <v>800</v>
       </c>
       <c r="G99" t="n">
-        <v>-715650.053540839</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>11.86</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3974,24 +3443,15 @@
         <v>41252.8503</v>
       </c>
       <c r="G100" t="n">
-        <v>-756902.903840839</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>11.86</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4013,24 +3473,15 @@
         <v>9710.1152</v>
       </c>
       <c r="G101" t="n">
-        <v>-756902.903840839</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>11.86</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4052,24 +3503,15 @@
         <v>20346.267</v>
       </c>
       <c r="G102" t="n">
-        <v>-736556.6368408391</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>11.86</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4091,24 +3533,15 @@
         <v>8312.5519</v>
       </c>
       <c r="G103" t="n">
-        <v>-728244.0849408391</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>11.86</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4130,24 +3563,15 @@
         <v>38595.7642</v>
       </c>
       <c r="G104" t="n">
-        <v>-689648.3207408391</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>11.86</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4169,24 +3593,15 @@
         <v>50</v>
       </c>
       <c r="G105" t="n">
-        <v>-689598.3207408391</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>11.86</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4208,24 +3623,15 @@
         <v>18022.6671</v>
       </c>
       <c r="G106" t="n">
-        <v>-707620.9878408391</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>11.86</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4247,24 +3653,15 @@
         <v>30666.2838</v>
       </c>
       <c r="G107" t="n">
-        <v>-707620.9878408391</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>11.86</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4286,24 +3683,15 @@
         <v>66899.4262</v>
       </c>
       <c r="G108" t="n">
-        <v>-774520.4140408391</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>11.86</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4325,24 +3713,15 @@
         <v>14605.8889</v>
       </c>
       <c r="G109" t="n">
-        <v>-789126.3029408391</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>11.86</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4364,24 +3743,15 @@
         <v>9052.6759</v>
       </c>
       <c r="G110" t="n">
-        <v>-789126.3029408391</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>11.86</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4403,24 +3773,15 @@
         <v>23504.6221</v>
       </c>
       <c r="G111" t="n">
-        <v>-789126.3029408391</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>11.86</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4442,24 +3803,15 @@
         <v>497.2642</v>
       </c>
       <c r="G112" t="n">
-        <v>-788629.0387408391</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>11.86</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4481,24 +3833,15 @@
         <v>55</v>
       </c>
       <c r="G113" t="n">
-        <v>-788574.0387408391</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>11.86</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4520,24 +3863,15 @@
         <v>179641.5209</v>
       </c>
       <c r="G114" t="n">
-        <v>-968215.5596408391</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>11.86</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4559,24 +3893,15 @@
         <v>55</v>
       </c>
       <c r="G115" t="n">
-        <v>-968160.5596408391</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>11.86</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4598,24 +3923,15 @@
         <v>55.4065</v>
       </c>
       <c r="G116" t="n">
-        <v>-968215.9661408392</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>11.86</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4637,24 +3953,15 @@
         <v>12464.6216</v>
       </c>
       <c r="G117" t="n">
-        <v>-980680.5877408391</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>11.86</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4676,24 +3983,15 @@
         <v>61938.5491</v>
       </c>
       <c r="G118" t="n">
-        <v>-980680.5877408391</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>11.86</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4715,24 +4013,15 @@
         <v>80998.1724</v>
       </c>
       <c r="G119" t="n">
-        <v>-980680.5877408391</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>11.86</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4754,24 +4043,15 @@
         <v>55091.3805</v>
       </c>
       <c r="G120" t="n">
-        <v>-1035771.968240839</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>11.86</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4793,24 +4073,15 @@
         <v>85971.4491</v>
       </c>
       <c r="G121" t="n">
-        <v>-1035771.968240839</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>11.86</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4832,24 +4103,15 @@
         <v>2383.9126</v>
       </c>
       <c r="G122" t="n">
-        <v>-1038155.880840839</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>11.86</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4871,24 +4133,15 @@
         <v>1599</v>
       </c>
       <c r="G123" t="n">
-        <v>-1036556.880840839</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>11.86</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4910,24 +4163,15 @@
         <v>27588.7632</v>
       </c>
       <c r="G124" t="n">
-        <v>-1008968.117640839</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>11.86</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4949,24 +4193,15 @@
         <v>55</v>
       </c>
       <c r="G125" t="n">
-        <v>-1008913.117640839</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>11.86</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4988,24 +4223,15 @@
         <v>241233.9382</v>
       </c>
       <c r="G126" t="n">
-        <v>-1250147.055840839</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>11.86</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5027,24 +4253,15 @@
         <v>48</v>
       </c>
       <c r="G127" t="n">
-        <v>-1250099.055840839</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>11.86</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5066,24 +4283,15 @@
         <v>836.6534</v>
       </c>
       <c r="G128" t="n">
-        <v>-1250935.709240839</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>11.86</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5105,24 +4313,15 @@
         <v>43</v>
       </c>
       <c r="G129" t="n">
-        <v>-1250892.709240839</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>11.86</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5144,24 +4343,15 @@
         <v>788.6534</v>
       </c>
       <c r="G130" t="n">
-        <v>-1251681.362640839</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>11.86</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5183,24 +4373,15 @@
         <v>20235</v>
       </c>
       <c r="G131" t="n">
-        <v>-1231446.362640839</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>11.86</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5222,24 +4403,15 @@
         <v>25325.3961</v>
       </c>
       <c r="G132" t="n">
-        <v>-1256771.758740839</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>11.86</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5261,24 +4433,15 @@
         <v>9000</v>
       </c>
       <c r="G133" t="n">
-        <v>-1256771.758740839</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>11.86</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5300,24 +4463,15 @@
         <v>48</v>
       </c>
       <c r="G134" t="n">
-        <v>-1256819.758740839</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>11.86</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5339,24 +4493,15 @@
         <v>8576.993700000001</v>
       </c>
       <c r="G135" t="n">
-        <v>-1256819.758740839</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>11.86</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5378,24 +4523,15 @@
         <v>179641.521</v>
       </c>
       <c r="G136" t="n">
-        <v>-1256819.758740839</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>11.86</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5417,24 +4553,15 @@
         <v>19795.1213</v>
       </c>
       <c r="G137" t="n">
-        <v>-1237024.637440839</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>11.86</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5456,24 +4583,15 @@
         <v>2885</v>
       </c>
       <c r="G138" t="n">
-        <v>-1237024.637440839</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>11.86</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5495,24 +4613,15 @@
         <v>9009.349200000001</v>
       </c>
       <c r="G139" t="n">
-        <v>-1228015.288240839</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>11.86</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5534,24 +4643,15 @@
         <v>110</v>
       </c>
       <c r="G140" t="n">
-        <v>-1228125.288240839</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>11.86</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5573,24 +4673,15 @@
         <v>42</v>
       </c>
       <c r="G141" t="n">
-        <v>-1228083.288240839</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>11.86</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5612,24 +4703,15 @@
         <v>42271.0676</v>
       </c>
       <c r="G142" t="n">
-        <v>-1270354.355840839</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>11.86</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5651,24 +4733,15 @@
         <v>60798.5577</v>
       </c>
       <c r="G143" t="n">
-        <v>-1270354.355840839</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>11.86</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5690,24 +4763,15 @@
         <v>55</v>
       </c>
       <c r="G144" t="n">
-        <v>-1270409.355840839</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>11.86</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5729,24 +4793,15 @@
         <v>160703.0982</v>
       </c>
       <c r="G145" t="n">
-        <v>-1109706.257640839</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>11.86</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5768,24 +4823,15 @@
         <v>98</v>
       </c>
       <c r="G146" t="n">
-        <v>-1109804.257640839</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>11.86</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5807,24 +4853,15 @@
         <v>1566.3034</v>
       </c>
       <c r="G147" t="n">
-        <v>-1108237.954240839</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>11.86</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5846,24 +4883,15 @@
         <v>987</v>
       </c>
       <c r="G148" t="n">
-        <v>-1109224.954240839</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>11.86</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5885,24 +4913,15 @@
         <v>25898.0407</v>
       </c>
       <c r="G149" t="n">
-        <v>-1109224.954240839</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>11.86</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5924,24 +4943,15 @@
         <v>414725.1476</v>
       </c>
       <c r="G150" t="n">
-        <v>-1523950.101840839</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>11.86</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5963,24 +4973,15 @@
         <v>1100</v>
       </c>
       <c r="G151" t="n">
-        <v>-1522850.101840839</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>11.86</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6002,24 +5003,15 @@
         <v>383</v>
       </c>
       <c r="G152" t="n">
-        <v>-1522850.101840839</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>11.86</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6041,24 +5033,15 @@
         <v>605</v>
       </c>
       <c r="G153" t="n">
-        <v>-1522850.101840839</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>11.86</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6080,24 +5063,15 @@
         <v>18768.7831</v>
       </c>
       <c r="G154" t="n">
-        <v>-1522850.101840839</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>11.86</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6119,24 +5093,15 @@
         <v>445009.5791</v>
       </c>
       <c r="G155" t="n">
-        <v>-1522850.101840839</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>11.86</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6158,24 +5123,15 @@
         <v>94782.4538</v>
       </c>
       <c r="G156" t="n">
-        <v>-1617632.555640839</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>11.86</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6197,24 +5153,15 @@
         <v>99</v>
       </c>
       <c r="G157" t="n">
-        <v>-1617731.555640839</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>11.86</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6236,24 +5183,15 @@
         <v>465.3225</v>
       </c>
       <c r="G158" t="n">
-        <v>-1617266.233140839</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>11.86</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6275,24 +5213,15 @@
         <v>1000</v>
       </c>
       <c r="G159" t="n">
-        <v>-1616266.233140839</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>11.86</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6314,24 +5243,15 @@
         <v>224.5935</v>
       </c>
       <c r="G160" t="n">
-        <v>-1616490.826640839</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>11.86</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6353,24 +5273,15 @@
         <v>19565.6442</v>
       </c>
       <c r="G161" t="n">
-        <v>-1596925.182440839</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>11.86</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
